--- a/Assets/Data/Stages.xlsx
+++ b/Assets/Data/Stages.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070" tabRatio="661"/>
+    <workbookView windowWidth="19200" windowHeight="7070" tabRatio="661" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Stages" sheetId="1" r:id="rId1"/>
@@ -596,8 +596,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -614,15 +614,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -630,7 +622,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -638,9 +652,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -660,7 +682,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -668,37 +690,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -711,18 +703,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -735,23 +720,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -771,55 +771,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -837,7 +819,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -849,13 +831,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -873,7 +861,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -885,25 +909,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -921,25 +939,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -969,7 +969,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1008,27 +1008,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1048,6 +1028,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1062,6 +1051,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1070,16 +1070,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1088,127 +1088,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1549,8 +1549,8 @@
   <sheetPr/>
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -2165,13 +2165,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
     <col min="4" max="4" width="22.0909090909091" customWidth="1"/>
     <col min="6" max="6" width="18.3636363636364" customWidth="1"/>
@@ -2205,7 +2205,7 @@
     </row>
     <row r="2" s="1" customFormat="1" spans="1:8">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
@@ -2233,7 +2233,7 @@
     </row>
     <row r="3" s="1" customFormat="1" spans="1:8">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
@@ -2256,6 +2256,118 @@
         <v>20</v>
       </c>
       <c r="H3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:8">
+      <c r="A4" s="1">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="str">
+        <f>INDEX(Define!B:B,MATCH(C4,Define!A:A))</f>
+        <v>Tactics開始(UI表示前)</v>
+      </c>
+      <c r="E4" s="1">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="str">
+        <f>INDEX(Define!E:E,MATCH(E4,Define!D:D))</f>
+        <v>ADV再生</v>
+      </c>
+      <c r="G4" s="1">
+        <v>30</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:8">
+      <c r="A5" s="1">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="str">
+        <f>INDEX(Define!B:B,MATCH(C5,Define!A:A))</f>
+        <v>Tactics開始(UI表示前)</v>
+      </c>
+      <c r="E5" s="1">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1" t="str">
+        <f>INDEX(Define!E:E,MATCH(E5,Define!D:D))</f>
+        <v>ADV再生</v>
+      </c>
+      <c r="G5" s="1">
+        <v>50</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1" t="str">
+        <f>INDEX(Define!B:B,MATCH(C6,Define!A:A))</f>
+        <v>Strategy開始</v>
+      </c>
+      <c r="E6" s="1">
+        <v>11</v>
+      </c>
+      <c r="F6" s="1" t="str">
+        <f>INDEX(Define!E:E,MATCH(E6,Define!D:D))</f>
+        <v>ADV再生</v>
+      </c>
+      <c r="G6" s="1">
+        <v>60</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:8">
+      <c r="A7" s="1">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1" t="str">
+        <f>INDEX(Define!B:B,MATCH(C7,Define!A:A))</f>
+        <v>Tactics開始(UI表示前)</v>
+      </c>
+      <c r="E7" s="1">
+        <v>11</v>
+      </c>
+      <c r="F7" s="1" t="str">
+        <f>INDEX(Define!E:E,MATCH(E7,Define!D:D))</f>
+        <v>ADV再生</v>
+      </c>
+      <c r="G7" s="1">
+        <v>70</v>
+      </c>
+      <c r="H7" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2271,7 +2383,7 @@
   <dimension ref="A1:M83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>

--- a/Assets/Data/Stages.xlsx
+++ b/Assets/Data/Stages.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070" tabRatio="661" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7070" tabRatio="661" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Stages" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="128">
   <si>
     <t>Id</t>
   </si>
@@ -145,7 +145,7 @@
     <t>ClearCount</t>
   </si>
   <si>
-    <t>開始時に入手</t>
+    <t>Seek=-1でステージ開始時に入手</t>
   </si>
   <si>
     <t>Seek=0でランダム生成用</t>
@@ -594,10 +594,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -613,23 +613,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -650,22 +642,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -683,14 +659,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -719,13 +687,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -736,6 +697,38 @@
     <font>
       <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -757,6 +750,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10.5"/>
       <name val="ＭＳ ゴシック"/>
       <charset val="134"/>
@@ -771,19 +771,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -801,7 +807,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -813,7 +855,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -825,19 +879,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -849,55 +909,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -915,43 +927,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -962,15 +962,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -985,30 +976,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1054,6 +1021,39 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1070,145 +1070,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2167,8 +2167,8 @@
   <sheetPr/>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="6" outlineLevelCol="7"/>
@@ -2208,7 +2208,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1">
         <v>11</v>
@@ -2236,7 +2236,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1">
         <v>11</v>
@@ -2292,7 +2292,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1">
         <v>11</v>
@@ -2320,7 +2320,7 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -2348,7 +2348,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" s="1">
         <v>11</v>
@@ -2380,10 +2380,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M83"/>
+  <dimension ref="A1:M85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="$A14:$XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -2423,10 +2423,10 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -2448,7 +2448,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>113</v>
+        <v>1001</v>
       </c>
       <c r="J2" s="1">
         <v>0</v>
@@ -2546,29 +2546,29 @@
         <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E5" s="1" t="str">
         <f>INDEX(Define!J:J,MATCH(D5,Define!I:I))</f>
-        <v>Event</v>
+        <v>Battle</v>
       </c>
       <c r="F5" s="1">
         <v>100</v>
       </c>
       <c r="G5" s="1">
-        <v>40</v>
+        <v>1021</v>
       </c>
       <c r="H5" s="1">
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>1041</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
         <v>0</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -2584,29 +2584,29 @@
         <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E6" s="1" t="str">
         <f>INDEX(Define!J:J,MATCH(D6,Define!I:I))</f>
-        <v>Battle</v>
+        <v>Event</v>
       </c>
       <c r="F6" s="1">
         <v>100</v>
       </c>
       <c r="G6" s="1">
-        <v>1031</v>
+        <v>40</v>
       </c>
       <c r="H6" s="1">
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>0</v>
+        <v>1041</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -2622,29 +2622,29 @@
         <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E7" s="1" t="str">
         <f>INDEX(Define!J:J,MATCH(D7,Define!I:I))</f>
-        <v>Alcana</v>
+        <v>Battle</v>
       </c>
       <c r="F7" s="1">
         <v>100</v>
       </c>
       <c r="G7" s="1">
-        <v>0</v>
+        <v>1041</v>
       </c>
       <c r="H7" s="1">
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>1021</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -2660,29 +2660,29 @@
         <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E8" s="1" t="str">
         <f>INDEX(Define!J:J,MATCH(D8,Define!I:I))</f>
-        <v>Battle</v>
+        <v>Alcana</v>
       </c>
       <c r="F8" s="1">
         <v>100</v>
       </c>
       <c r="G8" s="1">
-        <v>1051</v>
+        <v>0</v>
       </c>
       <c r="H8" s="1">
         <v>0</v>
       </c>
       <c r="I8" s="1">
-        <v>0</v>
+        <v>1021</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -2802,32 +2802,78 @@
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
+      <c r="A12" s="1">
+        <v>20</v>
+      </c>
+      <c r="B12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>8</v>
+      </c>
+      <c r="E12" s="1" t="str">
+        <f>INDEX(Define!J:J,MATCH(D12,Define!I:I))</f>
+        <v>SelectActor</v>
+      </c>
+      <c r="F12" s="1">
+        <v>100</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>2001</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="A13" s="1">
+        <v>20</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="str">
+        <f>INDEX(Define!J:J,MATCH(D13,Define!I:I))</f>
+        <v>Battle</v>
+      </c>
+      <c r="F13" s="1">
+        <v>100</v>
+      </c>
+      <c r="G13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
     </row>
@@ -3188,6 +3234,7 @@
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
       <c r="M37" s="1"/>
     </row>
     <row r="38" spans="1:13">
@@ -3217,7 +3264,6 @@
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
       <c r="M39" s="1"/>
     </row>
     <row r="40" spans="1:13">
@@ -3514,6 +3560,7 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
@@ -3543,7 +3590,6 @@
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
@@ -3759,7 +3805,7 @@
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:13">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -3771,6 +3817,8 @@
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
     </row>
     <row r="77" spans="1:13">
       <c r="A77" s="1"/>
@@ -3800,7 +3848,7 @@
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:13">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -3812,6 +3860,8 @@
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
     </row>
     <row r="80" spans="1:11">
       <c r="A80" s="1"/>
@@ -3846,7 +3896,10 @@
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
       <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
       <c r="K82" s="1"/>
     </row>
     <row r="83" spans="1:11">
@@ -3861,6 +3914,29 @@
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="K84" s="1"/>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Assets/Data/Stages.xlsx
+++ b/Assets/Data/Stages.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070" tabRatio="661" activeTab="2"/>
+    <workbookView windowWidth="19200" windowHeight="7070" tabRatio="661" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Stages" sheetId="1" r:id="rId1"/>
@@ -620,6 +620,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -629,6 +637,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -650,6 +666,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -657,15 +688,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -679,9 +711,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -703,6 +734,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -713,47 +751,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -771,12 +771,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -789,13 +783,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -813,31 +813,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -849,25 +831,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -891,7 +873,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -903,19 +885,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -927,31 +915,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -962,6 +962,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -976,6 +987,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1028,37 +1054,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1070,7 +1070,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1079,7 +1079,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1088,127 +1088,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2165,13 +2165,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="7"/>
   <cols>
     <col min="4" max="4" width="22.0909090909091" customWidth="1"/>
     <col min="6" max="6" width="18.3636363636364" customWidth="1"/>
@@ -2368,6 +2368,1294 @@
         <v>70</v>
       </c>
       <c r="H7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" spans="1:8">
+      <c r="A8">
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1" t="str">
+        <f>INDEX(Define!B:B,MATCH(C8,Define!A:A))</f>
+        <v>Strategy開始</v>
+      </c>
+      <c r="E8" s="1">
+        <v>11</v>
+      </c>
+      <c r="F8" s="1" t="str">
+        <f>INDEX(Define!E:E,MATCH(E8,Define!D:D))</f>
+        <v>ADV再生</v>
+      </c>
+      <c r="G8" s="1">
+        <v>90</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:8">
+      <c r="A9" s="1">
+        <v>30</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>11</v>
+      </c>
+      <c r="D9" s="1" t="str">
+        <f>INDEX(Define!B:B,MATCH(C9,Define!A:A))</f>
+        <v>Tactics開始(UI表示前)</v>
+      </c>
+      <c r="E9" s="1">
+        <v>11</v>
+      </c>
+      <c r="F9" s="1" t="str">
+        <f>INDEX(Define!E:E,MATCH(E9,Define!D:D))</f>
+        <v>ADV再生</v>
+      </c>
+      <c r="G9" s="1">
+        <v>100</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="1:8">
+      <c r="A10">
+        <v>30</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1" t="str">
+        <f>INDEX(Define!B:B,MATCH(C10,Define!A:A))</f>
+        <v>Strategy開始</v>
+      </c>
+      <c r="E10" s="1">
+        <v>11</v>
+      </c>
+      <c r="F10" s="1" t="str">
+        <f>INDEX(Define!E:E,MATCH(E10,Define!D:D))</f>
+        <v>ADV再生</v>
+      </c>
+      <c r="G10" s="1">
+        <v>130</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:8">
+      <c r="A11" s="1">
+        <v>40</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>11</v>
+      </c>
+      <c r="D11" s="1" t="str">
+        <f>INDEX(Define!B:B,MATCH(C11,Define!A:A))</f>
+        <v>Tactics開始(UI表示前)</v>
+      </c>
+      <c r="E11" s="1">
+        <v>11</v>
+      </c>
+      <c r="F11" s="1" t="str">
+        <f>INDEX(Define!E:E,MATCH(E11,Define!D:D))</f>
+        <v>ADV再生</v>
+      </c>
+      <c r="G11" s="1">
+        <v>140</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="1:8">
+      <c r="A12">
+        <v>40</v>
+      </c>
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1" t="str">
+        <f>INDEX(Define!B:B,MATCH(C12,Define!A:A))</f>
+        <v>Strategy開始</v>
+      </c>
+      <c r="E12" s="1">
+        <v>11</v>
+      </c>
+      <c r="F12" s="1" t="str">
+        <f>INDEX(Define!E:E,MATCH(E12,Define!D:D))</f>
+        <v>ADV再生</v>
+      </c>
+      <c r="G12" s="1">
+        <v>180</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:8">
+      <c r="A13" s="1">
+        <v>50</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>11</v>
+      </c>
+      <c r="D13" s="1" t="str">
+        <f>INDEX(Define!B:B,MATCH(C13,Define!A:A))</f>
+        <v>Tactics開始(UI表示前)</v>
+      </c>
+      <c r="E13" s="1">
+        <v>11</v>
+      </c>
+      <c r="F13" s="1" t="str">
+        <f>INDEX(Define!E:E,MATCH(E13,Define!D:D))</f>
+        <v>ADV再生</v>
+      </c>
+      <c r="G13" s="1">
+        <v>190</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="1:8">
+      <c r="A14">
+        <v>50</v>
+      </c>
+      <c r="B14">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1" t="str">
+        <f>INDEX(Define!B:B,MATCH(C14,Define!A:A))</f>
+        <v>Strategy開始</v>
+      </c>
+      <c r="E14" s="1">
+        <v>11</v>
+      </c>
+      <c r="F14" s="1" t="str">
+        <f>INDEX(Define!E:E,MATCH(E14,Define!D:D))</f>
+        <v>ADV再生</v>
+      </c>
+      <c r="G14" s="1">
+        <v>220</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:8">
+      <c r="A15" s="1">
+        <v>60</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>11</v>
+      </c>
+      <c r="D15" s="1" t="str">
+        <f>INDEX(Define!B:B,MATCH(C15,Define!A:A))</f>
+        <v>Tactics開始(UI表示前)</v>
+      </c>
+      <c r="E15" s="1">
+        <v>11</v>
+      </c>
+      <c r="F15" s="1" t="str">
+        <f>INDEX(Define!E:E,MATCH(E15,Define!D:D))</f>
+        <v>ADV再生</v>
+      </c>
+      <c r="G15" s="1">
+        <v>230</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="1:8">
+      <c r="A16" s="1">
+        <v>60</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1">
+        <v>11</v>
+      </c>
+      <c r="D16" s="1" t="str">
+        <f>INDEX(Define!B:B,MATCH(C16,Define!A:A))</f>
+        <v>Tactics開始(UI表示前)</v>
+      </c>
+      <c r="E16" s="1">
+        <v>11</v>
+      </c>
+      <c r="F16" s="1" t="str">
+        <f>INDEX(Define!E:E,MATCH(E16,Define!D:D))</f>
+        <v>ADV再生</v>
+      </c>
+      <c r="G16" s="1">
+        <v>240</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:8">
+      <c r="A17" s="1">
+        <v>60</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>11</v>
+      </c>
+      <c r="D17" s="1" t="str">
+        <f>INDEX(Define!B:B,MATCH(C17,Define!A:A))</f>
+        <v>Tactics開始(UI表示前)</v>
+      </c>
+      <c r="E17" s="1">
+        <v>11</v>
+      </c>
+      <c r="F17" s="1" t="str">
+        <f>INDEX(Define!E:E,MATCH(E17,Define!D:D))</f>
+        <v>ADV再生</v>
+      </c>
+      <c r="G17" s="1">
+        <v>250</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="1:8">
+      <c r="A18" s="1">
+        <v>60</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1">
+        <v>11</v>
+      </c>
+      <c r="D18" s="1" t="str">
+        <f>INDEX(Define!B:B,MATCH(C18,Define!A:A))</f>
+        <v>Tactics開始(UI表示前)</v>
+      </c>
+      <c r="E18" s="1">
+        <v>11</v>
+      </c>
+      <c r="F18" s="1" t="str">
+        <f>INDEX(Define!E:E,MATCH(E18,Define!D:D))</f>
+        <v>ADV再生</v>
+      </c>
+      <c r="G18" s="1">
+        <v>260</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="1:8">
+      <c r="A19" s="1">
+        <v>60</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1">
+        <v>11</v>
+      </c>
+      <c r="D19" s="1" t="str">
+        <f>INDEX(Define!B:B,MATCH(C19,Define!A:A))</f>
+        <v>Tactics開始(UI表示前)</v>
+      </c>
+      <c r="E19" s="1">
+        <v>11</v>
+      </c>
+      <c r="F19" s="1" t="str">
+        <f>INDEX(Define!E:E,MATCH(E19,Define!D:D))</f>
+        <v>ADV再生</v>
+      </c>
+      <c r="G19" s="1">
+        <v>270</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" spans="1:8">
+      <c r="A20">
+        <v>60</v>
+      </c>
+      <c r="B20">
+        <v>8</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1" t="str">
+        <f>INDEX(Define!B:B,MATCH(C20,Define!A:A))</f>
+        <v>Strategy開始</v>
+      </c>
+      <c r="E20" s="1">
+        <v>11</v>
+      </c>
+      <c r="F20" s="1" t="str">
+        <f>INDEX(Define!E:E,MATCH(E20,Define!D:D))</f>
+        <v>ADV再生</v>
+      </c>
+      <c r="G20" s="1">
+        <v>280</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="1:8">
+      <c r="A21" s="1">
+        <v>70</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1">
+        <v>11</v>
+      </c>
+      <c r="D21" s="1" t="str">
+        <f>INDEX(Define!B:B,MATCH(C21,Define!A:A))</f>
+        <v>Tactics開始(UI表示前)</v>
+      </c>
+      <c r="E21" s="1">
+        <v>11</v>
+      </c>
+      <c r="F21" s="1" t="str">
+        <f>INDEX(Define!E:E,MATCH(E21,Define!D:D))</f>
+        <v>ADV再生</v>
+      </c>
+      <c r="G21" s="1">
+        <v>290</v>
+      </c>
+      <c r="H21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1" spans="1:8">
+      <c r="A22">
+        <v>70</v>
+      </c>
+      <c r="B22">
+        <v>8</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22" s="1" t="str">
+        <f>INDEX(Define!B:B,MATCH(C22,Define!A:A))</f>
+        <v>Strategy開始</v>
+      </c>
+      <c r="E22" s="1">
+        <v>11</v>
+      </c>
+      <c r="F22" s="1" t="str">
+        <f>INDEX(Define!E:E,MATCH(E22,Define!D:D))</f>
+        <v>ADV再生</v>
+      </c>
+      <c r="G22" s="1">
+        <v>320</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="1:8">
+      <c r="A23" s="1">
+        <v>80</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1">
+        <v>11</v>
+      </c>
+      <c r="D23" s="1" t="str">
+        <f>INDEX(Define!B:B,MATCH(C23,Define!A:A))</f>
+        <v>Tactics開始(UI表示前)</v>
+      </c>
+      <c r="E23" s="1">
+        <v>11</v>
+      </c>
+      <c r="F23" s="1" t="str">
+        <f>INDEX(Define!E:E,MATCH(E23,Define!D:D))</f>
+        <v>ADV再生</v>
+      </c>
+      <c r="G23" s="1">
+        <v>330</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:8">
+      <c r="A24" s="1">
+        <v>80</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1">
+        <v>11</v>
+      </c>
+      <c r="D24" s="1" t="str">
+        <f>INDEX(Define!B:B,MATCH(C24,Define!A:A))</f>
+        <v>Tactics開始(UI表示前)</v>
+      </c>
+      <c r="E24" s="1">
+        <v>11</v>
+      </c>
+      <c r="F24" s="1" t="str">
+        <f>INDEX(Define!E:E,MATCH(E24,Define!D:D))</f>
+        <v>ADV再生</v>
+      </c>
+      <c r="G24" s="1">
+        <v>340</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="1:8">
+      <c r="A25" s="1">
+        <v>80</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1">
+        <v>11</v>
+      </c>
+      <c r="D25" s="1" t="str">
+        <f>INDEX(Define!B:B,MATCH(C25,Define!A:A))</f>
+        <v>Tactics開始(UI表示前)</v>
+      </c>
+      <c r="E25" s="1">
+        <v>11</v>
+      </c>
+      <c r="F25" s="1" t="str">
+        <f>INDEX(Define!E:E,MATCH(E25,Define!D:D))</f>
+        <v>ADV再生</v>
+      </c>
+      <c r="G25" s="1">
+        <v>350</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" customFormat="1" spans="1:8">
+      <c r="A26">
+        <v>80</v>
+      </c>
+      <c r="B26">
+        <v>8</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26" s="1" t="str">
+        <f>INDEX(Define!B:B,MATCH(C26,Define!A:A))</f>
+        <v>Strategy開始</v>
+      </c>
+      <c r="E26" s="1">
+        <v>11</v>
+      </c>
+      <c r="F26" s="1" t="str">
+        <f>INDEX(Define!E:E,MATCH(E26,Define!D:D))</f>
+        <v>ADV再生</v>
+      </c>
+      <c r="G26" s="1">
+        <v>370</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="1:8">
+      <c r="A27" s="1">
+        <v>90</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1">
+        <v>11</v>
+      </c>
+      <c r="D27" s="1" t="str">
+        <f>INDEX(Define!B:B,MATCH(C27,Define!A:A))</f>
+        <v>Tactics開始(UI表示前)</v>
+      </c>
+      <c r="E27" s="1">
+        <v>11</v>
+      </c>
+      <c r="F27" s="1" t="str">
+        <f>INDEX(Define!E:E,MATCH(E27,Define!D:D))</f>
+        <v>ADV再生</v>
+      </c>
+      <c r="G27" s="1">
+        <v>380</v>
+      </c>
+      <c r="H27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="1:8">
+      <c r="A28" s="1">
+        <v>90</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1">
+        <v>11</v>
+      </c>
+      <c r="D28" s="1" t="str">
+        <f>INDEX(Define!B:B,MATCH(C28,Define!A:A))</f>
+        <v>Tactics開始(UI表示前)</v>
+      </c>
+      <c r="E28" s="1">
+        <v>11</v>
+      </c>
+      <c r="F28" s="1" t="str">
+        <f>INDEX(Define!E:E,MATCH(E28,Define!D:D))</f>
+        <v>ADV再生</v>
+      </c>
+      <c r="G28" s="1">
+        <v>390</v>
+      </c>
+      <c r="H28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" s="1" customFormat="1" spans="1:8">
+      <c r="A29" s="1">
+        <v>90</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1">
+        <v>11</v>
+      </c>
+      <c r="D29" s="1" t="str">
+        <f>INDEX(Define!B:B,MATCH(C29,Define!A:A))</f>
+        <v>Tactics開始(UI表示前)</v>
+      </c>
+      <c r="E29" s="1">
+        <v>11</v>
+      </c>
+      <c r="F29" s="1" t="str">
+        <f>INDEX(Define!E:E,MATCH(E29,Define!D:D))</f>
+        <v>ADV再生</v>
+      </c>
+      <c r="G29" s="1">
+        <v>400</v>
+      </c>
+      <c r="H29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" customFormat="1" spans="1:8">
+      <c r="A30">
+        <v>90</v>
+      </c>
+      <c r="B30">
+        <v>8</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30" s="1" t="str">
+        <f>INDEX(Define!B:B,MATCH(C30,Define!A:A))</f>
+        <v>Strategy開始</v>
+      </c>
+      <c r="E30" s="1">
+        <v>11</v>
+      </c>
+      <c r="F30" s="1" t="str">
+        <f>INDEX(Define!E:E,MATCH(E30,Define!D:D))</f>
+        <v>ADV再生</v>
+      </c>
+      <c r="G30" s="1">
+        <v>410</v>
+      </c>
+      <c r="H30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="1" spans="1:8">
+      <c r="A31" s="1">
+        <v>100</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1">
+        <v>11</v>
+      </c>
+      <c r="D31" s="1" t="str">
+        <f>INDEX(Define!B:B,MATCH(C31,Define!A:A))</f>
+        <v>Tactics開始(UI表示前)</v>
+      </c>
+      <c r="E31" s="1">
+        <v>11</v>
+      </c>
+      <c r="F31" s="1" t="str">
+        <f>INDEX(Define!E:E,MATCH(E31,Define!D:D))</f>
+        <v>ADV再生</v>
+      </c>
+      <c r="G31" s="1">
+        <v>420</v>
+      </c>
+      <c r="H31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" customFormat="1" spans="1:8">
+      <c r="A32">
+        <v>100</v>
+      </c>
+      <c r="B32">
+        <v>8</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32" s="1" t="str">
+        <f>INDEX(Define!B:B,MATCH(C32,Define!A:A))</f>
+        <v>Strategy開始</v>
+      </c>
+      <c r="E32" s="1">
+        <v>11</v>
+      </c>
+      <c r="F32" s="1" t="str">
+        <f>INDEX(Define!E:E,MATCH(E32,Define!D:D))</f>
+        <v>ADV再生</v>
+      </c>
+      <c r="G32" s="1">
+        <v>450</v>
+      </c>
+      <c r="H32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" s="1" customFormat="1" spans="1:8">
+      <c r="A33" s="1">
+        <v>110</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1">
+        <v>11</v>
+      </c>
+      <c r="D33" s="1" t="str">
+        <f>INDEX(Define!B:B,MATCH(C33,Define!A:A))</f>
+        <v>Tactics開始(UI表示前)</v>
+      </c>
+      <c r="E33" s="1">
+        <v>11</v>
+      </c>
+      <c r="F33" s="1" t="str">
+        <f>INDEX(Define!E:E,MATCH(E33,Define!D:D))</f>
+        <v>ADV再生</v>
+      </c>
+      <c r="G33" s="1">
+        <v>460</v>
+      </c>
+      <c r="H33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" s="1" customFormat="1" spans="1:8">
+      <c r="A34" s="1">
+        <v>110</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1">
+        <v>11</v>
+      </c>
+      <c r="D34" s="1" t="str">
+        <f>INDEX(Define!B:B,MATCH(C34,Define!A:A))</f>
+        <v>Tactics開始(UI表示前)</v>
+      </c>
+      <c r="E34" s="1">
+        <v>11</v>
+      </c>
+      <c r="F34" s="1" t="str">
+        <f>INDEX(Define!E:E,MATCH(E34,Define!D:D))</f>
+        <v>ADV再生</v>
+      </c>
+      <c r="G34" s="1">
+        <v>470</v>
+      </c>
+      <c r="H34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" s="1" customFormat="1" spans="1:8">
+      <c r="A35" s="1">
+        <v>110</v>
+      </c>
+      <c r="B35" s="1">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1">
+        <v>11</v>
+      </c>
+      <c r="D35" s="1" t="str">
+        <f>INDEX(Define!B:B,MATCH(C35,Define!A:A))</f>
+        <v>Tactics開始(UI表示前)</v>
+      </c>
+      <c r="E35" s="1">
+        <v>11</v>
+      </c>
+      <c r="F35" s="1" t="str">
+        <f>INDEX(Define!E:E,MATCH(E35,Define!D:D))</f>
+        <v>ADV再生</v>
+      </c>
+      <c r="G35" s="1">
+        <v>480</v>
+      </c>
+      <c r="H35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" s="1" customFormat="1" spans="1:8">
+      <c r="A36" s="1">
+        <v>110</v>
+      </c>
+      <c r="B36" s="1">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1">
+        <v>11</v>
+      </c>
+      <c r="D36" s="1" t="str">
+        <f>INDEX(Define!B:B,MATCH(C36,Define!A:A))</f>
+        <v>Tactics開始(UI表示前)</v>
+      </c>
+      <c r="E36" s="1">
+        <v>11</v>
+      </c>
+      <c r="F36" s="1" t="str">
+        <f>INDEX(Define!E:E,MATCH(E36,Define!D:D))</f>
+        <v>ADV再生</v>
+      </c>
+      <c r="G36" s="1">
+        <v>490</v>
+      </c>
+      <c r="H36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" s="1" customFormat="1" spans="1:8">
+      <c r="A37" s="1">
+        <v>110</v>
+      </c>
+      <c r="B37" s="1">
+        <v>1</v>
+      </c>
+      <c r="C37" s="1">
+        <v>11</v>
+      </c>
+      <c r="D37" s="1" t="str">
+        <f>INDEX(Define!B:B,MATCH(C37,Define!A:A))</f>
+        <v>Tactics開始(UI表示前)</v>
+      </c>
+      <c r="E37" s="1">
+        <v>11</v>
+      </c>
+      <c r="F37" s="1" t="str">
+        <f>INDEX(Define!E:E,MATCH(E37,Define!D:D))</f>
+        <v>ADV再生</v>
+      </c>
+      <c r="G37" s="1">
+        <v>500</v>
+      </c>
+      <c r="H37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" customFormat="1" spans="1:8">
+      <c r="A38">
+        <v>110</v>
+      </c>
+      <c r="B38">
+        <v>8</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38" s="1" t="str">
+        <f>INDEX(Define!B:B,MATCH(C38,Define!A:A))</f>
+        <v>Strategy開始</v>
+      </c>
+      <c r="E38" s="1">
+        <v>11</v>
+      </c>
+      <c r="F38" s="1" t="str">
+        <f>INDEX(Define!E:E,MATCH(E38,Define!D:D))</f>
+        <v>ADV再生</v>
+      </c>
+      <c r="G38" s="1">
+        <v>530</v>
+      </c>
+      <c r="H38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" s="1" customFormat="1" spans="1:8">
+      <c r="A39" s="1">
+        <v>120</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1</v>
+      </c>
+      <c r="C39" s="1">
+        <v>11</v>
+      </c>
+      <c r="D39" s="1" t="str">
+        <f>INDEX(Define!B:B,MATCH(C39,Define!A:A))</f>
+        <v>Tactics開始(UI表示前)</v>
+      </c>
+      <c r="E39" s="1">
+        <v>11</v>
+      </c>
+      <c r="F39" s="1" t="str">
+        <f>INDEX(Define!E:E,MATCH(E39,Define!D:D))</f>
+        <v>ADV再生</v>
+      </c>
+      <c r="G39" s="1">
+        <v>540</v>
+      </c>
+      <c r="H39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" s="1" customFormat="1" spans="1:8">
+      <c r="A40" s="1">
+        <v>120</v>
+      </c>
+      <c r="B40" s="1">
+        <v>1</v>
+      </c>
+      <c r="C40" s="1">
+        <v>11</v>
+      </c>
+      <c r="D40" s="1" t="str">
+        <f>INDEX(Define!B:B,MATCH(C40,Define!A:A))</f>
+        <v>Tactics開始(UI表示前)</v>
+      </c>
+      <c r="E40" s="1">
+        <v>11</v>
+      </c>
+      <c r="F40" s="1" t="str">
+        <f>INDEX(Define!E:E,MATCH(E40,Define!D:D))</f>
+        <v>ADV再生</v>
+      </c>
+      <c r="G40" s="1">
+        <v>550</v>
+      </c>
+      <c r="H40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" s="1" customFormat="1" spans="1:8">
+      <c r="A41" s="1">
+        <v>120</v>
+      </c>
+      <c r="B41" s="1">
+        <v>1</v>
+      </c>
+      <c r="C41" s="1">
+        <v>11</v>
+      </c>
+      <c r="D41" s="1" t="str">
+        <f>INDEX(Define!B:B,MATCH(C41,Define!A:A))</f>
+        <v>Tactics開始(UI表示前)</v>
+      </c>
+      <c r="E41" s="1">
+        <v>11</v>
+      </c>
+      <c r="F41" s="1" t="str">
+        <f>INDEX(Define!E:E,MATCH(E41,Define!D:D))</f>
+        <v>ADV再生</v>
+      </c>
+      <c r="G41" s="1">
+        <v>560</v>
+      </c>
+      <c r="H41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" customFormat="1" spans="1:8">
+      <c r="A42">
+        <v>120</v>
+      </c>
+      <c r="B42">
+        <v>8</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42" s="1" t="str">
+        <f>INDEX(Define!B:B,MATCH(C42,Define!A:A))</f>
+        <v>Strategy開始</v>
+      </c>
+      <c r="E42" s="1">
+        <v>11</v>
+      </c>
+      <c r="F42" s="1" t="str">
+        <f>INDEX(Define!E:E,MATCH(E42,Define!D:D))</f>
+        <v>ADV再生</v>
+      </c>
+      <c r="G42" s="1">
+        <v>590</v>
+      </c>
+      <c r="H42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" customFormat="1" spans="1:8">
+      <c r="A43">
+        <v>130</v>
+      </c>
+      <c r="B43">
+        <v>8</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43" s="1" t="str">
+        <f>INDEX(Define!B:B,MATCH(C43,Define!A:A))</f>
+        <v>Strategy開始</v>
+      </c>
+      <c r="E43" s="1">
+        <v>11</v>
+      </c>
+      <c r="F43" s="1" t="str">
+        <f>INDEX(Define!E:E,MATCH(E43,Define!D:D))</f>
+        <v>ADV再生</v>
+      </c>
+      <c r="G43" s="1">
+        <v>610</v>
+      </c>
+      <c r="H43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" customFormat="1" spans="1:8">
+      <c r="A44">
+        <v>130</v>
+      </c>
+      <c r="B44">
+        <v>8</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44" s="1" t="str">
+        <f>INDEX(Define!B:B,MATCH(C44,Define!A:A))</f>
+        <v>Strategy開始</v>
+      </c>
+      <c r="E44" s="1">
+        <v>11</v>
+      </c>
+      <c r="F44" s="1" t="str">
+        <f>INDEX(Define!E:E,MATCH(E44,Define!D:D))</f>
+        <v>ADV再生</v>
+      </c>
+      <c r="G44" s="1">
+        <v>630</v>
+      </c>
+      <c r="H44" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" s="1" customFormat="1" spans="1:8">
+      <c r="A45" s="1">
+        <v>140</v>
+      </c>
+      <c r="B45" s="1">
+        <v>1</v>
+      </c>
+      <c r="C45" s="1">
+        <v>11</v>
+      </c>
+      <c r="D45" s="1" t="str">
+        <f>INDEX(Define!B:B,MATCH(C45,Define!A:A))</f>
+        <v>Tactics開始(UI表示前)</v>
+      </c>
+      <c r="E45" s="1">
+        <v>11</v>
+      </c>
+      <c r="F45" s="1" t="str">
+        <f>INDEX(Define!E:E,MATCH(E45,Define!D:D))</f>
+        <v>ADV再生</v>
+      </c>
+      <c r="G45" s="1">
+        <v>640</v>
+      </c>
+      <c r="H45" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" s="1" customFormat="1" spans="1:8">
+      <c r="A46" s="1">
+        <v>140</v>
+      </c>
+      <c r="B46" s="1">
+        <v>1</v>
+      </c>
+      <c r="C46" s="1">
+        <v>11</v>
+      </c>
+      <c r="D46" s="1" t="str">
+        <f>INDEX(Define!B:B,MATCH(C46,Define!A:A))</f>
+        <v>Tactics開始(UI表示前)</v>
+      </c>
+      <c r="E46" s="1">
+        <v>11</v>
+      </c>
+      <c r="F46" s="1" t="str">
+        <f>INDEX(Define!E:E,MATCH(E46,Define!D:D))</f>
+        <v>ADV再生</v>
+      </c>
+      <c r="G46" s="1">
+        <v>650</v>
+      </c>
+      <c r="H46" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" customFormat="1" spans="1:8">
+      <c r="A47">
+        <v>140</v>
+      </c>
+      <c r="B47">
+        <v>8</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47" s="1" t="str">
+        <f>INDEX(Define!B:B,MATCH(C47,Define!A:A))</f>
+        <v>Strategy開始</v>
+      </c>
+      <c r="E47" s="1">
+        <v>11</v>
+      </c>
+      <c r="F47" s="1" t="str">
+        <f>INDEX(Define!E:E,MATCH(E47,Define!D:D))</f>
+        <v>ADV再生</v>
+      </c>
+      <c r="G47" s="1">
+        <v>660</v>
+      </c>
+      <c r="H47" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" s="1" customFormat="1" spans="1:8">
+      <c r="A48" s="1">
+        <v>150</v>
+      </c>
+      <c r="B48" s="1">
+        <v>1</v>
+      </c>
+      <c r="C48" s="1">
+        <v>11</v>
+      </c>
+      <c r="D48" s="1" t="str">
+        <f>INDEX(Define!B:B,MATCH(C48,Define!A:A))</f>
+        <v>Tactics開始(UI表示前)</v>
+      </c>
+      <c r="E48" s="1">
+        <v>11</v>
+      </c>
+      <c r="F48" s="1" t="str">
+        <f>INDEX(Define!E:E,MATCH(E48,Define!D:D))</f>
+        <v>ADV再生</v>
+      </c>
+      <c r="G48" s="1">
+        <v>670</v>
+      </c>
+      <c r="H48" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" s="1" customFormat="1" spans="1:8">
+      <c r="A49" s="1">
+        <v>150</v>
+      </c>
+      <c r="B49" s="1">
+        <v>1</v>
+      </c>
+      <c r="C49" s="1">
+        <v>11</v>
+      </c>
+      <c r="D49" s="1" t="str">
+        <f>INDEX(Define!B:B,MATCH(C49,Define!A:A))</f>
+        <v>Tactics開始(UI表示前)</v>
+      </c>
+      <c r="E49" s="1">
+        <v>11</v>
+      </c>
+      <c r="F49" s="1" t="str">
+        <f>INDEX(Define!E:E,MATCH(E49,Define!D:D))</f>
+        <v>ADV再生</v>
+      </c>
+      <c r="G49" s="1">
+        <v>680</v>
+      </c>
+      <c r="H49" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" s="1" customFormat="1" spans="1:8">
+      <c r="A50" s="1">
+        <v>150</v>
+      </c>
+      <c r="B50" s="1">
+        <v>1</v>
+      </c>
+      <c r="C50" s="1">
+        <v>11</v>
+      </c>
+      <c r="D50" s="1" t="str">
+        <f>INDEX(Define!B:B,MATCH(C50,Define!A:A))</f>
+        <v>Tactics開始(UI表示前)</v>
+      </c>
+      <c r="E50" s="1">
+        <v>11</v>
+      </c>
+      <c r="F50" s="1" t="str">
+        <f>INDEX(Define!E:E,MATCH(E50,Define!D:D))</f>
+        <v>ADV再生</v>
+      </c>
+      <c r="G50" s="1">
+        <v>690</v>
+      </c>
+      <c r="H50" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" s="1" customFormat="1" spans="1:8">
+      <c r="A51" s="1">
+        <v>150</v>
+      </c>
+      <c r="B51" s="1">
+        <v>1</v>
+      </c>
+      <c r="C51" s="1">
+        <v>11</v>
+      </c>
+      <c r="D51" s="1" t="str">
+        <f>INDEX(Define!B:B,MATCH(C51,Define!A:A))</f>
+        <v>Tactics開始(UI表示前)</v>
+      </c>
+      <c r="E51" s="1">
+        <v>11</v>
+      </c>
+      <c r="F51" s="1" t="str">
+        <f>INDEX(Define!E:E,MATCH(E51,Define!D:D))</f>
+        <v>ADV再生</v>
+      </c>
+      <c r="G51" s="1">
+        <v>700</v>
+      </c>
+      <c r="H51" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" s="1" customFormat="1" spans="1:8">
+      <c r="A52" s="1">
+        <v>150</v>
+      </c>
+      <c r="B52" s="1">
+        <v>1</v>
+      </c>
+      <c r="C52" s="1">
+        <v>11</v>
+      </c>
+      <c r="D52" s="1" t="str">
+        <f>INDEX(Define!B:B,MATCH(C52,Define!A:A))</f>
+        <v>Tactics開始(UI表示前)</v>
+      </c>
+      <c r="E52" s="1">
+        <v>11</v>
+      </c>
+      <c r="F52" s="1" t="str">
+        <f>INDEX(Define!E:E,MATCH(E52,Define!D:D))</f>
+        <v>ADV再生</v>
+      </c>
+      <c r="G52" s="1">
+        <v>710</v>
+      </c>
+      <c r="H52" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" s="1" customFormat="1" spans="1:8">
+      <c r="A53" s="1">
+        <v>150</v>
+      </c>
+      <c r="B53" s="1">
+        <v>1</v>
+      </c>
+      <c r="C53" s="1">
+        <v>11</v>
+      </c>
+      <c r="D53" s="1" t="str">
+        <f>INDEX(Define!B:B,MATCH(C53,Define!A:A))</f>
+        <v>Tactics開始(UI表示前)</v>
+      </c>
+      <c r="E53" s="1">
+        <v>11</v>
+      </c>
+      <c r="F53" s="1" t="str">
+        <f>INDEX(Define!E:E,MATCH(E53,Define!D:D))</f>
+        <v>ADV再生</v>
+      </c>
+      <c r="G53" s="1">
+        <v>720</v>
+      </c>
+      <c r="H53" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2382,7 +3670,7 @@
   <sheetPr/>
   <dimension ref="A1:M85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="$A14:$XFD21"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Data/Stages.xlsx
+++ b/Assets/Data/Stages.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070" tabRatio="661" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7070" tabRatio="661" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Stages" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="127">
   <si>
     <t>Id</t>
   </si>
@@ -152,9 +152,6 @@
   </si>
   <si>
     <t>バトル</t>
-  </si>
-  <si>
-    <t>シイナ加入</t>
   </si>
   <si>
     <t>魔法入手</t>
@@ -595,9 +592,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -614,7 +611,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -628,109 +670,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -749,11 +693,64 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -771,7 +768,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -783,43 +792,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -831,43 +810,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -879,7 +840,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -897,7 +858,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -909,13 +894,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -927,31 +936,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -962,17 +959,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -991,16 +977,45 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1030,35 +1045,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1070,145 +1067,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2165,10 +2162,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="G54" sqref="G54"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="7"/>
@@ -2292,7 +2289,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1">
         <v>11</v>
@@ -2309,25 +2306,25 @@
         <v>ADV再生</v>
       </c>
       <c r="G5" s="1">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H5" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6">
+    <row r="6" s="1" customFormat="1" spans="1:8">
+      <c r="A6" s="1">
         <v>10</v>
       </c>
-      <c r="B6">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
+      <c r="B6" s="1">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1">
+        <v>11</v>
       </c>
       <c r="D6" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C6,Define!A:A))</f>
-        <v>Strategy開始</v>
+        <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E6" s="1">
         <v>11</v>
@@ -2337,25 +2334,25 @@
         <v>ADV再生</v>
       </c>
       <c r="G6" s="1">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H6" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:8">
-      <c r="A7" s="1">
-        <v>20</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1">
-        <v>11</v>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
       </c>
       <c r="D7" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C7,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
+        <v>Strategy開始</v>
       </c>
       <c r="E7" s="1">
         <v>11</v>
@@ -2365,25 +2362,25 @@
         <v>ADV再生</v>
       </c>
       <c r="G7" s="1">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="H7" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="8" customFormat="1" spans="1:8">
-      <c r="A8">
+    <row r="8" s="1" customFormat="1" spans="1:8">
+      <c r="A8" s="1">
         <v>20</v>
       </c>
-      <c r="B8">
-        <v>8</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>11</v>
       </c>
       <c r="D8" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C8,Define!A:A))</f>
-        <v>Strategy開始</v>
+        <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E8" s="1">
         <v>11</v>
@@ -2393,7 +2390,7 @@
         <v>ADV再生</v>
       </c>
       <c r="G8" s="1">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="H8" s="1">
         <v>1</v>
@@ -2401,10 +2398,10 @@
     </row>
     <row r="9" s="1" customFormat="1" spans="1:8">
       <c r="A9" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B9" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C9" s="1">
         <v>11</v>
@@ -2421,7 +2418,7 @@
         <v>ADV再生</v>
       </c>
       <c r="G9" s="1">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="H9" s="1">
         <v>1</v>
@@ -2429,10 +2426,10 @@
     </row>
     <row r="10" customFormat="1" spans="1:8">
       <c r="A10">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -2449,7 +2446,7 @@
         <v>ADV再生</v>
       </c>
       <c r="G10" s="1">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="H10" s="1">
         <v>1</v>
@@ -2457,7 +2454,7 @@
     </row>
     <row r="11" s="1" customFormat="1" spans="1:8">
       <c r="A11" s="1">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
@@ -2477,25 +2474,25 @@
         <v>ADV再生</v>
       </c>
       <c r="G11" s="1">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="H11" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="12" customFormat="1" spans="1:8">
-      <c r="A12">
-        <v>40</v>
-      </c>
-      <c r="B12">
-        <v>8</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
+    <row r="12" s="1" customFormat="1" spans="1:8">
+      <c r="A12" s="1">
+        <v>30</v>
+      </c>
+      <c r="B12" s="1">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1">
+        <v>11</v>
       </c>
       <c r="D12" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C12,Define!A:A))</f>
-        <v>Strategy開始</v>
+        <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E12" s="1">
         <v>11</v>
@@ -2505,7 +2502,7 @@
         <v>ADV再生</v>
       </c>
       <c r="G12" s="1">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="H12" s="1">
         <v>1</v>
@@ -2513,10 +2510,10 @@
     </row>
     <row r="13" s="1" customFormat="1" spans="1:8">
       <c r="A13" s="1">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="B13" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C13" s="1">
         <v>11</v>
@@ -2533,7 +2530,7 @@
         <v>ADV再生</v>
       </c>
       <c r="G13" s="1">
-        <v>190</v>
+        <v>120</v>
       </c>
       <c r="H13" s="1">
         <v>1</v>
@@ -2541,10 +2538,10 @@
     </row>
     <row r="14" customFormat="1" spans="1:8">
       <c r="A14">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="B14">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -2561,7 +2558,7 @@
         <v>ADV再生</v>
       </c>
       <c r="G14" s="1">
-        <v>220</v>
+        <v>130</v>
       </c>
       <c r="H14" s="1">
         <v>1</v>
@@ -2569,7 +2566,7 @@
     </row>
     <row r="15" s="1" customFormat="1" spans="1:8">
       <c r="A15" s="1">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="B15" s="1">
         <v>1</v>
@@ -2589,7 +2586,7 @@
         <v>ADV再生</v>
       </c>
       <c r="G15" s="1">
-        <v>230</v>
+        <v>140</v>
       </c>
       <c r="H15" s="1">
         <v>1</v>
@@ -2597,10 +2594,10 @@
     </row>
     <row r="16" s="1" customFormat="1" spans="1:8">
       <c r="A16" s="1">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="B16" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C16" s="1">
         <v>11</v>
@@ -2617,7 +2614,7 @@
         <v>ADV再生</v>
       </c>
       <c r="G16" s="1">
-        <v>240</v>
+        <v>150</v>
       </c>
       <c r="H16" s="1">
         <v>1</v>
@@ -2625,10 +2622,10 @@
     </row>
     <row r="17" s="1" customFormat="1" spans="1:8">
       <c r="A17" s="1">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="B17" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C17" s="1">
         <v>11</v>
@@ -2645,7 +2642,7 @@
         <v>ADV再生</v>
       </c>
       <c r="G17" s="1">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="H17" s="1">
         <v>1</v>
@@ -2653,10 +2650,10 @@
     </row>
     <row r="18" s="1" customFormat="1" spans="1:8">
       <c r="A18" s="1">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="B18" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C18" s="1">
         <v>11</v>
@@ -2673,25 +2670,25 @@
         <v>ADV再生</v>
       </c>
       <c r="G18" s="1">
-        <v>260</v>
+        <v>170</v>
       </c>
       <c r="H18" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" spans="1:8">
-      <c r="A19" s="1">
-        <v>60</v>
-      </c>
-      <c r="B19" s="1">
-        <v>1</v>
-      </c>
-      <c r="C19" s="1">
-        <v>11</v>
+    <row r="19" customFormat="1" spans="1:8">
+      <c r="A19">
+        <v>40</v>
+      </c>
+      <c r="B19">
+        <v>7</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
       </c>
       <c r="D19" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C19,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
+        <v>Strategy開始</v>
       </c>
       <c r="E19" s="1">
         <v>11</v>
@@ -2701,25 +2698,25 @@
         <v>ADV再生</v>
       </c>
       <c r="G19" s="1">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="H19" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="20" customFormat="1" spans="1:8">
-      <c r="A20">
-        <v>60</v>
-      </c>
-      <c r="B20">
-        <v>8</v>
-      </c>
-      <c r="C20">
-        <v>2</v>
+    <row r="20" s="1" customFormat="1" spans="1:8">
+      <c r="A20" s="1">
+        <v>50</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1">
+        <v>11</v>
       </c>
       <c r="D20" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C20,Define!A:A))</f>
-        <v>Strategy開始</v>
+        <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E20" s="1">
         <v>11</v>
@@ -2729,7 +2726,7 @@
         <v>ADV再生</v>
       </c>
       <c r="G20" s="1">
-        <v>280</v>
+        <v>190</v>
       </c>
       <c r="H20" s="1">
         <v>1</v>
@@ -2737,10 +2734,10 @@
     </row>
     <row r="21" s="1" customFormat="1" spans="1:8">
       <c r="A21" s="1">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="B21" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C21" s="1">
         <v>11</v>
@@ -2757,25 +2754,25 @@
         <v>ADV再生</v>
       </c>
       <c r="G21" s="1">
-        <v>290</v>
+        <v>200</v>
       </c>
       <c r="H21" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="22" customFormat="1" spans="1:8">
-      <c r="A22">
-        <v>70</v>
-      </c>
-      <c r="B22">
-        <v>8</v>
-      </c>
-      <c r="C22">
-        <v>2</v>
+    <row r="22" s="1" customFormat="1" spans="1:8">
+      <c r="A22" s="1">
+        <v>50</v>
+      </c>
+      <c r="B22" s="1">
+        <v>6</v>
+      </c>
+      <c r="C22" s="1">
+        <v>11</v>
       </c>
       <c r="D22" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C22,Define!A:A))</f>
-        <v>Strategy開始</v>
+        <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E22" s="1">
         <v>11</v>
@@ -2785,25 +2782,25 @@
         <v>ADV再生</v>
       </c>
       <c r="G22" s="1">
-        <v>320</v>
+        <v>210</v>
       </c>
       <c r="H22" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" spans="1:8">
-      <c r="A23" s="1">
-        <v>80</v>
-      </c>
-      <c r="B23" s="1">
-        <v>1</v>
-      </c>
-      <c r="C23" s="1">
-        <v>11</v>
+    <row r="23" customFormat="1" spans="1:8">
+      <c r="A23">
+        <v>50</v>
+      </c>
+      <c r="B23">
+        <v>7</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
       </c>
       <c r="D23" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C23,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
+        <v>Strategy開始</v>
       </c>
       <c r="E23" s="1">
         <v>11</v>
@@ -2813,7 +2810,7 @@
         <v>ADV再生</v>
       </c>
       <c r="G23" s="1">
-        <v>330</v>
+        <v>220</v>
       </c>
       <c r="H23" s="1">
         <v>1</v>
@@ -2821,7 +2818,7 @@
     </row>
     <row r="24" s="1" customFormat="1" spans="1:8">
       <c r="A24" s="1">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="B24" s="1">
         <v>1</v>
@@ -2841,7 +2838,7 @@
         <v>ADV再生</v>
       </c>
       <c r="G24" s="1">
-        <v>340</v>
+        <v>230</v>
       </c>
       <c r="H24" s="1">
         <v>1</v>
@@ -2849,7 +2846,7 @@
     </row>
     <row r="25" s="1" customFormat="1" spans="1:8">
       <c r="A25" s="1">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="B25" s="1">
         <v>1</v>
@@ -2869,25 +2866,25 @@
         <v>ADV再生</v>
       </c>
       <c r="G25" s="1">
-        <v>350</v>
+        <v>240</v>
       </c>
       <c r="H25" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="26" customFormat="1" spans="1:8">
-      <c r="A26">
-        <v>80</v>
-      </c>
-      <c r="B26">
-        <v>8</v>
-      </c>
-      <c r="C26">
-        <v>2</v>
+    <row r="26" s="1" customFormat="1" spans="1:8">
+      <c r="A26" s="1">
+        <v>60</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1">
+        <v>11</v>
       </c>
       <c r="D26" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C26,Define!A:A))</f>
-        <v>Strategy開始</v>
+        <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E26" s="1">
         <v>11</v>
@@ -2897,7 +2894,7 @@
         <v>ADV再生</v>
       </c>
       <c r="G26" s="1">
-        <v>370</v>
+        <v>250</v>
       </c>
       <c r="H26" s="1">
         <v>1</v>
@@ -2905,7 +2902,7 @@
     </row>
     <row r="27" s="1" customFormat="1" spans="1:8">
       <c r="A27" s="1">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="B27" s="1">
         <v>1</v>
@@ -2925,7 +2922,7 @@
         <v>ADV再生</v>
       </c>
       <c r="G27" s="1">
-        <v>380</v>
+        <v>260</v>
       </c>
       <c r="H27" s="1">
         <v>1</v>
@@ -2933,7 +2930,7 @@
     </row>
     <row r="28" s="1" customFormat="1" spans="1:8">
       <c r="A28" s="1">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="B28" s="1">
         <v>1</v>
@@ -2953,25 +2950,25 @@
         <v>ADV再生</v>
       </c>
       <c r="G28" s="1">
-        <v>390</v>
+        <v>270</v>
       </c>
       <c r="H28" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" spans="1:8">
-      <c r="A29" s="1">
-        <v>90</v>
-      </c>
-      <c r="B29" s="1">
-        <v>1</v>
-      </c>
-      <c r="C29" s="1">
-        <v>11</v>
+    <row r="29" customFormat="1" spans="1:8">
+      <c r="A29">
+        <v>60</v>
+      </c>
+      <c r="B29">
+        <v>7</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
       </c>
       <c r="D29" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C29,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
+        <v>Strategy開始</v>
       </c>
       <c r="E29" s="1">
         <v>11</v>
@@ -2981,25 +2978,25 @@
         <v>ADV再生</v>
       </c>
       <c r="G29" s="1">
-        <v>400</v>
+        <v>280</v>
       </c>
       <c r="H29" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="30" customFormat="1" spans="1:8">
-      <c r="A30">
-        <v>90</v>
-      </c>
-      <c r="B30">
-        <v>8</v>
-      </c>
-      <c r="C30">
-        <v>2</v>
+    <row r="30" s="1" customFormat="1" spans="1:8">
+      <c r="A30" s="1">
+        <v>70</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1">
+        <v>11</v>
       </c>
       <c r="D30" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C30,Define!A:A))</f>
-        <v>Strategy開始</v>
+        <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E30" s="1">
         <v>11</v>
@@ -3009,7 +3006,7 @@
         <v>ADV再生</v>
       </c>
       <c r="G30" s="1">
-        <v>410</v>
+        <v>290</v>
       </c>
       <c r="H30" s="1">
         <v>1</v>
@@ -3017,10 +3014,10 @@
     </row>
     <row r="31" s="1" customFormat="1" spans="1:8">
       <c r="A31" s="1">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="B31" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C31" s="1">
         <v>11</v>
@@ -3037,25 +3034,25 @@
         <v>ADV再生</v>
       </c>
       <c r="G31" s="1">
-        <v>420</v>
+        <v>300</v>
       </c>
       <c r="H31" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="32" customFormat="1" spans="1:8">
-      <c r="A32">
-        <v>100</v>
-      </c>
-      <c r="B32">
-        <v>8</v>
-      </c>
-      <c r="C32">
-        <v>2</v>
+    <row r="32" s="1" customFormat="1" spans="1:8">
+      <c r="A32" s="1">
+        <v>70</v>
+      </c>
+      <c r="B32" s="1">
+        <v>6</v>
+      </c>
+      <c r="C32" s="1">
+        <v>11</v>
       </c>
       <c r="D32" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C32,Define!A:A))</f>
-        <v>Strategy開始</v>
+        <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E32" s="1">
         <v>11</v>
@@ -3065,25 +3062,25 @@
         <v>ADV再生</v>
       </c>
       <c r="G32" s="1">
-        <v>450</v>
+        <v>310</v>
       </c>
       <c r="H32" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="33" s="1" customFormat="1" spans="1:8">
-      <c r="A33" s="1">
-        <v>110</v>
-      </c>
-      <c r="B33" s="1">
-        <v>1</v>
-      </c>
-      <c r="C33" s="1">
-        <v>11</v>
+    <row r="33" customFormat="1" spans="1:8">
+      <c r="A33">
+        <v>70</v>
+      </c>
+      <c r="B33">
+        <v>7</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
       </c>
       <c r="D33" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C33,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
+        <v>Strategy開始</v>
       </c>
       <c r="E33" s="1">
         <v>11</v>
@@ -3093,7 +3090,7 @@
         <v>ADV再生</v>
       </c>
       <c r="G33" s="1">
-        <v>460</v>
+        <v>320</v>
       </c>
       <c r="H33" s="1">
         <v>1</v>
@@ -3101,7 +3098,7 @@
     </row>
     <row r="34" s="1" customFormat="1" spans="1:8">
       <c r="A34" s="1">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="B34" s="1">
         <v>1</v>
@@ -3121,7 +3118,7 @@
         <v>ADV再生</v>
       </c>
       <c r="G34" s="1">
-        <v>470</v>
+        <v>330</v>
       </c>
       <c r="H34" s="1">
         <v>1</v>
@@ -3129,7 +3126,7 @@
     </row>
     <row r="35" s="1" customFormat="1" spans="1:8">
       <c r="A35" s="1">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="B35" s="1">
         <v>1</v>
@@ -3149,7 +3146,7 @@
         <v>ADV再生</v>
       </c>
       <c r="G35" s="1">
-        <v>480</v>
+        <v>340</v>
       </c>
       <c r="H35" s="1">
         <v>1</v>
@@ -3157,7 +3154,7 @@
     </row>
     <row r="36" s="1" customFormat="1" spans="1:8">
       <c r="A36" s="1">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="B36" s="1">
         <v>1</v>
@@ -3177,7 +3174,7 @@
         <v>ADV再生</v>
       </c>
       <c r="G36" s="1">
-        <v>490</v>
+        <v>350</v>
       </c>
       <c r="H36" s="1">
         <v>1</v>
@@ -3185,10 +3182,10 @@
     </row>
     <row r="37" s="1" customFormat="1" spans="1:8">
       <c r="A37" s="1">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="B37" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C37" s="1">
         <v>11</v>
@@ -3205,7 +3202,7 @@
         <v>ADV再生</v>
       </c>
       <c r="G37" s="1">
-        <v>500</v>
+        <v>360</v>
       </c>
       <c r="H37" s="1">
         <v>1</v>
@@ -3213,10 +3210,10 @@
     </row>
     <row r="38" customFormat="1" spans="1:8">
       <c r="A38">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="B38">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C38">
         <v>2</v>
@@ -3233,7 +3230,7 @@
         <v>ADV再生</v>
       </c>
       <c r="G38" s="1">
-        <v>530</v>
+        <v>370</v>
       </c>
       <c r="H38" s="1">
         <v>1</v>
@@ -3241,7 +3238,7 @@
     </row>
     <row r="39" s="1" customFormat="1" spans="1:8">
       <c r="A39" s="1">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="B39" s="1">
         <v>1</v>
@@ -3261,7 +3258,7 @@
         <v>ADV再生</v>
       </c>
       <c r="G39" s="1">
-        <v>540</v>
+        <v>380</v>
       </c>
       <c r="H39" s="1">
         <v>1</v>
@@ -3269,7 +3266,7 @@
     </row>
     <row r="40" s="1" customFormat="1" spans="1:8">
       <c r="A40" s="1">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="B40" s="1">
         <v>1</v>
@@ -3289,7 +3286,7 @@
         <v>ADV再生</v>
       </c>
       <c r="G40" s="1">
-        <v>550</v>
+        <v>390</v>
       </c>
       <c r="H40" s="1">
         <v>1</v>
@@ -3297,7 +3294,7 @@
     </row>
     <row r="41" s="1" customFormat="1" spans="1:8">
       <c r="A41" s="1">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="B41" s="1">
         <v>1</v>
@@ -3317,7 +3314,7 @@
         <v>ADV再生</v>
       </c>
       <c r="G41" s="1">
-        <v>560</v>
+        <v>400</v>
       </c>
       <c r="H41" s="1">
         <v>1</v>
@@ -3325,10 +3322,10 @@
     </row>
     <row r="42" customFormat="1" spans="1:8">
       <c r="A42">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="B42">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C42">
         <v>2</v>
@@ -3345,25 +3342,25 @@
         <v>ADV再生</v>
       </c>
       <c r="G42" s="1">
-        <v>590</v>
+        <v>410</v>
       </c>
       <c r="H42" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="43" customFormat="1" spans="1:8">
-      <c r="A43">
-        <v>130</v>
-      </c>
-      <c r="B43">
-        <v>8</v>
-      </c>
-      <c r="C43">
-        <v>2</v>
+    <row r="43" s="1" customFormat="1" spans="1:8">
+      <c r="A43" s="1">
+        <v>100</v>
+      </c>
+      <c r="B43" s="1">
+        <v>1</v>
+      </c>
+      <c r="C43" s="1">
+        <v>11</v>
       </c>
       <c r="D43" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C43,Define!A:A))</f>
-        <v>Strategy開始</v>
+        <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E43" s="1">
         <v>11</v>
@@ -3373,25 +3370,25 @@
         <v>ADV再生</v>
       </c>
       <c r="G43" s="1">
-        <v>610</v>
+        <v>420</v>
       </c>
       <c r="H43" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="44" customFormat="1" spans="1:8">
-      <c r="A44">
-        <v>130</v>
-      </c>
-      <c r="B44">
-        <v>8</v>
-      </c>
-      <c r="C44">
-        <v>2</v>
+    <row r="44" s="1" customFormat="1" spans="1:8">
+      <c r="A44" s="1">
+        <v>100</v>
+      </c>
+      <c r="B44" s="1">
+        <v>3</v>
+      </c>
+      <c r="C44" s="1">
+        <v>11</v>
       </c>
       <c r="D44" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C44,Define!A:A))</f>
-        <v>Strategy開始</v>
+        <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E44" s="1">
         <v>11</v>
@@ -3401,7 +3398,7 @@
         <v>ADV再生</v>
       </c>
       <c r="G44" s="1">
-        <v>630</v>
+        <v>430</v>
       </c>
       <c r="H44" s="1">
         <v>1</v>
@@ -3409,10 +3406,10 @@
     </row>
     <row r="45" s="1" customFormat="1" spans="1:8">
       <c r="A45" s="1">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="B45" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C45" s="1">
         <v>11</v>
@@ -3429,25 +3426,25 @@
         <v>ADV再生</v>
       </c>
       <c r="G45" s="1">
-        <v>640</v>
+        <v>440</v>
       </c>
       <c r="H45" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="46" s="1" customFormat="1" spans="1:8">
-      <c r="A46" s="1">
-        <v>140</v>
-      </c>
-      <c r="B46" s="1">
-        <v>1</v>
-      </c>
-      <c r="C46" s="1">
-        <v>11</v>
+    <row r="46" customFormat="1" spans="1:8">
+      <c r="A46">
+        <v>100</v>
+      </c>
+      <c r="B46">
+        <v>7</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
       </c>
       <c r="D46" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C46,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
+        <v>Strategy開始</v>
       </c>
       <c r="E46" s="1">
         <v>11</v>
@@ -3457,25 +3454,25 @@
         <v>ADV再生</v>
       </c>
       <c r="G46" s="1">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="H46" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="47" customFormat="1" spans="1:8">
-      <c r="A47">
-        <v>140</v>
-      </c>
-      <c r="B47">
-        <v>8</v>
-      </c>
-      <c r="C47">
-        <v>2</v>
+    <row r="47" s="1" customFormat="1" spans="1:8">
+      <c r="A47" s="1">
+        <v>110</v>
+      </c>
+      <c r="B47" s="1">
+        <v>1</v>
+      </c>
+      <c r="C47" s="1">
+        <v>11</v>
       </c>
       <c r="D47" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C47,Define!A:A))</f>
-        <v>Strategy開始</v>
+        <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E47" s="1">
         <v>11</v>
@@ -3485,7 +3482,7 @@
         <v>ADV再生</v>
       </c>
       <c r="G47" s="1">
-        <v>660</v>
+        <v>460</v>
       </c>
       <c r="H47" s="1">
         <v>1</v>
@@ -3493,7 +3490,7 @@
     </row>
     <row r="48" s="1" customFormat="1" spans="1:8">
       <c r="A48" s="1">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="B48" s="1">
         <v>1</v>
@@ -3513,7 +3510,7 @@
         <v>ADV再生</v>
       </c>
       <c r="G48" s="1">
-        <v>670</v>
+        <v>470</v>
       </c>
       <c r="H48" s="1">
         <v>1</v>
@@ -3521,7 +3518,7 @@
     </row>
     <row r="49" s="1" customFormat="1" spans="1:8">
       <c r="A49" s="1">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="B49" s="1">
         <v>1</v>
@@ -3541,7 +3538,7 @@
         <v>ADV再生</v>
       </c>
       <c r="G49" s="1">
-        <v>680</v>
+        <v>480</v>
       </c>
       <c r="H49" s="1">
         <v>1</v>
@@ -3549,7 +3546,7 @@
     </row>
     <row r="50" s="1" customFormat="1" spans="1:8">
       <c r="A50" s="1">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="B50" s="1">
         <v>1</v>
@@ -3569,7 +3566,7 @@
         <v>ADV再生</v>
       </c>
       <c r="G50" s="1">
-        <v>690</v>
+        <v>490</v>
       </c>
       <c r="H50" s="1">
         <v>1</v>
@@ -3577,7 +3574,7 @@
     </row>
     <row r="51" s="1" customFormat="1" spans="1:8">
       <c r="A51" s="1">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="B51" s="1">
         <v>1</v>
@@ -3597,7 +3594,7 @@
         <v>ADV再生</v>
       </c>
       <c r="G51" s="1">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="H51" s="1">
         <v>1</v>
@@ -3605,10 +3602,10 @@
     </row>
     <row r="52" s="1" customFormat="1" spans="1:8">
       <c r="A52" s="1">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="B52" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C52" s="1">
         <v>11</v>
@@ -3625,7 +3622,7 @@
         <v>ADV再生</v>
       </c>
       <c r="G52" s="1">
-        <v>710</v>
+        <v>510</v>
       </c>
       <c r="H52" s="1">
         <v>1</v>
@@ -3633,10 +3630,10 @@
     </row>
     <row r="53" s="1" customFormat="1" spans="1:8">
       <c r="A53" s="1">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="B53" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C53" s="1">
         <v>11</v>
@@ -3653,9 +3650,569 @@
         <v>ADV再生</v>
       </c>
       <c r="G53" s="1">
+        <v>520</v>
+      </c>
+      <c r="H53" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" customFormat="1" spans="1:8">
+      <c r="A54">
+        <v>110</v>
+      </c>
+      <c r="B54">
+        <v>7</v>
+      </c>
+      <c r="C54">
+        <v>2</v>
+      </c>
+      <c r="D54" s="1" t="str">
+        <f>INDEX(Define!B:B,MATCH(C54,Define!A:A))</f>
+        <v>Strategy開始</v>
+      </c>
+      <c r="E54" s="1">
+        <v>11</v>
+      </c>
+      <c r="F54" s="1" t="str">
+        <f>INDEX(Define!E:E,MATCH(E54,Define!D:D))</f>
+        <v>ADV再生</v>
+      </c>
+      <c r="G54" s="1">
+        <v>530</v>
+      </c>
+      <c r="H54" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" s="1" customFormat="1" spans="1:8">
+      <c r="A55" s="1">
+        <v>120</v>
+      </c>
+      <c r="B55" s="1">
+        <v>1</v>
+      </c>
+      <c r="C55" s="1">
+        <v>11</v>
+      </c>
+      <c r="D55" s="1" t="str">
+        <f>INDEX(Define!B:B,MATCH(C55,Define!A:A))</f>
+        <v>Tactics開始(UI表示前)</v>
+      </c>
+      <c r="E55" s="1">
+        <v>11</v>
+      </c>
+      <c r="F55" s="1" t="str">
+        <f>INDEX(Define!E:E,MATCH(E55,Define!D:D))</f>
+        <v>ADV再生</v>
+      </c>
+      <c r="G55" s="1">
+        <v>540</v>
+      </c>
+      <c r="H55" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" s="1" customFormat="1" spans="1:8">
+      <c r="A56" s="1">
+        <v>120</v>
+      </c>
+      <c r="B56" s="1">
+        <v>1</v>
+      </c>
+      <c r="C56" s="1">
+        <v>11</v>
+      </c>
+      <c r="D56" s="1" t="str">
+        <f>INDEX(Define!B:B,MATCH(C56,Define!A:A))</f>
+        <v>Tactics開始(UI表示前)</v>
+      </c>
+      <c r="E56" s="1">
+        <v>11</v>
+      </c>
+      <c r="F56" s="1" t="str">
+        <f>INDEX(Define!E:E,MATCH(E56,Define!D:D))</f>
+        <v>ADV再生</v>
+      </c>
+      <c r="G56" s="1">
+        <v>550</v>
+      </c>
+      <c r="H56" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" s="1" customFormat="1" spans="1:8">
+      <c r="A57" s="1">
+        <v>120</v>
+      </c>
+      <c r="B57" s="1">
+        <v>1</v>
+      </c>
+      <c r="C57" s="1">
+        <v>11</v>
+      </c>
+      <c r="D57" s="1" t="str">
+        <f>INDEX(Define!B:B,MATCH(C57,Define!A:A))</f>
+        <v>Tactics開始(UI表示前)</v>
+      </c>
+      <c r="E57" s="1">
+        <v>11</v>
+      </c>
+      <c r="F57" s="1" t="str">
+        <f>INDEX(Define!E:E,MATCH(E57,Define!D:D))</f>
+        <v>ADV再生</v>
+      </c>
+      <c r="G57" s="1">
+        <v>560</v>
+      </c>
+      <c r="H57" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" s="1" customFormat="1" spans="1:8">
+      <c r="A58" s="1">
+        <v>120</v>
+      </c>
+      <c r="B58" s="1">
+        <v>3</v>
+      </c>
+      <c r="C58" s="1">
+        <v>11</v>
+      </c>
+      <c r="D58" s="1" t="str">
+        <f>INDEX(Define!B:B,MATCH(C58,Define!A:A))</f>
+        <v>Tactics開始(UI表示前)</v>
+      </c>
+      <c r="E58" s="1">
+        <v>11</v>
+      </c>
+      <c r="F58" s="1" t="str">
+        <f>INDEX(Define!E:E,MATCH(E58,Define!D:D))</f>
+        <v>ADV再生</v>
+      </c>
+      <c r="G58" s="1">
+        <v>570</v>
+      </c>
+      <c r="H58" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" s="1" customFormat="1" spans="1:8">
+      <c r="A59" s="1">
+        <v>120</v>
+      </c>
+      <c r="B59" s="1">
+        <v>6</v>
+      </c>
+      <c r="C59" s="1">
+        <v>11</v>
+      </c>
+      <c r="D59" s="1" t="str">
+        <f>INDEX(Define!B:B,MATCH(C59,Define!A:A))</f>
+        <v>Tactics開始(UI表示前)</v>
+      </c>
+      <c r="E59" s="1">
+        <v>11</v>
+      </c>
+      <c r="F59" s="1" t="str">
+        <f>INDEX(Define!E:E,MATCH(E59,Define!D:D))</f>
+        <v>ADV再生</v>
+      </c>
+      <c r="G59" s="1">
+        <v>580</v>
+      </c>
+      <c r="H59" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" customFormat="1" spans="1:8">
+      <c r="A60">
+        <v>120</v>
+      </c>
+      <c r="B60">
+        <v>7</v>
+      </c>
+      <c r="C60">
+        <v>2</v>
+      </c>
+      <c r="D60" s="1" t="str">
+        <f>INDEX(Define!B:B,MATCH(C60,Define!A:A))</f>
+        <v>Strategy開始</v>
+      </c>
+      <c r="E60" s="1">
+        <v>11</v>
+      </c>
+      <c r="F60" s="1" t="str">
+        <f>INDEX(Define!E:E,MATCH(E60,Define!D:D))</f>
+        <v>ADV再生</v>
+      </c>
+      <c r="G60" s="1">
+        <v>590</v>
+      </c>
+      <c r="H60" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" s="1" customFormat="1" spans="1:8">
+      <c r="A61" s="1">
+        <v>130</v>
+      </c>
+      <c r="B61" s="1">
+        <v>4</v>
+      </c>
+      <c r="C61" s="1">
+        <v>11</v>
+      </c>
+      <c r="D61" s="1" t="str">
+        <f>INDEX(Define!B:B,MATCH(C61,Define!A:A))</f>
+        <v>Tactics開始(UI表示前)</v>
+      </c>
+      <c r="E61" s="1">
+        <v>11</v>
+      </c>
+      <c r="F61" s="1" t="str">
+        <f>INDEX(Define!E:E,MATCH(E61,Define!D:D))</f>
+        <v>ADV再生</v>
+      </c>
+      <c r="G61" s="1">
+        <v>600</v>
+      </c>
+      <c r="H61" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" customFormat="1" spans="1:8">
+      <c r="A62">
+        <v>130</v>
+      </c>
+      <c r="B62">
+        <v>7</v>
+      </c>
+      <c r="C62">
+        <v>2</v>
+      </c>
+      <c r="D62" s="1" t="str">
+        <f>INDEX(Define!B:B,MATCH(C62,Define!A:A))</f>
+        <v>Strategy開始</v>
+      </c>
+      <c r="E62" s="1">
+        <v>11</v>
+      </c>
+      <c r="F62" s="1" t="str">
+        <f>INDEX(Define!E:E,MATCH(E62,Define!D:D))</f>
+        <v>ADV再生</v>
+      </c>
+      <c r="G62" s="1">
+        <v>610</v>
+      </c>
+      <c r="H62" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" s="1" customFormat="1" spans="1:8">
+      <c r="A63" s="1">
+        <v>140</v>
+      </c>
+      <c r="B63" s="1">
+        <v>4</v>
+      </c>
+      <c r="C63" s="1">
+        <v>11</v>
+      </c>
+      <c r="D63" s="1" t="str">
+        <f>INDEX(Define!B:B,MATCH(C63,Define!A:A))</f>
+        <v>Tactics開始(UI表示前)</v>
+      </c>
+      <c r="E63" s="1">
+        <v>11</v>
+      </c>
+      <c r="F63" s="1" t="str">
+        <f>INDEX(Define!E:E,MATCH(E63,Define!D:D))</f>
+        <v>ADV再生</v>
+      </c>
+      <c r="G63" s="1">
+        <v>620</v>
+      </c>
+      <c r="H63" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" customFormat="1" spans="1:8">
+      <c r="A64">
+        <v>140</v>
+      </c>
+      <c r="B64">
+        <v>7</v>
+      </c>
+      <c r="C64">
+        <v>2</v>
+      </c>
+      <c r="D64" s="1" t="str">
+        <f>INDEX(Define!B:B,MATCH(C64,Define!A:A))</f>
+        <v>Strategy開始</v>
+      </c>
+      <c r="E64" s="1">
+        <v>11</v>
+      </c>
+      <c r="F64" s="1" t="str">
+        <f>INDEX(Define!E:E,MATCH(E64,Define!D:D))</f>
+        <v>ADV再生</v>
+      </c>
+      <c r="G64" s="1">
+        <v>630</v>
+      </c>
+      <c r="H64" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" s="1" customFormat="1" spans="1:8">
+      <c r="A65" s="1">
+        <v>150</v>
+      </c>
+      <c r="B65" s="1">
+        <v>1</v>
+      </c>
+      <c r="C65" s="1">
+        <v>11</v>
+      </c>
+      <c r="D65" s="1" t="str">
+        <f>INDEX(Define!B:B,MATCH(C65,Define!A:A))</f>
+        <v>Tactics開始(UI表示前)</v>
+      </c>
+      <c r="E65" s="1">
+        <v>11</v>
+      </c>
+      <c r="F65" s="1" t="str">
+        <f>INDEX(Define!E:E,MATCH(E65,Define!D:D))</f>
+        <v>ADV再生</v>
+      </c>
+      <c r="G65" s="1">
+        <v>640</v>
+      </c>
+      <c r="H65" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" s="1" customFormat="1" spans="1:8">
+      <c r="A66" s="1">
+        <v>150</v>
+      </c>
+      <c r="B66" s="1">
+        <v>1</v>
+      </c>
+      <c r="C66" s="1">
+        <v>11</v>
+      </c>
+      <c r="D66" s="1" t="str">
+        <f>INDEX(Define!B:B,MATCH(C66,Define!A:A))</f>
+        <v>Tactics開始(UI表示前)</v>
+      </c>
+      <c r="E66" s="1">
+        <v>11</v>
+      </c>
+      <c r="F66" s="1" t="str">
+        <f>INDEX(Define!E:E,MATCH(E66,Define!D:D))</f>
+        <v>ADV再生</v>
+      </c>
+      <c r="G66" s="1">
+        <v>650</v>
+      </c>
+      <c r="H66" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" customFormat="1" spans="1:8">
+      <c r="A67">
+        <v>150</v>
+      </c>
+      <c r="B67">
+        <v>7</v>
+      </c>
+      <c r="C67">
+        <v>2</v>
+      </c>
+      <c r="D67" s="1" t="str">
+        <f>INDEX(Define!B:B,MATCH(C67,Define!A:A))</f>
+        <v>Strategy開始</v>
+      </c>
+      <c r="E67" s="1">
+        <v>11</v>
+      </c>
+      <c r="F67" s="1" t="str">
+        <f>INDEX(Define!E:E,MATCH(E67,Define!D:D))</f>
+        <v>ADV再生</v>
+      </c>
+      <c r="G67" s="1">
+        <v>660</v>
+      </c>
+      <c r="H67" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" s="1" customFormat="1" spans="1:8">
+      <c r="A68">
+        <v>150</v>
+      </c>
+      <c r="B68">
+        <v>7</v>
+      </c>
+      <c r="C68">
+        <v>2</v>
+      </c>
+      <c r="D68" s="1" t="str">
+        <f>INDEX(Define!B:B,MATCH(C68,Define!A:A))</f>
+        <v>Strategy開始</v>
+      </c>
+      <c r="E68" s="1">
+        <v>11</v>
+      </c>
+      <c r="F68" s="1" t="str">
+        <f>INDEX(Define!E:E,MATCH(E68,Define!D:D))</f>
+        <v>ADV再生</v>
+      </c>
+      <c r="G68" s="1">
+        <v>670</v>
+      </c>
+      <c r="H68" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" s="1" customFormat="1" spans="1:8">
+      <c r="A69">
+        <v>150</v>
+      </c>
+      <c r="B69">
+        <v>7</v>
+      </c>
+      <c r="C69">
+        <v>2</v>
+      </c>
+      <c r="D69" s="1" t="str">
+        <f>INDEX(Define!B:B,MATCH(C69,Define!A:A))</f>
+        <v>Strategy開始</v>
+      </c>
+      <c r="E69" s="1">
+        <v>11</v>
+      </c>
+      <c r="F69" s="1" t="str">
+        <f>INDEX(Define!E:E,MATCH(E69,Define!D:D))</f>
+        <v>ADV再生</v>
+      </c>
+      <c r="G69" s="1">
+        <v>680</v>
+      </c>
+      <c r="H69" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" s="1" customFormat="1" spans="1:8">
+      <c r="A70">
+        <v>150</v>
+      </c>
+      <c r="B70">
+        <v>7</v>
+      </c>
+      <c r="C70">
+        <v>2</v>
+      </c>
+      <c r="D70" s="1" t="str">
+        <f>INDEX(Define!B:B,MATCH(C70,Define!A:A))</f>
+        <v>Strategy開始</v>
+      </c>
+      <c r="E70" s="1">
+        <v>11</v>
+      </c>
+      <c r="F70" s="1" t="str">
+        <f>INDEX(Define!E:E,MATCH(E70,Define!D:D))</f>
+        <v>ADV再生</v>
+      </c>
+      <c r="G70" s="1">
+        <v>690</v>
+      </c>
+      <c r="H70" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" s="1" customFormat="1" spans="1:8">
+      <c r="A71">
+        <v>150</v>
+      </c>
+      <c r="B71">
+        <v>7</v>
+      </c>
+      <c r="C71">
+        <v>2</v>
+      </c>
+      <c r="D71" s="1" t="str">
+        <f>INDEX(Define!B:B,MATCH(C71,Define!A:A))</f>
+        <v>Strategy開始</v>
+      </c>
+      <c r="E71" s="1">
+        <v>11</v>
+      </c>
+      <c r="F71" s="1" t="str">
+        <f>INDEX(Define!E:E,MATCH(E71,Define!D:D))</f>
+        <v>ADV再生</v>
+      </c>
+      <c r="G71" s="1">
+        <v>700</v>
+      </c>
+      <c r="H71" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" s="1" customFormat="1" spans="1:8">
+      <c r="A72">
+        <v>150</v>
+      </c>
+      <c r="B72">
+        <v>7</v>
+      </c>
+      <c r="C72">
+        <v>2</v>
+      </c>
+      <c r="D72" s="1" t="str">
+        <f>INDEX(Define!B:B,MATCH(C72,Define!A:A))</f>
+        <v>Strategy開始</v>
+      </c>
+      <c r="E72" s="1">
+        <v>11</v>
+      </c>
+      <c r="F72" s="1" t="str">
+        <f>INDEX(Define!E:E,MATCH(E72,Define!D:D))</f>
+        <v>ADV再生</v>
+      </c>
+      <c r="G72" s="1">
+        <v>710</v>
+      </c>
+      <c r="H72" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" s="1" customFormat="1" spans="1:8">
+      <c r="A73">
+        <v>150</v>
+      </c>
+      <c r="B73">
+        <v>7</v>
+      </c>
+      <c r="C73">
+        <v>2</v>
+      </c>
+      <c r="D73" s="1" t="str">
+        <f>INDEX(Define!B:B,MATCH(C73,Define!A:A))</f>
+        <v>Strategy開始</v>
+      </c>
+      <c r="E73" s="1">
+        <v>11</v>
+      </c>
+      <c r="F73" s="1" t="str">
+        <f>INDEX(Define!E:E,MATCH(E73,Define!D:D))</f>
+        <v>ADV再生</v>
+      </c>
+      <c r="G73" s="1">
         <v>720</v>
       </c>
-      <c r="H53" s="1">
+      <c r="H73" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3668,10 +4225,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M85"/>
+  <dimension ref="A1:M84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="$A14:$XFD21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -3850,13 +4407,13 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>0</v>
+        <v>1021</v>
       </c>
       <c r="J5" s="1">
         <v>0</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -3872,29 +4429,29 @@
         <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E6" s="1" t="str">
         <f>INDEX(Define!J:J,MATCH(D6,Define!I:I))</f>
-        <v>Event</v>
+        <v>Battle</v>
       </c>
       <c r="F6" s="1">
         <v>100</v>
       </c>
       <c r="G6" s="1">
-        <v>40</v>
+        <v>1031</v>
       </c>
       <c r="H6" s="1">
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>1041</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -3948,29 +4505,29 @@
         <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E8" s="1" t="str">
         <f>INDEX(Define!J:J,MATCH(D8,Define!I:I))</f>
-        <v>Alcana</v>
+        <v>Battle</v>
       </c>
       <c r="F8" s="1">
         <v>100</v>
       </c>
       <c r="G8" s="1">
-        <v>0</v>
+        <v>1051</v>
       </c>
       <c r="H8" s="1">
         <v>0</v>
       </c>
       <c r="I8" s="1">
-        <v>1021</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -3980,10 +4537,10 @@
         <v>10</v>
       </c>
       <c r="B9" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -3996,7 +4553,7 @@
         <v>100</v>
       </c>
       <c r="G9" s="1">
-        <v>1061</v>
+        <v>1052</v>
       </c>
       <c r="H9" s="1">
         <v>0</v>
@@ -4005,10 +4562,10 @@
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -4021,29 +4578,29 @@
         <v>6</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10" s="1" t="str">
         <f>INDEX(Define!J:J,MATCH(D10,Define!I:I))</f>
-        <v>Battle</v>
+        <v>Boss</v>
       </c>
       <c r="F10" s="1">
         <v>100</v>
       </c>
       <c r="G10" s="1">
-        <v>1062</v>
+        <v>1101</v>
       </c>
       <c r="H10" s="1">
         <v>0</v>
       </c>
       <c r="I10" s="1">
-        <v>0</v>
+        <v>1101</v>
       </c>
       <c r="J10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>46</v>
@@ -4053,38 +4610,38 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
       </c>
       <c r="D11" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E11" s="1" t="str">
         <f>INDEX(Define!J:J,MATCH(D11,Define!I:I))</f>
-        <v>Boss</v>
+        <v>SelectActor</v>
       </c>
       <c r="F11" s="1">
         <v>100</v>
       </c>
       <c r="G11" s="1">
-        <v>1101</v>
+        <v>0</v>
       </c>
       <c r="H11" s="1">
         <v>0</v>
       </c>
       <c r="I11" s="1">
-        <v>1101</v>
+        <v>2001</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -4094,35 +4651,35 @@
         <v>20</v>
       </c>
       <c r="B12" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E12" s="1" t="str">
         <f>INDEX(Define!J:J,MATCH(D12,Define!I:I))</f>
-        <v>SelectActor</v>
+        <v>Battle</v>
       </c>
       <c r="F12" s="1">
         <v>100</v>
       </c>
       <c r="G12" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H12" s="1">
         <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>2001</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
         <v>0</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
@@ -4132,7 +4689,7 @@
         <v>20</v>
       </c>
       <c r="B13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
@@ -4148,7 +4705,7 @@
         <v>100</v>
       </c>
       <c r="G13" s="1">
-        <v>-1</v>
+        <v>1011</v>
       </c>
       <c r="H13" s="1">
         <v>0</v>
@@ -4160,98 +4717,236 @@
         <v>0</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
+      <c r="A14" s="1">
+        <v>20</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="str">
+        <f>INDEX(Define!J:J,MATCH(D14,Define!I:I))</f>
+        <v>Battle</v>
+      </c>
+      <c r="F14" s="1">
+        <v>100</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1021</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1021</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+      <c r="A15" s="1">
+        <v>20</v>
+      </c>
+      <c r="B15" s="1">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1" t="str">
+        <f>INDEX(Define!J:J,MATCH(D15,Define!I:I))</f>
+        <v>Battle</v>
+      </c>
+      <c r="F15" s="1">
+        <v>100</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1031</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
+      <c r="A16" s="1">
+        <v>20</v>
+      </c>
+      <c r="B16" s="1">
+        <v>4</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1" t="str">
+        <f>INDEX(Define!J:J,MATCH(D16,Define!I:I))</f>
+        <v>Battle</v>
+      </c>
+      <c r="F16" s="1">
+        <v>100</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1041</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
+      <c r="A17" s="1">
+        <v>20</v>
+      </c>
+      <c r="B17" s="1">
+        <v>5</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1" t="str">
+        <f>INDEX(Define!J:J,MATCH(D17,Define!I:I))</f>
+        <v>Battle</v>
+      </c>
+      <c r="F17" s="1">
+        <v>100</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1051</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
+      <c r="A18" s="1">
+        <v>20</v>
+      </c>
+      <c r="B18" s="1">
+        <v>5</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1" t="str">
+        <f>INDEX(Define!J:J,MATCH(D18,Define!I:I))</f>
+        <v>Battle</v>
+      </c>
+      <c r="F18" s="1">
+        <v>100</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1052</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
+      <c r="A19" s="1">
+        <v>20</v>
+      </c>
+      <c r="B19" s="1">
+        <v>6</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2</v>
+      </c>
+      <c r="E19" s="1" t="str">
+        <f>INDEX(Define!J:J,MATCH(D19,Define!I:I))</f>
+        <v>Boss</v>
+      </c>
+      <c r="F19" s="1">
+        <v>100</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1101</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1101</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
     </row>
@@ -4537,7 +5232,6 @@
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
       <c r="M38" s="1"/>
     </row>
     <row r="39" spans="1:13">
@@ -4552,6 +5246,7 @@
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
       <c r="M39" s="1"/>
     </row>
     <row r="40" spans="1:13">
@@ -4863,7 +5558,6 @@
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
@@ -4878,6 +5572,7 @@
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
@@ -5108,7 +5803,7 @@
       <c r="L76" s="1"/>
       <c r="M76" s="1"/>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:11">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -5120,10 +5815,8 @@
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
-      <c r="L77" s="1"/>
-      <c r="M77" s="1"/>
-    </row>
-    <row r="78" spans="1:11">
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -5135,8 +5828,10 @@
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
-    </row>
-    <row r="79" spans="1:13">
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -5148,8 +5843,6 @@
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
-      <c r="L79" s="1"/>
-      <c r="M79" s="1"/>
     </row>
     <row r="80" spans="1:11">
       <c r="A80" s="1"/>
@@ -5197,10 +5890,7 @@
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
-      <c r="G83" s="1"/>
       <c r="H83" s="1"/>
-      <c r="I83" s="1"/>
-      <c r="J83" s="1"/>
       <c r="K83" s="1"/>
     </row>
     <row r="84" spans="1:11">
@@ -5210,21 +5900,11 @@
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
       <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
       <c r="K84" s="1"/>
-    </row>
-    <row r="85" spans="1:11">
-      <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
-      <c r="G85" s="1"/>
-      <c r="H85" s="1"/>
-      <c r="I85" s="1"/>
-      <c r="J85" s="1"/>
-      <c r="K85" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5245,7 +5925,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>35</v>
@@ -5754,19 +6434,19 @@
         <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -5795,10 +6475,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:3">
@@ -5806,10 +6486,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="39" spans="1:4">
@@ -5817,10 +6497,10 @@
         <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -5829,10 +6509,10 @@
         <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="D4" s="2"/>
     </row>
@@ -5841,10 +6521,10 @@
         <v>30</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="D5" s="2"/>
     </row>
@@ -5853,10 +6533,10 @@
         <v>40</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="D6" s="2"/>
     </row>
@@ -5865,10 +6545,10 @@
         <v>50</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="D7" s="2"/>
     </row>
@@ -5877,10 +6557,10 @@
         <v>60</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="D8" s="2"/>
     </row>
@@ -5889,10 +6569,10 @@
         <v>70</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="39" spans="1:3">
@@ -5900,10 +6580,10 @@
         <v>80</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:3">
@@ -5911,10 +6591,10 @@
         <v>90</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:3">
@@ -5922,10 +6602,10 @@
         <v>100</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:3">
@@ -5933,10 +6613,10 @@
         <v>110</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -5944,10 +6624,10 @@
         <v>120</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -5955,10 +6635,10 @@
         <v>130</v>
       </c>
       <c r="B15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" t="s">
         <v>81</v>
-      </c>
-      <c r="C15" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -5966,10 +6646,10 @@
         <v>140</v>
       </c>
       <c r="B16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" t="s">
         <v>83</v>
-      </c>
-      <c r="C16" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -5977,10 +6657,10 @@
         <v>150</v>
       </c>
       <c r="B17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" t="s">
         <v>85</v>
-      </c>
-      <c r="C17" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -6019,19 +6699,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I2" s="1">
         <v>-1</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:9">
@@ -6039,13 +6719,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
@@ -6056,19 +6736,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D4" s="1">
         <v>2</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="I4" s="1">
-        <v>1</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:10">
@@ -6076,19 +6756,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D5" s="1">
         <v>3</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I5" s="1">
         <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:10">
@@ -6096,19 +6776,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D6" s="1">
         <v>4</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I6" s="1">
         <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:10">
@@ -6116,19 +6796,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D7" s="1">
         <v>5</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I7" s="1">
         <v>4</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:10">
@@ -6136,19 +6816,19 @@
         <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D8" s="1">
         <v>6</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I8" s="1">
         <v>5</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="4:10">
@@ -6156,13 +6836,13 @@
         <v>7</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I9" s="1">
         <v>6</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="4:10">
@@ -6170,13 +6850,13 @@
         <v>8</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I10" s="1">
         <v>7</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="4:10">
@@ -6184,13 +6864,13 @@
         <v>9</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I11" s="1">
         <v>8</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="4:10">
@@ -6198,13 +6878,13 @@
         <v>11</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I12" s="1">
         <v>9</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="4:10">
@@ -6212,13 +6892,13 @@
         <v>12</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I13" s="1">
         <v>99</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="4:5">
@@ -6226,7 +6906,7 @@
         <v>13</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="4:5">
@@ -6234,7 +6914,7 @@
         <v>14</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="4:5">
@@ -6242,7 +6922,7 @@
         <v>15</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="4:5">
@@ -6250,7 +6930,7 @@
         <v>21</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="4:5">
@@ -6258,7 +6938,7 @@
         <v>31</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" spans="4:5">
@@ -6266,7 +6946,7 @@
         <v>32</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="4:5">
@@ -6274,7 +6954,7 @@
         <v>33</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" spans="4:5">
@@ -6282,7 +6962,7 @@
         <v>41</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" spans="4:5">
@@ -6290,7 +6970,7 @@
         <v>51</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="4:5">
@@ -6298,7 +6978,7 @@
         <v>61</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="4:5">
@@ -6306,7 +6986,7 @@
         <v>62</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" spans="4:5">
@@ -6314,7 +6994,7 @@
         <v>201</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/Stages.xlsx
+++ b/Assets/Data/Stages.xlsx
@@ -4,23 +4,24 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070" tabRatio="661" activeTab="2"/>
+    <workbookView windowWidth="19200" windowHeight="7070" tabRatio="661"/>
   </bookViews>
   <sheets>
     <sheet name="Stages" sheetId="1" r:id="rId1"/>
     <sheet name="StageEvents" sheetId="2" r:id="rId2"/>
     <sheet name="StageSymbols" sheetId="8" r:id="rId3"/>
-    <sheet name="SymbolGroup" sheetId="7" r:id="rId4"/>
-    <sheet name="Tutorials" sheetId="4" r:id="rId5"/>
-    <sheet name="TextData" sheetId="5" r:id="rId6"/>
-    <sheet name="Define" sheetId="6" r:id="rId7"/>
+    <sheet name="StageEnemyRates" sheetId="9" r:id="rId4"/>
+    <sheet name="SymbolGroup" sheetId="7" r:id="rId5"/>
+    <sheet name="Tutorials" sheetId="4" r:id="rId6"/>
+    <sheet name="TextData" sheetId="5" r:id="rId7"/>
+    <sheet name="Define" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="129">
   <si>
     <t>Id</t>
   </si>
@@ -43,7 +44,7 @@
     <t>InitMembers</t>
   </si>
   <si>
-    <t>RandomTroopCount</t>
+    <t>RandomTroopWeight</t>
   </si>
   <si>
     <t>BGMId</t>
@@ -161,6 +162,12 @@
   </si>
   <si>
     <t>ボス戦</t>
+  </si>
+  <si>
+    <t>EnemyId</t>
+  </si>
+  <si>
+    <t>Weight</t>
   </si>
   <si>
     <t>GroupId</t>
@@ -591,9 +598,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="22">
@@ -611,20 +618,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -632,78 +625,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -718,7 +640,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -726,6 +679,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -746,9 +707,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -768,19 +775,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -792,25 +823,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -828,19 +877,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -852,103 +955,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -963,6 +970,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -973,50 +995,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1039,8 +1017,37 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1067,145 +1074,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1546,8 +1553,8 @@
   <sheetPr/>
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -1616,7 +1623,7 @@
         <v>3</v>
       </c>
       <c r="H2" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="I2" s="1">
         <v>1010</v>
@@ -1651,7 +1658,7 @@
         <v>3</v>
       </c>
       <c r="H3" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="I3" s="1">
         <v>1010</v>
@@ -1686,7 +1693,7 @@
         <v>3</v>
       </c>
       <c r="H4" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="I4" s="1">
         <v>1020</v>
@@ -1721,7 +1728,7 @@
         <v>3</v>
       </c>
       <c r="H5" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="I5" s="1">
         <v>1030</v>
@@ -1756,7 +1763,7 @@
         <v>3</v>
       </c>
       <c r="H6" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="I6" s="1">
         <v>1040</v>
@@ -1791,7 +1798,7 @@
         <v>3</v>
       </c>
       <c r="H7" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="I7" s="1">
         <v>1050</v>
@@ -1826,7 +1833,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="I8" s="1">
         <v>1060</v>
@@ -1861,7 +1868,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="I9" s="1">
         <v>1070</v>
@@ -1896,7 +1903,7 @@
         <v>3</v>
       </c>
       <c r="H10" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="I10" s="1">
         <v>1080</v>
@@ -1931,7 +1938,7 @@
         <v>3</v>
       </c>
       <c r="H11" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="I11" s="1">
         <v>1090</v>
@@ -1966,7 +1973,7 @@
         <v>3</v>
       </c>
       <c r="H12" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="I12" s="1">
         <v>1100</v>
@@ -2001,7 +2008,7 @@
         <v>3</v>
       </c>
       <c r="H13" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="I13" s="1">
         <v>1110</v>
@@ -2036,7 +2043,7 @@
         <v>3</v>
       </c>
       <c r="H14" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="I14" s="1">
         <v>1120</v>
@@ -2071,7 +2078,7 @@
         <v>3</v>
       </c>
       <c r="H15" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="I15" s="1">
         <v>1130</v>
@@ -2106,7 +2113,7 @@
         <v>3</v>
       </c>
       <c r="H16" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I16" s="1">
         <v>1140</v>
@@ -2141,7 +2148,7 @@
         <v>3</v>
       </c>
       <c r="H17" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I17" s="1">
         <v>1150</v>
@@ -4225,10 +4232,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M84"/>
+  <dimension ref="A1:M83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -4277,7 +4284,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="E2" s="1" t="str">
         <f>INDEX(Define!J:J,MATCH(D2,Define!I:I))</f>
@@ -4315,7 +4322,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1" t="str">
         <f>INDEX(Define!J:J,MATCH(D3,Define!I:I))</f>
@@ -4353,7 +4360,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E4" s="1" t="str">
         <f>INDEX(Define!J:J,MATCH(D4,Define!I:I))</f>
@@ -4391,7 +4398,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E5" s="1" t="str">
         <f>INDEX(Define!J:J,MATCH(D5,Define!I:I))</f>
@@ -4429,7 +4436,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E6" s="1" t="str">
         <f>INDEX(Define!J:J,MATCH(D6,Define!I:I))</f>
@@ -4467,7 +4474,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E7" s="1" t="str">
         <f>INDEX(Define!J:J,MATCH(D7,Define!I:I))</f>
@@ -4505,7 +4512,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E8" s="1" t="str">
         <f>INDEX(Define!J:J,MATCH(D8,Define!I:I))</f>
@@ -4543,7 +4550,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E9" s="1" t="str">
         <f>INDEX(Define!J:J,MATCH(D9,Define!I:I))</f>
@@ -4581,7 +4588,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E10" s="1" t="str">
         <f>INDEX(Define!J:J,MATCH(D10,Define!I:I))</f>
@@ -4619,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="1">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="E11" s="1" t="str">
         <f>INDEX(Define!J:J,MATCH(D11,Define!I:I))</f>
@@ -4657,7 +4664,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E12" s="1" t="str">
         <f>INDEX(Define!J:J,MATCH(D12,Define!I:I))</f>
@@ -4695,17 +4702,17 @@
         <v>0</v>
       </c>
       <c r="D13" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E13" s="1" t="str">
         <f>INDEX(Define!J:J,MATCH(D13,Define!I:I))</f>
-        <v>Battle</v>
+        <v>Random</v>
       </c>
       <c r="F13" s="1">
         <v>100</v>
       </c>
       <c r="G13" s="1">
-        <v>1011</v>
+        <v>0</v>
       </c>
       <c r="H13" s="1">
         <v>0</v>
@@ -4733,29 +4740,29 @@
         <v>0</v>
       </c>
       <c r="D14" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E14" s="1" t="str">
         <f>INDEX(Define!J:J,MATCH(D14,Define!I:I))</f>
-        <v>Battle</v>
+        <v>Random</v>
       </c>
       <c r="F14" s="1">
         <v>100</v>
       </c>
       <c r="G14" s="1">
-        <v>1021</v>
+        <v>0</v>
       </c>
       <c r="H14" s="1">
         <v>0</v>
       </c>
       <c r="I14" s="1">
-        <v>1021</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
         <v>0</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -4771,17 +4778,17 @@
         <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E15" s="1" t="str">
         <f>INDEX(Define!J:J,MATCH(D15,Define!I:I))</f>
-        <v>Battle</v>
+        <v>Random</v>
       </c>
       <c r="F15" s="1">
         <v>100</v>
       </c>
       <c r="G15" s="1">
-        <v>1031</v>
+        <v>0</v>
       </c>
       <c r="H15" s="1">
         <v>0</v>
@@ -4809,17 +4816,17 @@
         <v>0</v>
       </c>
       <c r="D16" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E16" s="1" t="str">
         <f>INDEX(Define!J:J,MATCH(D16,Define!I:I))</f>
-        <v>Battle</v>
+        <v>Random</v>
       </c>
       <c r="F16" s="1">
         <v>100</v>
       </c>
       <c r="G16" s="1">
-        <v>1041</v>
+        <v>0</v>
       </c>
       <c r="H16" s="1">
         <v>0</v>
@@ -4847,17 +4854,17 @@
         <v>0</v>
       </c>
       <c r="D17" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E17" s="1" t="str">
         <f>INDEX(Define!J:J,MATCH(D17,Define!I:I))</f>
-        <v>Battle</v>
+        <v>Random</v>
       </c>
       <c r="F17" s="1">
         <v>100</v>
       </c>
       <c r="G17" s="1">
-        <v>1051</v>
+        <v>0</v>
       </c>
       <c r="H17" s="1">
         <v>0</v>
@@ -4879,74 +4886,51 @@
         <v>20</v>
       </c>
       <c r="B18" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E18" s="1" t="str">
         <f>INDEX(Define!J:J,MATCH(D18,Define!I:I))</f>
-        <v>Battle</v>
+        <v>Boss</v>
       </c>
       <c r="F18" s="1">
         <v>100</v>
       </c>
       <c r="G18" s="1">
-        <v>1052</v>
+        <v>1101</v>
       </c>
       <c r="H18" s="1">
         <v>0</v>
       </c>
       <c r="I18" s="1">
-        <v>0</v>
+        <v>1101</v>
       </c>
       <c r="J18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="1">
-        <v>20</v>
-      </c>
-      <c r="B19" s="1">
-        <v>6</v>
-      </c>
-      <c r="C19" s="1">
-        <v>0</v>
-      </c>
-      <c r="D19" s="1">
-        <v>2</v>
-      </c>
-      <c r="E19" s="1" t="str">
-        <f>INDEX(Define!J:J,MATCH(D19,Define!I:I))</f>
-        <v>Boss</v>
-      </c>
-      <c r="F19" s="1">
-        <v>100</v>
-      </c>
-      <c r="G19" s="1">
-        <v>1101</v>
-      </c>
-      <c r="H19" s="1">
-        <v>0</v>
-      </c>
-      <c r="I19" s="1">
-        <v>1101</v>
-      </c>
-      <c r="J19" s="1">
-        <v>0</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
     </row>
@@ -5217,7 +5201,6 @@
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
       <c r="M37" s="1"/>
     </row>
     <row r="38" spans="1:13">
@@ -5232,6 +5215,7 @@
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
       <c r="M38" s="1"/>
     </row>
     <row r="39" spans="1:13">
@@ -5543,7 +5527,6 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
@@ -5558,6 +5541,7 @@
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
@@ -5788,7 +5772,7 @@
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:11">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -5800,10 +5784,8 @@
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
-      <c r="L76" s="1"/>
-      <c r="M76" s="1"/>
-    </row>
-    <row r="77" spans="1:11">
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -5815,8 +5797,10 @@
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
-    </row>
-    <row r="78" spans="1:13">
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -5828,8 +5812,6 @@
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
-      <c r="L78" s="1"/>
-      <c r="M78" s="1"/>
     </row>
     <row r="79" spans="1:11">
       <c r="A79" s="1"/>
@@ -5877,10 +5859,7 @@
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
       <c r="H82" s="1"/>
-      <c r="I82" s="1"/>
-      <c r="J82" s="1"/>
       <c r="K82" s="1"/>
     </row>
     <row r="83" spans="1:11">
@@ -5890,21 +5869,11 @@
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
       <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
       <c r="K83" s="1"/>
-    </row>
-    <row r="84" spans="1:11">
-      <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
-      <c r="H84" s="1"/>
-      <c r="I84" s="1"/>
-      <c r="J84" s="1"/>
-      <c r="K84" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5913,6 +5882,1002 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C89"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>20</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>20</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>20</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>20</v>
+      </c>
+      <c r="B14">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>30</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>30</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>30</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>30</v>
+      </c>
+      <c r="B18">
+        <v>6</v>
+      </c>
+      <c r="C18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>30</v>
+      </c>
+      <c r="B19">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>30</v>
+      </c>
+      <c r="B20">
+        <v>14</v>
+      </c>
+      <c r="C20">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>30</v>
+      </c>
+      <c r="B21">
+        <v>16</v>
+      </c>
+      <c r="C21">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>40</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>40</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>40</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>40</v>
+      </c>
+      <c r="B25">
+        <v>6</v>
+      </c>
+      <c r="C25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>40</v>
+      </c>
+      <c r="B26">
+        <v>8</v>
+      </c>
+      <c r="C26">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>40</v>
+      </c>
+      <c r="B27">
+        <v>14</v>
+      </c>
+      <c r="C27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>50</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>50</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>50</v>
+      </c>
+      <c r="B30">
+        <v>6</v>
+      </c>
+      <c r="C30">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>50</v>
+      </c>
+      <c r="B31">
+        <v>7</v>
+      </c>
+      <c r="C31">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>50</v>
+      </c>
+      <c r="B32">
+        <v>13</v>
+      </c>
+      <c r="C32">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>50</v>
+      </c>
+      <c r="B33">
+        <v>14</v>
+      </c>
+      <c r="C33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>50</v>
+      </c>
+      <c r="B34">
+        <v>15</v>
+      </c>
+      <c r="C34">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>60</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>60</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>60</v>
+      </c>
+      <c r="B37">
+        <v>6</v>
+      </c>
+      <c r="C37">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>60</v>
+      </c>
+      <c r="B38">
+        <v>14</v>
+      </c>
+      <c r="C38">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>60</v>
+      </c>
+      <c r="B39">
+        <v>18</v>
+      </c>
+      <c r="C39">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>70</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>70</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>70</v>
+      </c>
+      <c r="B42">
+        <v>4</v>
+      </c>
+      <c r="C42">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>70</v>
+      </c>
+      <c r="B43">
+        <v>10</v>
+      </c>
+      <c r="C43">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>70</v>
+      </c>
+      <c r="B44">
+        <v>11</v>
+      </c>
+      <c r="C44">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>70</v>
+      </c>
+      <c r="B45">
+        <v>17</v>
+      </c>
+      <c r="C45">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>70</v>
+      </c>
+      <c r="B46">
+        <v>18</v>
+      </c>
+      <c r="C46">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>80</v>
+      </c>
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="C47">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>80</v>
+      </c>
+      <c r="B48">
+        <v>7</v>
+      </c>
+      <c r="C48">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>80</v>
+      </c>
+      <c r="B49">
+        <v>10</v>
+      </c>
+      <c r="C49">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>80</v>
+      </c>
+      <c r="B50">
+        <v>12</v>
+      </c>
+      <c r="C50">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <v>80</v>
+      </c>
+      <c r="B51">
+        <v>14</v>
+      </c>
+      <c r="C51">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <v>80</v>
+      </c>
+      <c r="B52">
+        <v>17</v>
+      </c>
+      <c r="C52">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>90</v>
+      </c>
+      <c r="B53">
+        <v>4</v>
+      </c>
+      <c r="C53">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <v>90</v>
+      </c>
+      <c r="B54">
+        <v>5</v>
+      </c>
+      <c r="C54">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55">
+        <v>90</v>
+      </c>
+      <c r="B55">
+        <v>8</v>
+      </c>
+      <c r="C55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56">
+        <v>90</v>
+      </c>
+      <c r="B56">
+        <v>9</v>
+      </c>
+      <c r="C56">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57">
+        <v>90</v>
+      </c>
+      <c r="B57">
+        <v>14</v>
+      </c>
+      <c r="C57">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58">
+        <v>90</v>
+      </c>
+      <c r="B58">
+        <v>18</v>
+      </c>
+      <c r="C58">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59">
+        <v>90</v>
+      </c>
+      <c r="B59">
+        <v>19</v>
+      </c>
+      <c r="C59">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60">
+        <v>100</v>
+      </c>
+      <c r="B60">
+        <v>11</v>
+      </c>
+      <c r="C60">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61">
+        <v>100</v>
+      </c>
+      <c r="B61">
+        <v>12</v>
+      </c>
+      <c r="C61">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62">
+        <v>100</v>
+      </c>
+      <c r="B62">
+        <v>13</v>
+      </c>
+      <c r="C62">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63">
+        <v>100</v>
+      </c>
+      <c r="B63">
+        <v>14</v>
+      </c>
+      <c r="C63">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64">
+        <v>100</v>
+      </c>
+      <c r="B64">
+        <v>15</v>
+      </c>
+      <c r="C64">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65">
+        <v>100</v>
+      </c>
+      <c r="B65">
+        <v>16</v>
+      </c>
+      <c r="C65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66">
+        <v>100</v>
+      </c>
+      <c r="B66">
+        <v>17</v>
+      </c>
+      <c r="C66">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67">
+        <v>100</v>
+      </c>
+      <c r="B67">
+        <v>18</v>
+      </c>
+      <c r="C67">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68">
+        <v>100</v>
+      </c>
+      <c r="B68">
+        <v>19</v>
+      </c>
+      <c r="C68">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69">
+        <v>100</v>
+      </c>
+      <c r="B69">
+        <v>20</v>
+      </c>
+      <c r="C69">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70">
+        <v>110</v>
+      </c>
+      <c r="B70">
+        <v>6</v>
+      </c>
+      <c r="C70">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71">
+        <v>110</v>
+      </c>
+      <c r="B71">
+        <v>11</v>
+      </c>
+      <c r="C71">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72">
+        <v>110</v>
+      </c>
+      <c r="B72">
+        <v>12</v>
+      </c>
+      <c r="C72">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73">
+        <v>110</v>
+      </c>
+      <c r="B73">
+        <v>13</v>
+      </c>
+      <c r="C73">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74">
+        <v>110</v>
+      </c>
+      <c r="B74">
+        <v>16</v>
+      </c>
+      <c r="C74">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75">
+        <v>110</v>
+      </c>
+      <c r="B75">
+        <v>17</v>
+      </c>
+      <c r="C75">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76">
+        <v>110</v>
+      </c>
+      <c r="B76">
+        <v>20</v>
+      </c>
+      <c r="C76">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77">
+        <v>120</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78">
+        <v>120</v>
+      </c>
+      <c r="B78">
+        <v>2</v>
+      </c>
+      <c r="C78">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79">
+        <v>120</v>
+      </c>
+      <c r="B79">
+        <v>9</v>
+      </c>
+      <c r="C79">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80">
+        <v>120</v>
+      </c>
+      <c r="B80">
+        <v>11</v>
+      </c>
+      <c r="C80">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81">
+        <v>120</v>
+      </c>
+      <c r="B81">
+        <v>12</v>
+      </c>
+      <c r="C81">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82">
+        <v>120</v>
+      </c>
+      <c r="B82">
+        <v>17</v>
+      </c>
+      <c r="C82">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83">
+        <v>120</v>
+      </c>
+      <c r="B83">
+        <v>19</v>
+      </c>
+      <c r="C83">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84">
+        <v>130</v>
+      </c>
+      <c r="B84">
+        <v>10</v>
+      </c>
+      <c r="C84">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85">
+        <v>130</v>
+      </c>
+      <c r="B85">
+        <v>12</v>
+      </c>
+      <c r="C85">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86">
+        <v>130</v>
+      </c>
+      <c r="B86">
+        <v>13</v>
+      </c>
+      <c r="C86">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87">
+        <v>130</v>
+      </c>
+      <c r="B87">
+        <v>15</v>
+      </c>
+      <c r="C87">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88">
+        <v>130</v>
+      </c>
+      <c r="B88">
+        <v>17</v>
+      </c>
+      <c r="C88">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89">
+        <v>130</v>
+      </c>
+      <c r="B89">
+        <v>20</v>
+      </c>
+      <c r="C89">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G36"/>
@@ -5925,7 +6890,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>35</v>
@@ -5953,9 +6918,9 @@
       <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="str">
+      <c r="C2" s="1">
         <f>INDEX(Define!J:J,MATCH(B2,Define!I:I))</f>
-        <v>Battle</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>50</v>
@@ -5977,9 +6942,9 @@
       <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="str">
+      <c r="C3" s="1">
         <f>INDEX(Define!J:J,MATCH(B3,Define!I:I))</f>
-        <v>Battle</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>50</v>
@@ -6001,9 +6966,9 @@
       <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="str">
+      <c r="C4" s="1">
         <f>INDEX(Define!J:J,MATCH(B4,Define!I:I))</f>
-        <v>Battle</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>50</v>
@@ -6025,9 +6990,9 @@
       <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="str">
+      <c r="C5" s="1">
         <f>INDEX(Define!J:J,MATCH(B5,Define!I:I))</f>
-        <v>Battle</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>50</v>
@@ -6049,9 +7014,9 @@
       <c r="B6" s="1">
         <v>1</v>
       </c>
-      <c r="C6" s="1" t="str">
+      <c r="C6" s="1">
         <f>INDEX(Define!J:J,MATCH(B6,Define!I:I))</f>
-        <v>Battle</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>50</v>
@@ -6073,9 +7038,9 @@
       <c r="B7" s="1">
         <v>1</v>
       </c>
-      <c r="C7" s="1" t="str">
+      <c r="C7" s="1">
         <f>INDEX(Define!J:J,MATCH(B7,Define!I:I))</f>
-        <v>Battle</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>50</v>
@@ -6097,9 +7062,9 @@
       <c r="B8" s="1">
         <v>1</v>
       </c>
-      <c r="C8" s="1" t="str">
+      <c r="C8" s="1">
         <f>INDEX(Define!J:J,MATCH(B8,Define!I:I))</f>
-        <v>Battle</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>50</v>
@@ -6121,9 +7086,9 @@
       <c r="B9" s="1">
         <v>1</v>
       </c>
-      <c r="C9" s="1" t="str">
+      <c r="C9" s="1">
         <f>INDEX(Define!J:J,MATCH(B9,Define!I:I))</f>
-        <v>Battle</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>50</v>
@@ -6145,9 +7110,9 @@
       <c r="B10" s="1">
         <v>1</v>
       </c>
-      <c r="C10" s="1" t="str">
+      <c r="C10" s="1">
         <f>INDEX(Define!J:J,MATCH(B10,Define!I:I))</f>
-        <v>Battle</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>50</v>
@@ -6169,9 +7134,9 @@
       <c r="B11" s="1">
         <v>1</v>
       </c>
-      <c r="C11" s="1" t="str">
+      <c r="C11" s="1">
         <f>INDEX(Define!J:J,MATCH(B11,Define!I:I))</f>
-        <v>Battle</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>50</v>
@@ -6193,9 +7158,9 @@
       <c r="B12" s="1">
         <v>1</v>
       </c>
-      <c r="C12" s="1" t="str">
+      <c r="C12" s="1">
         <f>INDEX(Define!J:J,MATCH(B12,Define!I:I))</f>
-        <v>Battle</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <v>50</v>
@@ -6217,9 +7182,9 @@
       <c r="B13" s="1">
         <v>1</v>
       </c>
-      <c r="C13" s="1" t="str">
+      <c r="C13" s="1">
         <f>INDEX(Define!J:J,MATCH(B13,Define!I:I))</f>
-        <v>Battle</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <v>50</v>
@@ -6241,9 +7206,9 @@
       <c r="B14" s="1">
         <v>1</v>
       </c>
-      <c r="C14" s="1" t="str">
+      <c r="C14" s="1">
         <f>INDEX(Define!J:J,MATCH(B14,Define!I:I))</f>
-        <v>Battle</v>
+        <v>0</v>
       </c>
       <c r="D14">
         <v>50</v>
@@ -6265,9 +7230,9 @@
       <c r="B15" s="1">
         <v>1</v>
       </c>
-      <c r="C15" s="1" t="str">
+      <c r="C15" s="1">
         <f>INDEX(Define!J:J,MATCH(B15,Define!I:I))</f>
-        <v>Battle</v>
+        <v>0</v>
       </c>
       <c r="D15">
         <v>50</v>
@@ -6289,9 +7254,9 @@
       <c r="B16" s="1">
         <v>1</v>
       </c>
-      <c r="C16" s="1" t="str">
+      <c r="C16" s="1">
         <f>INDEX(Define!J:J,MATCH(B16,Define!I:I))</f>
-        <v>Battle</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <v>50</v>
@@ -6412,7 +7377,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H1"/>
@@ -6434,19 +7399,19 @@
         <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -6455,7 +7420,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D17"/>
@@ -6475,10 +7440,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:3">
@@ -6486,10 +7451,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="39" spans="1:4">
@@ -6497,10 +7462,10 @@
         <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -6509,10 +7474,10 @@
         <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D4" s="2"/>
     </row>
@@ -6521,10 +7486,10 @@
         <v>30</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D5" s="2"/>
     </row>
@@ -6533,10 +7498,10 @@
         <v>40</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D6" s="2"/>
     </row>
@@ -6545,10 +7510,10 @@
         <v>50</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D7" s="2"/>
     </row>
@@ -6557,10 +7522,10 @@
         <v>60</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D8" s="2"/>
     </row>
@@ -6569,10 +7534,10 @@
         <v>70</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="39" spans="1:3">
@@ -6580,10 +7545,10 @@
         <v>80</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:3">
@@ -6591,10 +7556,10 @@
         <v>90</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:3">
@@ -6602,10 +7567,10 @@
         <v>100</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:3">
@@ -6613,10 +7578,10 @@
         <v>110</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -6624,10 +7589,10 @@
         <v>120</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -6635,10 +7600,10 @@
         <v>130</v>
       </c>
       <c r="B15" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C15" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -6646,10 +7611,10 @@
         <v>140</v>
       </c>
       <c r="B16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -6657,10 +7622,10 @@
         <v>150</v>
       </c>
       <c r="B17" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C17" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -6669,13 +7634,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -6699,19 +7664,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I2" s="1">
         <v>-1</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:9">
@@ -6719,13 +7684,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
@@ -6736,19 +7701,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D4" s="1">
         <v>2</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I4" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:10">
@@ -6756,19 +7721,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D5" s="1">
         <v>3</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I5" s="1">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:10">
@@ -6776,19 +7741,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D6" s="1">
         <v>4</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="I6" s="1">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:10">
@@ -6796,19 +7761,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D7" s="1">
         <v>5</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I7" s="1">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:10">
@@ -6816,19 +7781,19 @@
         <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D8" s="1">
         <v>6</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I8" s="1">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="4:10">
@@ -6836,13 +7801,13 @@
         <v>7</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I9" s="1">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="4:10">
@@ -6850,13 +7815,13 @@
         <v>8</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I10" s="1">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="4:10">
@@ -6864,13 +7829,13 @@
         <v>9</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I11" s="1">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="4:10">
@@ -6878,13 +7843,13 @@
         <v>11</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I12" s="1">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="4:10">
@@ -6892,13 +7857,13 @@
         <v>12</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I13" s="1">
         <v>99</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="4:5">
@@ -6906,7 +7871,7 @@
         <v>13</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="4:5">
@@ -6914,7 +7879,7 @@
         <v>14</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="4:5">
@@ -6922,7 +7887,7 @@
         <v>15</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="4:5">
@@ -6930,7 +7895,7 @@
         <v>21</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="4:5">
@@ -6938,7 +7903,7 @@
         <v>31</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" spans="4:5">
@@ -6946,7 +7911,7 @@
         <v>32</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="4:5">
@@ -6954,7 +7919,7 @@
         <v>33</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" spans="4:5">
@@ -6962,7 +7927,7 @@
         <v>41</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" spans="4:5">
@@ -6970,7 +7935,7 @@
         <v>51</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="4:5">
@@ -6978,7 +7943,7 @@
         <v>61</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="4:5">
@@ -6986,7 +7951,7 @@
         <v>62</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" spans="4:5">
@@ -6994,7 +7959,7 @@
         <v>201</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/Stages.xlsx
+++ b/Assets/Data/Stages.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="133">
   <si>
     <t>Id</t>
   </si>
@@ -41,7 +41,7 @@
     <t>StageLv</t>
   </si>
   <si>
-    <t>InitMembers</t>
+    <t>PartyMemberIds</t>
   </si>
   <si>
     <t>RandomTroopWeight</t>
@@ -56,13 +56,25 @@
     <t>BackGround</t>
   </si>
   <si>
+    <t>3,5</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
+    <t>3,4,5</t>
+  </si>
+  <si>
     <t>stage1</t>
   </si>
   <si>
+    <t>3,4,5,6</t>
+  </si>
+  <si>
     <t>stage2</t>
+  </si>
+  <si>
+    <t>1,3,4,5,6</t>
   </si>
   <si>
     <t>stage3</t>
@@ -599,9 +611,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -618,13 +630,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -632,8 +637,15 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -646,8 +658,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -664,6 +677,13 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -686,7 +706,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -716,14 +736,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -731,9 +743,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -747,15 +758,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -775,19 +787,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -799,19 +799,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -829,7 +817,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -841,25 +883,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -871,25 +895,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -901,31 +955,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -937,25 +967,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -966,6 +978,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -984,17 +1020,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1017,37 +1047,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1066,6 +1067,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1074,19 +1086,19 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1095,46 +1107,46 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1143,76 +1155,76 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1554,7 +1566,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -1619,8 +1631,8 @@
       <c r="F2" s="1">
         <v>0</v>
       </c>
-      <c r="G2" s="1">
-        <v>3</v>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="H2" s="1">
         <v>30</v>
@@ -1632,7 +1644,7 @@
         <v>2010</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:11">
@@ -1654,8 +1666,8 @@
       <c r="F3" s="1">
         <v>0</v>
       </c>
-      <c r="G3" s="1">
-        <v>3</v>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="H3" s="1">
         <v>30</v>
@@ -1667,7 +1679,7 @@
         <v>2010</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:11">
@@ -1689,8 +1701,8 @@
       <c r="F4" s="1">
         <v>2</v>
       </c>
-      <c r="G4" s="1">
-        <v>3</v>
+      <c r="G4" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H4" s="1">
         <v>30</v>
@@ -1702,7 +1714,7 @@
         <v>2010</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:11">
@@ -1724,8 +1736,8 @@
       <c r="F5" s="1">
         <v>4</v>
       </c>
-      <c r="G5" s="1">
-        <v>3</v>
+      <c r="G5" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="H5" s="1">
         <v>30</v>
@@ -1737,7 +1749,7 @@
         <v>2010</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:11">
@@ -1759,8 +1771,8 @@
       <c r="F6" s="1">
         <v>6</v>
       </c>
-      <c r="G6" s="1">
-        <v>3</v>
+      <c r="G6" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="H6" s="1">
         <v>30</v>
@@ -1772,7 +1784,7 @@
         <v>2010</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:11">
@@ -1795,7 +1807,7 @@
         <v>8</v>
       </c>
       <c r="G7" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H7" s="1">
         <v>30</v>
@@ -1807,7 +1819,7 @@
         <v>2010</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:11">
@@ -1830,7 +1842,7 @@
         <v>10</v>
       </c>
       <c r="G8" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H8" s="1">
         <v>30</v>
@@ -1842,7 +1854,7 @@
         <v>2010</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:11">
@@ -1865,7 +1877,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H9" s="1">
         <v>30</v>
@@ -1877,7 +1889,7 @@
         <v>2010</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:11">
@@ -1900,7 +1912,7 @@
         <v>14</v>
       </c>
       <c r="G10" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H10" s="1">
         <v>30</v>
@@ -1912,7 +1924,7 @@
         <v>2020</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:11">
@@ -1935,7 +1947,7 @@
         <v>16</v>
       </c>
       <c r="G11" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H11" s="1">
         <v>30</v>
@@ -1947,7 +1959,7 @@
         <v>2020</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1970,7 +1982,7 @@
         <v>18</v>
       </c>
       <c r="G12" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H12" s="1">
         <v>30</v>
@@ -1982,7 +1994,7 @@
         <v>2020</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -2005,7 +2017,7 @@
         <v>20</v>
       </c>
       <c r="G13" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H13" s="1">
         <v>30</v>
@@ -2017,7 +2029,7 @@
         <v>2020</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -2040,7 +2052,7 @@
         <v>22</v>
       </c>
       <c r="G14" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H14" s="1">
         <v>30</v>
@@ -2052,7 +2064,7 @@
         <v>2020</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2075,7 +2087,7 @@
         <v>24</v>
       </c>
       <c r="G15" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H15" s="1">
         <v>30</v>
@@ -2087,7 +2099,7 @@
         <v>2020</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -2110,7 +2122,7 @@
         <v>26</v>
       </c>
       <c r="G16" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H16" s="1">
         <v>0</v>
@@ -2122,7 +2134,7 @@
         <v>2020</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -2145,7 +2157,7 @@
         <v>28</v>
       </c>
       <c r="G17" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H17" s="1">
         <v>0</v>
@@ -2157,7 +2169,7 @@
         <v>1150</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -2171,7 +2183,7 @@
   <sheetPr/>
   <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -2186,25 +2198,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:8">
@@ -4232,10 +4244,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M83"/>
+  <dimension ref="A1:M82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -4245,29 +4257,29 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -4300,13 +4312,13 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="J2" s="1">
         <v>0</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -4344,7 +4356,7 @@
         <v>0</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -4382,7 +4394,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -4420,7 +4432,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -4458,7 +4470,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -4496,7 +4508,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -4534,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -4572,7 +4584,7 @@
         <v>1</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -4610,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -4642,13 +4654,13 @@
         <v>0</v>
       </c>
       <c r="I11" s="1">
-        <v>2001</v>
+        <v>1004</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -4686,7 +4698,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
@@ -4724,7 +4736,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
@@ -4762,7 +4774,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -4800,7 +4812,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -4838,7 +4850,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -4876,7 +4888,7 @@
         <v>0</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -4914,472 +4926,1185 @@
         <v>0</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
+      <c r="A19" s="1">
+        <v>30</v>
+      </c>
+      <c r="B19" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
+        <v>70</v>
+      </c>
+      <c r="E19" s="1" t="str">
+        <f>INDEX(Define!J:J,MATCH(D19,Define!I:I))</f>
+        <v>SelectActor</v>
+      </c>
+      <c r="F19" s="1">
+        <v>100</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1006</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
+      <c r="A20" s="1">
+        <v>30</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
+        <v>10</v>
+      </c>
+      <c r="E20" s="1" t="str">
+        <f>INDEX(Define!J:J,MATCH(D20,Define!I:I))</f>
+        <v>Battle</v>
+      </c>
+      <c r="F20" s="1">
+        <v>100</v>
+      </c>
+      <c r="G20" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
+      <c r="A21" s="1">
+        <v>30</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E21" s="1" t="str">
+        <f>INDEX(Define!J:J,MATCH(D21,Define!I:I))</f>
+        <v>Random</v>
+      </c>
+      <c r="F21" s="1">
+        <v>100</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
+      <c r="A22" s="1">
+        <v>30</v>
+      </c>
+      <c r="B22" s="1">
+        <v>2</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E22" s="1" t="str">
+        <f>INDEX(Define!J:J,MATCH(D22,Define!I:I))</f>
+        <v>Random</v>
+      </c>
+      <c r="F22" s="1">
+        <v>100</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
+      <c r="A23" s="1">
+        <v>30</v>
+      </c>
+      <c r="B23" s="1">
+        <v>3</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E23" s="1" t="str">
+        <f>INDEX(Define!J:J,MATCH(D23,Define!I:I))</f>
+        <v>Random</v>
+      </c>
+      <c r="F23" s="1">
+        <v>100</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
+      <c r="A24" s="1">
+        <v>30</v>
+      </c>
+      <c r="B24" s="1">
+        <v>4</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E24" s="1" t="str">
+        <f>INDEX(Define!J:J,MATCH(D24,Define!I:I))</f>
+        <v>Random</v>
+      </c>
+      <c r="F24" s="1">
+        <v>100</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
+      <c r="A25" s="1">
+        <v>30</v>
+      </c>
+      <c r="B25" s="1">
+        <v>5</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E25" s="1" t="str">
+        <f>INDEX(Define!J:J,MATCH(D25,Define!I:I))</f>
+        <v>Random</v>
+      </c>
+      <c r="F25" s="1">
+        <v>100</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
+      <c r="A26" s="1">
+        <v>30</v>
+      </c>
+      <c r="B26" s="1">
+        <v>6</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1">
+        <v>11</v>
+      </c>
+      <c r="E26" s="1" t="str">
+        <f>INDEX(Define!J:J,MATCH(D26,Define!I:I))</f>
+        <v>Boss</v>
+      </c>
+      <c r="F26" s="1">
+        <v>100</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1101</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1">
+        <v>1101</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
+      <c r="A27" s="1">
+        <v>40</v>
+      </c>
+      <c r="B27" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1">
+        <v>70</v>
+      </c>
+      <c r="E27" s="1" t="str">
+        <f>INDEX(Define!J:J,MATCH(D27,Define!I:I))</f>
+        <v>SelectActor</v>
+      </c>
+      <c r="F27" s="1">
+        <v>100</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1">
+        <v>1001</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
+      <c r="A28" s="1">
+        <v>40</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1">
+        <v>10</v>
+      </c>
+      <c r="E28" s="1" t="str">
+        <f>INDEX(Define!J:J,MATCH(D28,Define!I:I))</f>
+        <v>Battle</v>
+      </c>
+      <c r="F28" s="1">
+        <v>100</v>
+      </c>
+      <c r="G28" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
+      <c r="A29" s="1">
+        <v>40</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E29" s="1" t="str">
+        <f>INDEX(Define!J:J,MATCH(D29,Define!I:I))</f>
+        <v>Random</v>
+      </c>
+      <c r="F29" s="1">
+        <v>100</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
+      <c r="A30" s="1">
+        <v>40</v>
+      </c>
+      <c r="B30" s="1">
+        <v>2</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E30" s="1" t="str">
+        <f>INDEX(Define!J:J,MATCH(D30,Define!I:I))</f>
+        <v>Random</v>
+      </c>
+      <c r="F30" s="1">
+        <v>100</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
+      <c r="A31" s="1">
+        <v>40</v>
+      </c>
+      <c r="B31" s="1">
+        <v>3</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E31" s="1" t="str">
+        <f>INDEX(Define!J:J,MATCH(D31,Define!I:I))</f>
+        <v>Random</v>
+      </c>
+      <c r="F31" s="1">
+        <v>100</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0</v>
+      </c>
+      <c r="J31" s="1">
+        <v>0</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
+      <c r="A32" s="1">
+        <v>40</v>
+      </c>
+      <c r="B32" s="1">
+        <v>4</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E32" s="1" t="str">
+        <f>INDEX(Define!J:J,MATCH(D32,Define!I:I))</f>
+        <v>Random</v>
+      </c>
+      <c r="F32" s="1">
+        <v>100</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
+      <c r="A33" s="1">
+        <v>40</v>
+      </c>
+      <c r="B33" s="1">
+        <v>5</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E33" s="1" t="str">
+        <f>INDEX(Define!J:J,MATCH(D33,Define!I:I))</f>
+        <v>Random</v>
+      </c>
+      <c r="F33" s="1">
+        <v>100</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
+      <c r="A34" s="1">
+        <v>40</v>
+      </c>
+      <c r="B34" s="1">
+        <v>6</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0</v>
+      </c>
+      <c r="D34" s="1">
+        <v>11</v>
+      </c>
+      <c r="E34" s="1" t="str">
+        <f>INDEX(Define!J:J,MATCH(D34,Define!I:I))</f>
+        <v>Boss</v>
+      </c>
+      <c r="F34" s="1">
+        <v>100</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1101</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0</v>
+      </c>
+      <c r="I34" s="1">
+        <v>1101</v>
+      </c>
+      <c r="J34" s="1">
+        <v>0</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
+      <c r="A35" s="1">
+        <v>50</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1">
+        <v>10</v>
+      </c>
+      <c r="E35" s="1" t="str">
+        <f>INDEX(Define!J:J,MATCH(D35,Define!I:I))</f>
+        <v>Battle</v>
+      </c>
+      <c r="F35" s="1">
+        <v>100</v>
+      </c>
+      <c r="G35" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0</v>
+      </c>
+      <c r="J35" s="1">
+        <v>0</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
+      <c r="A36" s="1">
+        <v>50</v>
+      </c>
+      <c r="B36" s="1">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E36" s="1" t="str">
+        <f>INDEX(Define!J:J,MATCH(D36,Define!I:I))</f>
+        <v>Random</v>
+      </c>
+      <c r="F36" s="1">
+        <v>100</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0</v>
+      </c>
+      <c r="J36" s="1">
+        <v>0</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="M36" s="1"/>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
+      <c r="A37" s="1">
+        <v>50</v>
+      </c>
+      <c r="B37" s="1">
+        <v>2</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E37" s="1" t="str">
+        <f>INDEX(Define!J:J,MATCH(D37,Define!I:I))</f>
+        <v>Random</v>
+      </c>
+      <c r="F37" s="1">
+        <v>100</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L37" s="1"/>
       <c r="M37" s="1"/>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
+      <c r="A38" s="1">
+        <v>50</v>
+      </c>
+      <c r="B38" s="1">
+        <v>3</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E38" s="1" t="str">
+        <f>INDEX(Define!J:J,MATCH(D38,Define!I:I))</f>
+        <v>Random</v>
+      </c>
+      <c r="F38" s="1">
+        <v>100</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0</v>
+      </c>
+      <c r="J38" s="1">
+        <v>0</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
+      <c r="A39" s="1">
+        <v>50</v>
+      </c>
+      <c r="B39" s="1">
+        <v>4</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0</v>
+      </c>
+      <c r="D39" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E39" s="1" t="str">
+        <f>INDEX(Define!J:J,MATCH(D39,Define!I:I))</f>
+        <v>Random</v>
+      </c>
+      <c r="F39" s="1">
+        <v>100</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0</v>
+      </c>
+      <c r="I39" s="1">
+        <v>0</v>
+      </c>
+      <c r="J39" s="1">
+        <v>0</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
+      <c r="A40" s="1">
+        <v>50</v>
+      </c>
+      <c r="B40" s="1">
+        <v>5</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0</v>
+      </c>
+      <c r="D40" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E40" s="1" t="str">
+        <f>INDEX(Define!J:J,MATCH(D40,Define!I:I))</f>
+        <v>Random</v>
+      </c>
+      <c r="F40" s="1">
+        <v>100</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0</v>
+      </c>
+      <c r="J40" s="1">
+        <v>0</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
     </row>
     <row r="41" spans="1:13">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
+      <c r="A41" s="1">
+        <v>50</v>
+      </c>
+      <c r="B41" s="1">
+        <v>6</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0</v>
+      </c>
+      <c r="D41" s="1">
+        <v>11</v>
+      </c>
+      <c r="E41" s="1" t="str">
+        <f>INDEX(Define!J:J,MATCH(D41,Define!I:I))</f>
+        <v>Boss</v>
+      </c>
+      <c r="F41" s="1">
+        <v>100</v>
+      </c>
+      <c r="G41" s="1">
+        <v>1101</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0</v>
+      </c>
+      <c r="I41" s="1">
+        <v>1101</v>
+      </c>
+      <c r="J41" s="1">
+        <v>0</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
+      <c r="A42" s="1">
+        <v>60</v>
+      </c>
+      <c r="B42" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0</v>
+      </c>
+      <c r="D42" s="1">
+        <v>70</v>
+      </c>
+      <c r="E42" s="1" t="str">
+        <f>INDEX(Define!J:J,MATCH(D42,Define!I:I))</f>
+        <v>SelectActor</v>
+      </c>
+      <c r="F42" s="1">
+        <v>100</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0</v>
+      </c>
+      <c r="I42" s="1">
+        <v>1002</v>
+      </c>
+      <c r="J42" s="1">
+        <v>0</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
+      <c r="A43" s="1">
+        <v>60</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0</v>
+      </c>
+      <c r="D43" s="1">
+        <v>10</v>
+      </c>
+      <c r="E43" s="1" t="str">
+        <f>INDEX(Define!J:J,MATCH(D43,Define!I:I))</f>
+        <v>Battle</v>
+      </c>
+      <c r="F43" s="1">
+        <v>100</v>
+      </c>
+      <c r="G43" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0</v>
+      </c>
+      <c r="I43" s="1">
+        <v>0</v>
+      </c>
+      <c r="J43" s="1">
+        <v>0</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
     </row>
     <row r="44" spans="1:13">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
+      <c r="A44" s="1">
+        <v>60</v>
+      </c>
+      <c r="B44" s="1">
+        <v>1</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0</v>
+      </c>
+      <c r="D44" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E44" s="1" t="str">
+        <f>INDEX(Define!J:J,MATCH(D44,Define!I:I))</f>
+        <v>Random</v>
+      </c>
+      <c r="F44" s="1">
+        <v>100</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0</v>
+      </c>
+      <c r="I44" s="1">
+        <v>0</v>
+      </c>
+      <c r="J44" s="1">
+        <v>0</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
     </row>
     <row r="45" spans="1:13">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
+      <c r="A45" s="1">
+        <v>60</v>
+      </c>
+      <c r="B45" s="1">
+        <v>2</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0</v>
+      </c>
+      <c r="D45" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E45" s="1" t="str">
+        <f>INDEX(Define!J:J,MATCH(D45,Define!I:I))</f>
+        <v>Random</v>
+      </c>
+      <c r="F45" s="1">
+        <v>100</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0</v>
+      </c>
+      <c r="H45" s="1">
+        <v>0</v>
+      </c>
+      <c r="I45" s="1">
+        <v>0</v>
+      </c>
+      <c r="J45" s="1">
+        <v>0</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
     </row>
     <row r="46" spans="1:13">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
+      <c r="A46" s="1">
+        <v>60</v>
+      </c>
+      <c r="B46" s="1">
+        <v>3</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0</v>
+      </c>
+      <c r="D46" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E46" s="1" t="str">
+        <f>INDEX(Define!J:J,MATCH(D46,Define!I:I))</f>
+        <v>Random</v>
+      </c>
+      <c r="F46" s="1">
+        <v>100</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0</v>
+      </c>
+      <c r="I46" s="1">
+        <v>0</v>
+      </c>
+      <c r="J46" s="1">
+        <v>0</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
     </row>
     <row r="47" spans="1:13">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
+      <c r="A47" s="1">
+        <v>60</v>
+      </c>
+      <c r="B47" s="1">
+        <v>4</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0</v>
+      </c>
+      <c r="D47" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E47" s="1" t="str">
+        <f>INDEX(Define!J:J,MATCH(D47,Define!I:I))</f>
+        <v>Random</v>
+      </c>
+      <c r="F47" s="1">
+        <v>100</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0</v>
+      </c>
+      <c r="H47" s="1">
+        <v>0</v>
+      </c>
+      <c r="I47" s="1">
+        <v>0</v>
+      </c>
+      <c r="J47" s="1">
+        <v>0</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
     </row>
     <row r="48" spans="1:13">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
+      <c r="A48" s="1">
+        <v>60</v>
+      </c>
+      <c r="B48" s="1">
+        <v>5</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0</v>
+      </c>
+      <c r="D48" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E48" s="1" t="str">
+        <f>INDEX(Define!J:J,MATCH(D48,Define!I:I))</f>
+        <v>Random</v>
+      </c>
+      <c r="F48" s="1">
+        <v>100</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0</v>
+      </c>
+      <c r="H48" s="1">
+        <v>0</v>
+      </c>
+      <c r="I48" s="1">
+        <v>0</v>
+      </c>
+      <c r="J48" s="1">
+        <v>0</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
     </row>
     <row r="49" spans="1:13">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
+      <c r="A49" s="1">
+        <v>60</v>
+      </c>
+      <c r="B49" s="1">
+        <v>6</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0</v>
+      </c>
+      <c r="D49" s="1">
+        <v>11</v>
+      </c>
+      <c r="E49" s="1" t="str">
+        <f>INDEX(Define!J:J,MATCH(D49,Define!I:I))</f>
+        <v>Boss</v>
+      </c>
+      <c r="F49" s="1">
+        <v>100</v>
+      </c>
+      <c r="G49" s="1">
+        <v>1101</v>
+      </c>
+      <c r="H49" s="1">
+        <v>0</v>
+      </c>
+      <c r="I49" s="1">
+        <v>1101</v>
+      </c>
+      <c r="J49" s="1">
+        <v>0</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
     </row>
@@ -5512,7 +6237,6 @@
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
@@ -5527,6 +6251,7 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
@@ -5757,7 +6482,7 @@
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:11">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -5769,10 +6494,8 @@
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
-      <c r="L75" s="1"/>
-      <c r="M75" s="1"/>
-    </row>
-    <row r="76" spans="1:11">
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -5784,8 +6507,10 @@
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
-    </row>
-    <row r="77" spans="1:13">
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -5797,8 +6522,6 @@
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
-      <c r="L77" s="1"/>
-      <c r="M77" s="1"/>
     </row>
     <row r="78" spans="1:11">
       <c r="A78" s="1"/>
@@ -5846,10 +6569,7 @@
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
       <c r="H81" s="1"/>
-      <c r="I81" s="1"/>
-      <c r="J81" s="1"/>
       <c r="K81" s="1"/>
     </row>
     <row r="82" spans="1:11">
@@ -5859,21 +6579,11 @@
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
       <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
       <c r="K82" s="1"/>
-    </row>
-    <row r="83" spans="1:11">
-      <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
-      <c r="G83" s="1"/>
-      <c r="H83" s="1"/>
-      <c r="I83" s="1"/>
-      <c r="J83" s="1"/>
-      <c r="K83" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5897,10 +6607,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -6890,25 +7600,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -7393,25 +8103,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -7440,10 +8150,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:3">
@@ -7451,10 +8161,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="39" spans="1:4">
@@ -7462,10 +8172,10 @@
         <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -7474,10 +8184,10 @@
         <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D4" s="2"/>
     </row>
@@ -7486,10 +8196,10 @@
         <v>30</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D5" s="2"/>
     </row>
@@ -7498,10 +8208,10 @@
         <v>40</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D6" s="2"/>
     </row>
@@ -7510,10 +8220,10 @@
         <v>50</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D7" s="2"/>
     </row>
@@ -7522,10 +8232,10 @@
         <v>60</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D8" s="2"/>
     </row>
@@ -7534,10 +8244,10 @@
         <v>70</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="39" spans="1:3">
@@ -7545,10 +8255,10 @@
         <v>80</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:3">
@@ -7556,10 +8266,10 @@
         <v>90</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:3">
@@ -7567,10 +8277,10 @@
         <v>100</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:3">
@@ -7578,10 +8288,10 @@
         <v>110</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -7589,10 +8299,10 @@
         <v>120</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -7600,10 +8310,10 @@
         <v>130</v>
       </c>
       <c r="B15" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C15" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -7611,10 +8321,10 @@
         <v>140</v>
       </c>
       <c r="B16" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C16" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -7622,10 +8332,10 @@
         <v>150</v>
       </c>
       <c r="B17" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C17" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -7650,13 +8360,13 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:10">
@@ -7664,19 +8374,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="I2" s="1">
         <v>-1</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:9">
@@ -7684,13 +8394,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
@@ -7701,19 +8411,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D4" s="1">
         <v>2</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="I4" s="1">
         <v>10</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:10">
@@ -7721,19 +8431,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D5" s="1">
         <v>3</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="I5" s="1">
         <v>11</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:10">
@@ -7741,19 +8451,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D6" s="1">
         <v>4</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="I6" s="1">
         <v>20</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:10">
@@ -7761,19 +8471,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D7" s="1">
         <v>5</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="I7" s="1">
         <v>30</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:10">
@@ -7781,19 +8491,19 @@
         <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D8" s="1">
         <v>6</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="I8" s="1">
         <v>40</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="4:10">
@@ -7801,13 +8511,13 @@
         <v>7</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="I9" s="1">
         <v>50</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="4:10">
@@ -7815,13 +8525,13 @@
         <v>8</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="I10" s="1">
         <v>60</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="4:10">
@@ -7829,13 +8539,13 @@
         <v>9</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="I11" s="1">
         <v>70</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="4:10">
@@ -7843,13 +8553,13 @@
         <v>11</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="I12" s="1">
         <v>80</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="4:10">
@@ -7857,13 +8567,13 @@
         <v>12</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="I13" s="1">
         <v>99</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="4:5">
@@ -7871,7 +8581,7 @@
         <v>13</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="4:5">
@@ -7879,7 +8589,7 @@
         <v>14</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="4:5">
@@ -7887,7 +8597,7 @@
         <v>15</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="4:5">
@@ -7895,7 +8605,7 @@
         <v>21</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="4:5">
@@ -7903,7 +8613,7 @@
         <v>31</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" spans="4:5">
@@ -7911,7 +8621,7 @@
         <v>32</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="4:5">
@@ -7919,7 +8629,7 @@
         <v>33</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" spans="4:5">
@@ -7927,7 +8637,7 @@
         <v>41</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" spans="4:5">
@@ -7935,7 +8645,7 @@
         <v>51</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="4:5">
@@ -7943,7 +8653,7 @@
         <v>61</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="4:5">
@@ -7951,7 +8661,7 @@
         <v>62</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" spans="4:5">
@@ -7959,7 +8669,7 @@
         <v>201</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/Stages.xlsx
+++ b/Assets/Data/Stages.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="134">
   <si>
     <t>Id</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>BossBGMId</t>
+  </si>
+  <si>
+    <t>MenuBGMId</t>
   </si>
   <si>
     <t>BackGround</t>
@@ -610,9 +613,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="22">
@@ -630,7 +633,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -644,8 +647,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -658,9 +662,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -674,16 +685,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -704,9 +715,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -735,16 +745,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -752,7 +754,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -766,8 +768,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -787,7 +790,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -805,19 +832,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -829,19 +898,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -859,37 +928,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -901,73 +970,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -991,6 +994,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1001,21 +1019,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1053,6 +1056,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1067,17 +1081,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1086,16 +1089,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1104,127 +1107,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1563,10 +1566,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -1574,10 +1577,10 @@
     <col min="4" max="4" width="8.45454545454546" customWidth="1"/>
     <col min="5" max="5" width="10.3636363636364" customWidth="1"/>
     <col min="6" max="6" width="8.72727272727273" style="4"/>
-    <col min="11" max="11" width="32" customWidth="1"/>
+    <col min="12" max="12" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:11">
+    <row r="1" s="1" customFormat="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1611,8 +1614,11 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:12">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1632,7 +1638,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H2" s="1">
         <v>30</v>
@@ -1643,11 +1649,14 @@
       <c r="J2" s="1">
         <v>2010</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:11">
+      <c r="K2" s="1">
+        <v>100</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:12">
       <c r="A3" s="1">
         <v>10</v>
       </c>
@@ -1667,7 +1676,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" s="1">
         <v>30</v>
@@ -1678,11 +1687,14 @@
       <c r="J3" s="1">
         <v>2010</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:11">
+      <c r="K3" s="1">
+        <v>100</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:12">
       <c r="A4" s="1">
         <v>20</v>
       </c>
@@ -1702,7 +1714,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H4" s="1">
         <v>30</v>
@@ -1713,11 +1725,14 @@
       <c r="J4" s="1">
         <v>2010</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:11">
+      <c r="K4" s="1">
+        <v>100</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:12">
       <c r="A5" s="1">
         <v>30</v>
       </c>
@@ -1737,7 +1752,7 @@
         <v>4</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H5" s="1">
         <v>30</v>
@@ -1748,11 +1763,14 @@
       <c r="J5" s="1">
         <v>2010</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:11">
+      <c r="K5" s="1">
+        <v>100</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:12">
       <c r="A6" s="1">
         <v>40</v>
       </c>
@@ -1772,7 +1790,7 @@
         <v>6</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H6" s="1">
         <v>30</v>
@@ -1783,11 +1801,14 @@
       <c r="J6" s="1">
         <v>2010</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:11">
+      <c r="K6" s="1">
+        <v>100</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:12">
       <c r="A7" s="1">
         <v>50</v>
       </c>
@@ -1818,11 +1839,14 @@
       <c r="J7" s="1">
         <v>2010</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="1:11">
+      <c r="K7" s="1">
+        <v>100</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:12">
       <c r="A8" s="1">
         <v>60</v>
       </c>
@@ -1853,11 +1877,14 @@
       <c r="J8" s="1">
         <v>2010</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="1:11">
+      <c r="K8" s="1">
+        <v>100</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:12">
       <c r="A9" s="1">
         <v>70</v>
       </c>
@@ -1888,11 +1915,14 @@
       <c r="J9" s="1">
         <v>2010</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="1:11">
+      <c r="K9" s="1">
+        <v>110</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:12">
       <c r="A10" s="1">
         <v>80</v>
       </c>
@@ -1923,11 +1953,14 @@
       <c r="J10" s="1">
         <v>2020</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="1:11">
+      <c r="K10" s="1">
+        <v>110</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:12">
       <c r="A11" s="1">
         <v>90</v>
       </c>
@@ -1958,11 +1991,14 @@
       <c r="J11" s="1">
         <v>2020</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="K11" s="1">
+        <v>110</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1">
         <v>100</v>
       </c>
@@ -1993,11 +2029,14 @@
       <c r="J12" s="1">
         <v>2020</v>
       </c>
-      <c r="K12" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="K12" s="1">
+        <v>110</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1">
         <v>110</v>
       </c>
@@ -2028,11 +2067,14 @@
       <c r="J13" s="1">
         <v>2020</v>
       </c>
-      <c r="K13" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="K13" s="1">
+        <v>120</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1">
         <v>120</v>
       </c>
@@ -2063,11 +2105,14 @@
       <c r="J14" s="1">
         <v>2020</v>
       </c>
-      <c r="K14" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="K14" s="1">
+        <v>120</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1">
         <v>130</v>
       </c>
@@ -2098,11 +2143,14 @@
       <c r="J15" s="1">
         <v>2020</v>
       </c>
-      <c r="K15" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="K15" s="1">
+        <v>120</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1">
         <v>140</v>
       </c>
@@ -2133,11 +2181,14 @@
       <c r="J16" s="1">
         <v>2020</v>
       </c>
-      <c r="K16" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="K16" s="1">
+        <v>120</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1">
         <v>150</v>
       </c>
@@ -2168,8 +2219,11 @@
       <c r="J17" s="1">
         <v>1150</v>
       </c>
-      <c r="K17" s="1" t="s">
-        <v>30</v>
+      <c r="K17" s="1">
+        <v>120</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -2198,25 +2252,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:8">
@@ -4257,29 +4311,29 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -4318,7 +4372,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -4356,7 +4410,7 @@
         <v>0</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -4394,7 +4448,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -4432,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -4470,7 +4524,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -4508,7 +4562,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -4546,7 +4600,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -4584,7 +4638,7 @@
         <v>1</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -4622,7 +4676,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -4660,7 +4714,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -4698,7 +4752,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
@@ -4736,7 +4790,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
@@ -4774,7 +4828,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -4812,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -4850,7 +4904,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -4888,7 +4942,7 @@
         <v>0</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -4926,7 +4980,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -4964,7 +5018,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
@@ -5002,7 +5056,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
@@ -5040,7 +5094,7 @@
         <v>0</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
@@ -5078,7 +5132,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
@@ -5116,7 +5170,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
@@ -5154,7 +5208,7 @@
         <v>0</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
@@ -5192,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
@@ -5230,7 +5284,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
@@ -5268,7 +5322,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
@@ -5306,7 +5360,7 @@
         <v>0</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
@@ -5344,7 +5398,7 @@
         <v>0</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
@@ -5382,7 +5436,7 @@
         <v>0</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
@@ -5420,7 +5474,7 @@
         <v>0</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
@@ -5458,7 +5512,7 @@
         <v>0</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
@@ -5496,7 +5550,7 @@
         <v>0</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
@@ -5534,7 +5588,7 @@
         <v>0</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
@@ -5572,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
@@ -5610,7 +5664,7 @@
         <v>0</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M36" s="1"/>
     </row>
@@ -5647,7 +5701,7 @@
         <v>0</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
@@ -5685,7 +5739,7 @@
         <v>0</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
@@ -5723,7 +5777,7 @@
         <v>0</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
@@ -5761,7 +5815,7 @@
         <v>0</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
@@ -5799,7 +5853,7 @@
         <v>0</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
@@ -5837,7 +5891,7 @@
         <v>0</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
@@ -5875,7 +5929,7 @@
         <v>0</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
@@ -5913,7 +5967,7 @@
         <v>0</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
@@ -5951,7 +6005,7 @@
         <v>0</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
@@ -5989,7 +6043,7 @@
         <v>0</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
@@ -6027,7 +6081,7 @@
         <v>0</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
@@ -6065,7 +6119,7 @@
         <v>0</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
@@ -6103,7 +6157,7 @@
         <v>0</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
@@ -6607,10 +6661,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -7600,25 +7654,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -8103,25 +8157,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -8150,10 +8204,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:3">
@@ -8161,10 +8215,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="39" spans="1:4">
@@ -8172,10 +8226,10 @@
         <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -8184,10 +8238,10 @@
         <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D4" s="2"/>
     </row>
@@ -8196,10 +8250,10 @@
         <v>30</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D5" s="2"/>
     </row>
@@ -8208,10 +8262,10 @@
         <v>40</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D6" s="2"/>
     </row>
@@ -8220,10 +8274,10 @@
         <v>50</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D7" s="2"/>
     </row>
@@ -8232,10 +8286,10 @@
         <v>60</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D8" s="2"/>
     </row>
@@ -8244,10 +8298,10 @@
         <v>70</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="39" spans="1:3">
@@ -8255,10 +8309,10 @@
         <v>80</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:3">
@@ -8266,10 +8320,10 @@
         <v>90</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:3">
@@ -8277,10 +8331,10 @@
         <v>100</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:3">
@@ -8288,10 +8342,10 @@
         <v>110</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -8299,10 +8353,10 @@
         <v>120</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -8310,10 +8364,10 @@
         <v>130</v>
       </c>
       <c r="B15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -8321,10 +8375,10 @@
         <v>140</v>
       </c>
       <c r="B16" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C16" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -8332,10 +8386,10 @@
         <v>150</v>
       </c>
       <c r="B17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -8360,13 +8414,13 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:10">
@@ -8374,19 +8428,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I2" s="1">
         <v>-1</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:9">
@@ -8394,13 +8448,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
@@ -8411,19 +8465,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D4" s="1">
         <v>2</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I4" s="1">
         <v>10</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:10">
@@ -8431,19 +8485,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D5" s="1">
         <v>3</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I5" s="1">
         <v>11</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:10">
@@ -8451,19 +8505,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D6" s="1">
         <v>4</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I6" s="1">
         <v>20</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:10">
@@ -8471,19 +8525,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D7" s="1">
         <v>5</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I7" s="1">
         <v>30</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:10">
@@ -8491,19 +8545,19 @@
         <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D8" s="1">
         <v>6</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I8" s="1">
         <v>40</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="4:10">
@@ -8511,13 +8565,13 @@
         <v>7</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I9" s="1">
         <v>50</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="4:10">
@@ -8525,13 +8579,13 @@
         <v>8</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I10" s="1">
         <v>60</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="4:10">
@@ -8539,13 +8593,13 @@
         <v>9</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I11" s="1">
         <v>70</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="4:10">
@@ -8553,13 +8607,13 @@
         <v>11</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I12" s="1">
         <v>80</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="4:10">
@@ -8567,13 +8621,13 @@
         <v>12</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I13" s="1">
         <v>99</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="4:5">
@@ -8581,7 +8635,7 @@
         <v>13</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="4:5">
@@ -8589,7 +8643,7 @@
         <v>14</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="4:5">
@@ -8597,7 +8651,7 @@
         <v>15</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="4:5">
@@ -8605,7 +8659,7 @@
         <v>21</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="4:5">
@@ -8613,7 +8667,7 @@
         <v>31</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" spans="4:5">
@@ -8621,7 +8675,7 @@
         <v>32</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="4:5">
@@ -8629,7 +8683,7 @@
         <v>33</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" spans="4:5">
@@ -8637,7 +8691,7 @@
         <v>41</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" spans="4:5">
@@ -8645,7 +8699,7 @@
         <v>51</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="4:5">
@@ -8653,7 +8707,7 @@
         <v>61</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="4:5">
@@ -8661,7 +8715,7 @@
         <v>62</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" spans="4:5">
@@ -8669,7 +8723,7 @@
         <v>201</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/Stages.xlsx
+++ b/Assets/Data/Stages.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070" tabRatio="661"/>
+    <workbookView windowWidth="19200" windowHeight="7070" tabRatio="661" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Stages" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="135">
   <si>
     <t>Id</t>
   </si>
@@ -560,49 +560,52 @@
     <t>SelectActor</t>
   </si>
   <si>
+    <t>IDにActorIDを加算してADV再生</t>
+  </si>
+  <si>
+    <t>Shop</t>
+  </si>
+  <si>
+    <t>ルート分岐イベント</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>ルート分岐パラメータ設定</t>
+  </si>
+  <si>
+    <t>ルート分岐ステージ移動</t>
+  </si>
+  <si>
+    <t>ステージクリア</t>
+  </si>
+  <si>
+    <t>ルート分岐でステージに移動</t>
+  </si>
+  <si>
+    <t>ルート分岐敵グループを生成</t>
+  </si>
+  <si>
+    <t>表示残りターンをマスターから取得</t>
+  </si>
+  <si>
+    <t>継承スキル演出開始</t>
+  </si>
+  <si>
+    <t>ステージ移動</t>
+  </si>
+  <si>
+    <t>中ボスを設置する(コマンド制限判定あり)</t>
+  </si>
+  <si>
+    <t>上位者ボスを設置する(コマンド制限判定あり)</t>
+  </si>
+  <si>
     <t>ADV再生</t>
   </si>
   <si>
-    <t>Shop</t>
-  </si>
-  <si>
-    <t>IDにActorIDを加算してADV再生</t>
-  </si>
-  <si>
-    <t>Group</t>
-  </si>
-  <si>
-    <t>ルート分岐イベント</t>
-  </si>
-  <si>
-    <t>ルート分岐パラメータ設定</t>
-  </si>
-  <si>
-    <t>ルート分岐ステージ移動</t>
-  </si>
-  <si>
-    <t>ステージクリア</t>
-  </si>
-  <si>
-    <t>ルート分岐でステージに移動</t>
-  </si>
-  <si>
-    <t>ルート分岐敵グループを生成</t>
-  </si>
-  <si>
-    <t>表示残りターンをマスターから取得</t>
-  </si>
-  <si>
-    <t>継承スキル演出開始</t>
-  </si>
-  <si>
-    <t>ステージ移動</t>
-  </si>
-  <si>
-    <t>中ボスを設置する(コマンド制限判定あり)</t>
-  </si>
-  <si>
-    <t>上位者ボスを設置する(コマンド制限判定あり)</t>
+    <t>今のステージシンボルの〇SeekIndexのバトルを開始</t>
   </si>
   <si>
     <t>サバイバルモードにする</t>
@@ -613,10 +616,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -633,17 +636,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -656,32 +651,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -693,8 +672,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -709,14 +689,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -745,32 +756,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -790,7 +793,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -802,7 +805,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -814,7 +853,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -826,13 +871,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -844,13 +895,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -862,7 +913,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -874,19 +949,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -898,73 +967,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -981,15 +984,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1027,7 +1021,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1043,15 +1037,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1081,6 +1066,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1089,19 +1092,19 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1110,124 +1113,124 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1568,7 +1571,7 @@
   <sheetPr/>
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
@@ -2235,10 +2238,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H73"/>
+  <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="7"/>
@@ -2288,7 +2291,7 @@
         <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E2" s="1">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="F2" s="1" t="str">
         <f>INDEX(Define!E:E,MATCH(E2,Define!D:D))</f>
@@ -2316,7 +2319,7 @@
         <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E3" s="1">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="F3" s="1" t="str">
         <f>INDEX(Define!E:E,MATCH(E3,Define!D:D))</f>
@@ -2334,7 +2337,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1">
         <v>11</v>
@@ -2344,14 +2347,14 @@
         <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E4" s="1">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="F4" s="1" t="str">
         <f>INDEX(Define!E:E,MATCH(E4,Define!D:D))</f>
-        <v>ADV再生</v>
+        <v>今のステージシンボルの〇SeekIndexのバトルを開始</v>
       </c>
       <c r="G4" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H4" s="1">
         <v>1</v>
@@ -2362,7 +2365,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1">
         <v>11</v>
@@ -2372,14 +2375,14 @@
         <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E5" s="1">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="F5" s="1" t="str">
         <f>INDEX(Define!E:E,MATCH(E5,Define!D:D))</f>
         <v>ADV再生</v>
       </c>
       <c r="G5" s="1">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H5" s="1">
         <v>1</v>
@@ -2390,7 +2393,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1">
         <v>11</v>
@@ -2400,70 +2403,70 @@
         <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E6" s="1">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="F6" s="1" t="str">
         <f>INDEX(Define!E:E,MATCH(E6,Define!D:D))</f>
         <v>ADV再生</v>
       </c>
       <c r="G6" s="1">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H6" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7">
+    <row r="7" s="1" customFormat="1" spans="1:8">
+      <c r="A7" s="1">
         <v>10</v>
       </c>
-      <c r="B7">
-        <v>7</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
+      <c r="B7" s="1">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1">
+        <v>11</v>
       </c>
       <c r="D7" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C7,Define!A:A))</f>
-        <v>Strategy開始</v>
+        <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E7" s="1">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="F7" s="1" t="str">
         <f>INDEX(Define!E:E,MATCH(E7,Define!D:D))</f>
         <v>ADV再生</v>
       </c>
       <c r="G7" s="1">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H7" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:8">
-      <c r="A8" s="1">
-        <v>20</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1">
-        <v>11</v>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
       </c>
       <c r="D8" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C8,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
+        <v>Strategy開始</v>
       </c>
       <c r="E8" s="1">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="F8" s="1" t="str">
         <f>INDEX(Define!E:E,MATCH(E8,Define!D:D))</f>
         <v>ADV再生</v>
       </c>
       <c r="G8" s="1">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="H8" s="1">
         <v>1</v>
@@ -2474,7 +2477,7 @@
         <v>20</v>
       </c>
       <c r="B9" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C9" s="1">
         <v>11</v>
@@ -2484,70 +2487,70 @@
         <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E9" s="1">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="F9" s="1" t="str">
         <f>INDEX(Define!E:E,MATCH(E9,Define!D:D))</f>
         <v>ADV再生</v>
       </c>
       <c r="G9" s="1">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="H9" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="10" customFormat="1" spans="1:8">
-      <c r="A10">
+    <row r="10" s="1" customFormat="1" spans="1:8">
+      <c r="A10" s="1">
         <v>20</v>
       </c>
-      <c r="B10">
-        <v>7</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
+      <c r="B10" s="1">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1">
+        <v>11</v>
       </c>
       <c r="D10" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C10,Define!A:A))</f>
-        <v>Strategy開始</v>
+        <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E10" s="1">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="F10" s="1" t="str">
         <f>INDEX(Define!E:E,MATCH(E10,Define!D:D))</f>
         <v>ADV再生</v>
       </c>
       <c r="G10" s="1">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H10" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="1:8">
-      <c r="A11" s="1">
-        <v>30</v>
-      </c>
-      <c r="B11" s="1">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1">
-        <v>11</v>
+    <row r="11" customFormat="1" spans="1:8">
+      <c r="A11">
+        <v>20</v>
+      </c>
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
       </c>
       <c r="D11" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C11,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
+        <v>Strategy開始</v>
       </c>
       <c r="E11" s="1">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="F11" s="1" t="str">
         <f>INDEX(Define!E:E,MATCH(E11,Define!D:D))</f>
         <v>ADV再生</v>
       </c>
       <c r="G11" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="H11" s="1">
         <v>1</v>
@@ -2558,7 +2561,7 @@
         <v>30</v>
       </c>
       <c r="B12" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C12" s="1">
         <v>11</v>
@@ -2568,14 +2571,14 @@
         <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E12" s="1">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="F12" s="1" t="str">
         <f>INDEX(Define!E:E,MATCH(E12,Define!D:D))</f>
         <v>ADV再生</v>
       </c>
       <c r="G12" s="1">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="H12" s="1">
         <v>1</v>
@@ -2586,7 +2589,7 @@
         <v>30</v>
       </c>
       <c r="B13" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C13" s="1">
         <v>11</v>
@@ -2596,70 +2599,70 @@
         <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E13" s="1">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="F13" s="1" t="str">
         <f>INDEX(Define!E:E,MATCH(E13,Define!D:D))</f>
         <v>ADV再生</v>
       </c>
       <c r="G13" s="1">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="H13" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="14" customFormat="1" spans="1:8">
-      <c r="A14">
+    <row r="14" s="1" customFormat="1" spans="1:8">
+      <c r="A14" s="1">
         <v>30</v>
       </c>
-      <c r="B14">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>2</v>
+      <c r="B14" s="1">
+        <v>6</v>
+      </c>
+      <c r="C14" s="1">
+        <v>11</v>
       </c>
       <c r="D14" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C14,Define!A:A))</f>
-        <v>Strategy開始</v>
+        <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E14" s="1">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="F14" s="1" t="str">
         <f>INDEX(Define!E:E,MATCH(E14,Define!D:D))</f>
         <v>ADV再生</v>
       </c>
       <c r="G14" s="1">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="H14" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" spans="1:8">
-      <c r="A15" s="1">
-        <v>40</v>
-      </c>
-      <c r="B15" s="1">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1">
-        <v>11</v>
+    <row r="15" customFormat="1" spans="1:8">
+      <c r="A15">
+        <v>30</v>
+      </c>
+      <c r="B15">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
       </c>
       <c r="D15" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C15,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
+        <v>Strategy開始</v>
       </c>
       <c r="E15" s="1">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="F15" s="1" t="str">
         <f>INDEX(Define!E:E,MATCH(E15,Define!D:D))</f>
         <v>ADV再生</v>
       </c>
       <c r="G15" s="1">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="H15" s="1">
         <v>1</v>
@@ -2670,7 +2673,7 @@
         <v>40</v>
       </c>
       <c r="B16" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C16" s="1">
         <v>11</v>
@@ -2680,14 +2683,14 @@
         <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E16" s="1">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="F16" s="1" t="str">
         <f>INDEX(Define!E:E,MATCH(E16,Define!D:D))</f>
         <v>ADV再生</v>
       </c>
       <c r="G16" s="1">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="H16" s="1">
         <v>1</v>
@@ -2698,7 +2701,7 @@
         <v>40</v>
       </c>
       <c r="B17" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C17" s="1">
         <v>11</v>
@@ -2708,14 +2711,14 @@
         <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E17" s="1">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="F17" s="1" t="str">
         <f>INDEX(Define!E:E,MATCH(E17,Define!D:D))</f>
         <v>ADV再生</v>
       </c>
       <c r="G17" s="1">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="H17" s="1">
         <v>1</v>
@@ -2726,7 +2729,7 @@
         <v>40</v>
       </c>
       <c r="B18" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C18" s="1">
         <v>11</v>
@@ -2736,70 +2739,70 @@
         <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E18" s="1">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="F18" s="1" t="str">
         <f>INDEX(Define!E:E,MATCH(E18,Define!D:D))</f>
         <v>ADV再生</v>
       </c>
       <c r="G18" s="1">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="H18" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="19" customFormat="1" spans="1:8">
-      <c r="A19">
+    <row r="19" s="1" customFormat="1" spans="1:8">
+      <c r="A19" s="1">
         <v>40</v>
       </c>
-      <c r="B19">
-        <v>7</v>
-      </c>
-      <c r="C19">
-        <v>2</v>
+      <c r="B19" s="1">
+        <v>6</v>
+      </c>
+      <c r="C19" s="1">
+        <v>11</v>
       </c>
       <c r="D19" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C19,Define!A:A))</f>
-        <v>Strategy開始</v>
+        <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E19" s="1">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="F19" s="1" t="str">
         <f>INDEX(Define!E:E,MATCH(E19,Define!D:D))</f>
         <v>ADV再生</v>
       </c>
       <c r="G19" s="1">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="H19" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" spans="1:8">
-      <c r="A20" s="1">
-        <v>50</v>
-      </c>
-      <c r="B20" s="1">
-        <v>1</v>
-      </c>
-      <c r="C20" s="1">
-        <v>11</v>
+    <row r="20" customFormat="1" spans="1:8">
+      <c r="A20">
+        <v>40</v>
+      </c>
+      <c r="B20">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
       </c>
       <c r="D20" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C20,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
+        <v>Strategy開始</v>
       </c>
       <c r="E20" s="1">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="F20" s="1" t="str">
         <f>INDEX(Define!E:E,MATCH(E20,Define!D:D))</f>
         <v>ADV再生</v>
       </c>
       <c r="G20" s="1">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="H20" s="1">
         <v>1</v>
@@ -2810,7 +2813,7 @@
         <v>50</v>
       </c>
       <c r="B21" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C21" s="1">
         <v>11</v>
@@ -2820,14 +2823,14 @@
         <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E21" s="1">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="F21" s="1" t="str">
         <f>INDEX(Define!E:E,MATCH(E21,Define!D:D))</f>
         <v>ADV再生</v>
       </c>
       <c r="G21" s="1">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="H21" s="1">
         <v>1</v>
@@ -2838,7 +2841,7 @@
         <v>50</v>
       </c>
       <c r="B22" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C22" s="1">
         <v>11</v>
@@ -2848,70 +2851,70 @@
         <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E22" s="1">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="F22" s="1" t="str">
         <f>INDEX(Define!E:E,MATCH(E22,Define!D:D))</f>
         <v>ADV再生</v>
       </c>
       <c r="G22" s="1">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="H22" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="23" customFormat="1" spans="1:8">
-      <c r="A23">
+    <row r="23" s="1" customFormat="1" spans="1:8">
+      <c r="A23" s="1">
         <v>50</v>
       </c>
-      <c r="B23">
-        <v>7</v>
-      </c>
-      <c r="C23">
-        <v>2</v>
+      <c r="B23" s="1">
+        <v>6</v>
+      </c>
+      <c r="C23" s="1">
+        <v>11</v>
       </c>
       <c r="D23" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C23,Define!A:A))</f>
-        <v>Strategy開始</v>
+        <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E23" s="1">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="F23" s="1" t="str">
         <f>INDEX(Define!E:E,MATCH(E23,Define!D:D))</f>
         <v>ADV再生</v>
       </c>
       <c r="G23" s="1">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="H23" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" spans="1:8">
-      <c r="A24" s="1">
-        <v>60</v>
-      </c>
-      <c r="B24" s="1">
-        <v>1</v>
-      </c>
-      <c r="C24" s="1">
-        <v>11</v>
+    <row r="24" customFormat="1" spans="1:8">
+      <c r="A24">
+        <v>50</v>
+      </c>
+      <c r="B24">
+        <v>7</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
       </c>
       <c r="D24" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C24,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
+        <v>Strategy開始</v>
       </c>
       <c r="E24" s="1">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="F24" s="1" t="str">
         <f>INDEX(Define!E:E,MATCH(E24,Define!D:D))</f>
         <v>ADV再生</v>
       </c>
       <c r="G24" s="1">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="H24" s="1">
         <v>1</v>
@@ -2932,14 +2935,14 @@
         <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E25" s="1">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="F25" s="1" t="str">
         <f>INDEX(Define!E:E,MATCH(E25,Define!D:D))</f>
         <v>ADV再生</v>
       </c>
       <c r="G25" s="1">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="H25" s="1">
         <v>1</v>
@@ -2960,14 +2963,14 @@
         <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E26" s="1">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="F26" s="1" t="str">
         <f>INDEX(Define!E:E,MATCH(E26,Define!D:D))</f>
         <v>ADV再生</v>
       </c>
       <c r="G26" s="1">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="H26" s="1">
         <v>1</v>
@@ -2988,14 +2991,14 @@
         <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E27" s="1">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="F27" s="1" t="str">
         <f>INDEX(Define!E:E,MATCH(E27,Define!D:D))</f>
         <v>ADV再生</v>
       </c>
       <c r="G27" s="1">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="H27" s="1">
         <v>1</v>
@@ -3016,70 +3019,70 @@
         <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E28" s="1">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="F28" s="1" t="str">
         <f>INDEX(Define!E:E,MATCH(E28,Define!D:D))</f>
         <v>ADV再生</v>
       </c>
       <c r="G28" s="1">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="H28" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="29" customFormat="1" spans="1:8">
-      <c r="A29">
+    <row r="29" s="1" customFormat="1" spans="1:8">
+      <c r="A29" s="1">
         <v>60</v>
       </c>
-      <c r="B29">
-        <v>7</v>
-      </c>
-      <c r="C29">
-        <v>2</v>
+      <c r="B29" s="1">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1">
+        <v>11</v>
       </c>
       <c r="D29" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C29,Define!A:A))</f>
-        <v>Strategy開始</v>
+        <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E29" s="1">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="F29" s="1" t="str">
         <f>INDEX(Define!E:E,MATCH(E29,Define!D:D))</f>
         <v>ADV再生</v>
       </c>
       <c r="G29" s="1">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="H29" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" spans="1:8">
-      <c r="A30" s="1">
-        <v>70</v>
-      </c>
-      <c r="B30" s="1">
-        <v>1</v>
-      </c>
-      <c r="C30" s="1">
-        <v>11</v>
+    <row r="30" customFormat="1" spans="1:8">
+      <c r="A30">
+        <v>60</v>
+      </c>
+      <c r="B30">
+        <v>7</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
       </c>
       <c r="D30" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C30,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
+        <v>Strategy開始</v>
       </c>
       <c r="E30" s="1">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="F30" s="1" t="str">
         <f>INDEX(Define!E:E,MATCH(E30,Define!D:D))</f>
         <v>ADV再生</v>
       </c>
       <c r="G30" s="1">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="H30" s="1">
         <v>1</v>
@@ -3090,7 +3093,7 @@
         <v>70</v>
       </c>
       <c r="B31" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C31" s="1">
         <v>11</v>
@@ -3100,14 +3103,14 @@
         <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E31" s="1">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="F31" s="1" t="str">
         <f>INDEX(Define!E:E,MATCH(E31,Define!D:D))</f>
         <v>ADV再生</v>
       </c>
       <c r="G31" s="1">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="H31" s="1">
         <v>1</v>
@@ -3118,7 +3121,7 @@
         <v>70</v>
       </c>
       <c r="B32" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C32" s="1">
         <v>11</v>
@@ -3128,70 +3131,70 @@
         <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E32" s="1">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="F32" s="1" t="str">
         <f>INDEX(Define!E:E,MATCH(E32,Define!D:D))</f>
         <v>ADV再生</v>
       </c>
       <c r="G32" s="1">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="H32" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="33" customFormat="1" spans="1:8">
-      <c r="A33">
+    <row r="33" s="1" customFormat="1" spans="1:8">
+      <c r="A33" s="1">
         <v>70</v>
       </c>
-      <c r="B33">
-        <v>7</v>
-      </c>
-      <c r="C33">
-        <v>2</v>
+      <c r="B33" s="1">
+        <v>6</v>
+      </c>
+      <c r="C33" s="1">
+        <v>11</v>
       </c>
       <c r="D33" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C33,Define!A:A))</f>
-        <v>Strategy開始</v>
+        <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E33" s="1">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="F33" s="1" t="str">
         <f>INDEX(Define!E:E,MATCH(E33,Define!D:D))</f>
         <v>ADV再生</v>
       </c>
       <c r="G33" s="1">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="H33" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="34" s="1" customFormat="1" spans="1:8">
-      <c r="A34" s="1">
-        <v>80</v>
-      </c>
-      <c r="B34" s="1">
-        <v>1</v>
-      </c>
-      <c r="C34" s="1">
-        <v>11</v>
+    <row r="34" customFormat="1" spans="1:8">
+      <c r="A34">
+        <v>70</v>
+      </c>
+      <c r="B34">
+        <v>7</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
       </c>
       <c r="D34" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C34,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
+        <v>Strategy開始</v>
       </c>
       <c r="E34" s="1">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="F34" s="1" t="str">
         <f>INDEX(Define!E:E,MATCH(E34,Define!D:D))</f>
         <v>ADV再生</v>
       </c>
       <c r="G34" s="1">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="H34" s="1">
         <v>1</v>
@@ -3212,14 +3215,14 @@
         <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E35" s="1">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="F35" s="1" t="str">
         <f>INDEX(Define!E:E,MATCH(E35,Define!D:D))</f>
         <v>ADV再生</v>
       </c>
       <c r="G35" s="1">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="H35" s="1">
         <v>1</v>
@@ -3240,14 +3243,14 @@
         <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E36" s="1">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="F36" s="1" t="str">
         <f>INDEX(Define!E:E,MATCH(E36,Define!D:D))</f>
         <v>ADV再生</v>
       </c>
       <c r="G36" s="1">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="H36" s="1">
         <v>1</v>
@@ -3258,7 +3261,7 @@
         <v>80</v>
       </c>
       <c r="B37" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C37" s="1">
         <v>11</v>
@@ -3268,70 +3271,70 @@
         <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E37" s="1">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="F37" s="1" t="str">
         <f>INDEX(Define!E:E,MATCH(E37,Define!D:D))</f>
         <v>ADV再生</v>
       </c>
       <c r="G37" s="1">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="H37" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="38" customFormat="1" spans="1:8">
-      <c r="A38">
+    <row r="38" s="1" customFormat="1" spans="1:8">
+      <c r="A38" s="1">
         <v>80</v>
       </c>
-      <c r="B38">
-        <v>7</v>
-      </c>
-      <c r="C38">
-        <v>2</v>
+      <c r="B38" s="1">
+        <v>4</v>
+      </c>
+      <c r="C38" s="1">
+        <v>11</v>
       </c>
       <c r="D38" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C38,Define!A:A))</f>
-        <v>Strategy開始</v>
+        <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E38" s="1">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="F38" s="1" t="str">
         <f>INDEX(Define!E:E,MATCH(E38,Define!D:D))</f>
         <v>ADV再生</v>
       </c>
       <c r="G38" s="1">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="H38" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="39" s="1" customFormat="1" spans="1:8">
-      <c r="A39" s="1">
-        <v>90</v>
-      </c>
-      <c r="B39" s="1">
-        <v>1</v>
-      </c>
-      <c r="C39" s="1">
-        <v>11</v>
+    <row r="39" customFormat="1" spans="1:8">
+      <c r="A39">
+        <v>80</v>
+      </c>
+      <c r="B39">
+        <v>7</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
       </c>
       <c r="D39" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C39,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
+        <v>Strategy開始</v>
       </c>
       <c r="E39" s="1">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="F39" s="1" t="str">
         <f>INDEX(Define!E:E,MATCH(E39,Define!D:D))</f>
         <v>ADV再生</v>
       </c>
       <c r="G39" s="1">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="H39" s="1">
         <v>1</v>
@@ -3352,14 +3355,14 @@
         <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E40" s="1">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="F40" s="1" t="str">
         <f>INDEX(Define!E:E,MATCH(E40,Define!D:D))</f>
         <v>ADV再生</v>
       </c>
       <c r="G40" s="1">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="H40" s="1">
         <v>1</v>
@@ -3380,70 +3383,70 @@
         <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E41" s="1">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="F41" s="1" t="str">
         <f>INDEX(Define!E:E,MATCH(E41,Define!D:D))</f>
         <v>ADV再生</v>
       </c>
       <c r="G41" s="1">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="H41" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="42" customFormat="1" spans="1:8">
-      <c r="A42">
+    <row r="42" s="1" customFormat="1" spans="1:8">
+      <c r="A42" s="1">
         <v>90</v>
       </c>
-      <c r="B42">
-        <v>7</v>
-      </c>
-      <c r="C42">
-        <v>2</v>
+      <c r="B42" s="1">
+        <v>1</v>
+      </c>
+      <c r="C42" s="1">
+        <v>11</v>
       </c>
       <c r="D42" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C42,Define!A:A))</f>
-        <v>Strategy開始</v>
+        <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E42" s="1">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="F42" s="1" t="str">
         <f>INDEX(Define!E:E,MATCH(E42,Define!D:D))</f>
         <v>ADV再生</v>
       </c>
       <c r="G42" s="1">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="H42" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="43" s="1" customFormat="1" spans="1:8">
-      <c r="A43" s="1">
-        <v>100</v>
-      </c>
-      <c r="B43" s="1">
-        <v>1</v>
-      </c>
-      <c r="C43" s="1">
-        <v>11</v>
+    <row r="43" customFormat="1" spans="1:8">
+      <c r="A43">
+        <v>90</v>
+      </c>
+      <c r="B43">
+        <v>7</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
       </c>
       <c r="D43" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C43,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
+        <v>Strategy開始</v>
       </c>
       <c r="E43" s="1">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="F43" s="1" t="str">
         <f>INDEX(Define!E:E,MATCH(E43,Define!D:D))</f>
         <v>ADV再生</v>
       </c>
       <c r="G43" s="1">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="H43" s="1">
         <v>1</v>
@@ -3454,7 +3457,7 @@
         <v>100</v>
       </c>
       <c r="B44" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C44" s="1">
         <v>11</v>
@@ -3464,14 +3467,14 @@
         <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E44" s="1">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="F44" s="1" t="str">
         <f>INDEX(Define!E:E,MATCH(E44,Define!D:D))</f>
         <v>ADV再生</v>
       </c>
       <c r="G44" s="1">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="H44" s="1">
         <v>1</v>
@@ -3482,7 +3485,7 @@
         <v>100</v>
       </c>
       <c r="B45" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C45" s="1">
         <v>11</v>
@@ -3492,70 +3495,70 @@
         <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E45" s="1">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="F45" s="1" t="str">
         <f>INDEX(Define!E:E,MATCH(E45,Define!D:D))</f>
         <v>ADV再生</v>
       </c>
       <c r="G45" s="1">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="H45" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="46" customFormat="1" spans="1:8">
-      <c r="A46">
-        <v>100</v>
-      </c>
-      <c r="B46">
-        <v>7</v>
-      </c>
-      <c r="C46">
-        <v>2</v>
+    <row r="46" s="1" customFormat="1" spans="1:8">
+      <c r="A46" s="1">
+        <v>100</v>
+      </c>
+      <c r="B46" s="1">
+        <v>6</v>
+      </c>
+      <c r="C46" s="1">
+        <v>11</v>
       </c>
       <c r="D46" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C46,Define!A:A))</f>
-        <v>Strategy開始</v>
+        <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E46" s="1">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="F46" s="1" t="str">
         <f>INDEX(Define!E:E,MATCH(E46,Define!D:D))</f>
         <v>ADV再生</v>
       </c>
       <c r="G46" s="1">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="H46" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="47" s="1" customFormat="1" spans="1:8">
-      <c r="A47" s="1">
-        <v>110</v>
-      </c>
-      <c r="B47" s="1">
-        <v>1</v>
-      </c>
-      <c r="C47" s="1">
-        <v>11</v>
+    <row r="47" customFormat="1" spans="1:8">
+      <c r="A47">
+        <v>100</v>
+      </c>
+      <c r="B47">
+        <v>7</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
       </c>
       <c r="D47" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C47,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
+        <v>Strategy開始</v>
       </c>
       <c r="E47" s="1">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="F47" s="1" t="str">
         <f>INDEX(Define!E:E,MATCH(E47,Define!D:D))</f>
         <v>ADV再生</v>
       </c>
       <c r="G47" s="1">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="H47" s="1">
         <v>1</v>
@@ -3576,14 +3579,14 @@
         <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E48" s="1">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="F48" s="1" t="str">
         <f>INDEX(Define!E:E,MATCH(E48,Define!D:D))</f>
         <v>ADV再生</v>
       </c>
       <c r="G48" s="1">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="H48" s="1">
         <v>1</v>
@@ -3604,14 +3607,14 @@
         <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E49" s="1">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="F49" s="1" t="str">
         <f>INDEX(Define!E:E,MATCH(E49,Define!D:D))</f>
         <v>ADV再生</v>
       </c>
       <c r="G49" s="1">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="H49" s="1">
         <v>1</v>
@@ -3632,14 +3635,14 @@
         <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E50" s="1">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="F50" s="1" t="str">
         <f>INDEX(Define!E:E,MATCH(E50,Define!D:D))</f>
         <v>ADV再生</v>
       </c>
       <c r="G50" s="1">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="H50" s="1">
         <v>1</v>
@@ -3660,14 +3663,14 @@
         <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E51" s="1">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="F51" s="1" t="str">
         <f>INDEX(Define!E:E,MATCH(E51,Define!D:D))</f>
         <v>ADV再生</v>
       </c>
       <c r="G51" s="1">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="H51" s="1">
         <v>1</v>
@@ -3678,7 +3681,7 @@
         <v>110</v>
       </c>
       <c r="B52" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C52" s="1">
         <v>11</v>
@@ -3688,14 +3691,14 @@
         <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E52" s="1">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="F52" s="1" t="str">
         <f>INDEX(Define!E:E,MATCH(E52,Define!D:D))</f>
         <v>ADV再生</v>
       </c>
       <c r="G52" s="1">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="H52" s="1">
         <v>1</v>
@@ -3706,7 +3709,7 @@
         <v>110</v>
       </c>
       <c r="B53" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C53" s="1">
         <v>11</v>
@@ -3716,70 +3719,70 @@
         <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E53" s="1">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="F53" s="1" t="str">
         <f>INDEX(Define!E:E,MATCH(E53,Define!D:D))</f>
         <v>ADV再生</v>
       </c>
       <c r="G53" s="1">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="H53" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="54" customFormat="1" spans="1:8">
-      <c r="A54">
+    <row r="54" s="1" customFormat="1" spans="1:8">
+      <c r="A54" s="1">
         <v>110</v>
       </c>
-      <c r="B54">
-        <v>7</v>
-      </c>
-      <c r="C54">
-        <v>2</v>
+      <c r="B54" s="1">
+        <v>6</v>
+      </c>
+      <c r="C54" s="1">
+        <v>11</v>
       </c>
       <c r="D54" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C54,Define!A:A))</f>
-        <v>Strategy開始</v>
+        <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E54" s="1">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="F54" s="1" t="str">
         <f>INDEX(Define!E:E,MATCH(E54,Define!D:D))</f>
         <v>ADV再生</v>
       </c>
       <c r="G54" s="1">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="H54" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="55" s="1" customFormat="1" spans="1:8">
-      <c r="A55" s="1">
-        <v>120</v>
-      </c>
-      <c r="B55" s="1">
-        <v>1</v>
-      </c>
-      <c r="C55" s="1">
-        <v>11</v>
+    <row r="55" customFormat="1" spans="1:8">
+      <c r="A55">
+        <v>110</v>
+      </c>
+      <c r="B55">
+        <v>7</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
       </c>
       <c r="D55" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C55,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
+        <v>Strategy開始</v>
       </c>
       <c r="E55" s="1">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="F55" s="1" t="str">
         <f>INDEX(Define!E:E,MATCH(E55,Define!D:D))</f>
         <v>ADV再生</v>
       </c>
       <c r="G55" s="1">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="H55" s="1">
         <v>1</v>
@@ -3800,14 +3803,14 @@
         <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E56" s="1">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="F56" s="1" t="str">
         <f>INDEX(Define!E:E,MATCH(E56,Define!D:D))</f>
         <v>ADV再生</v>
       </c>
       <c r="G56" s="1">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="H56" s="1">
         <v>1</v>
@@ -3828,14 +3831,14 @@
         <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E57" s="1">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="F57" s="1" t="str">
         <f>INDEX(Define!E:E,MATCH(E57,Define!D:D))</f>
         <v>ADV再生</v>
       </c>
       <c r="G57" s="1">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="H57" s="1">
         <v>1</v>
@@ -3846,7 +3849,7 @@
         <v>120</v>
       </c>
       <c r="B58" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C58" s="1">
         <v>11</v>
@@ -3856,14 +3859,14 @@
         <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E58" s="1">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="F58" s="1" t="str">
         <f>INDEX(Define!E:E,MATCH(E58,Define!D:D))</f>
         <v>ADV再生</v>
       </c>
       <c r="G58" s="1">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="H58" s="1">
         <v>1</v>
@@ -3874,7 +3877,7 @@
         <v>120</v>
       </c>
       <c r="B59" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C59" s="1">
         <v>11</v>
@@ -3884,182 +3887,182 @@
         <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E59" s="1">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="F59" s="1" t="str">
         <f>INDEX(Define!E:E,MATCH(E59,Define!D:D))</f>
         <v>ADV再生</v>
       </c>
       <c r="G59" s="1">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="H59" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="60" customFormat="1" spans="1:8">
-      <c r="A60">
+    <row r="60" s="1" customFormat="1" spans="1:8">
+      <c r="A60" s="1">
         <v>120</v>
       </c>
-      <c r="B60">
-        <v>7</v>
-      </c>
-      <c r="C60">
-        <v>2</v>
+      <c r="B60" s="1">
+        <v>6</v>
+      </c>
+      <c r="C60" s="1">
+        <v>11</v>
       </c>
       <c r="D60" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C60,Define!A:A))</f>
-        <v>Strategy開始</v>
+        <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E60" s="1">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="F60" s="1" t="str">
         <f>INDEX(Define!E:E,MATCH(E60,Define!D:D))</f>
         <v>ADV再生</v>
       </c>
       <c r="G60" s="1">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="H60" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="61" s="1" customFormat="1" spans="1:8">
-      <c r="A61" s="1">
-        <v>130</v>
-      </c>
-      <c r="B61" s="1">
-        <v>4</v>
-      </c>
-      <c r="C61" s="1">
-        <v>11</v>
+    <row r="61" customFormat="1" spans="1:8">
+      <c r="A61">
+        <v>120</v>
+      </c>
+      <c r="B61">
+        <v>7</v>
+      </c>
+      <c r="C61">
+        <v>2</v>
       </c>
       <c r="D61" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C61,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
+        <v>Strategy開始</v>
       </c>
       <c r="E61" s="1">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="F61" s="1" t="str">
         <f>INDEX(Define!E:E,MATCH(E61,Define!D:D))</f>
         <v>ADV再生</v>
       </c>
       <c r="G61" s="1">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="H61" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="62" customFormat="1" spans="1:8">
-      <c r="A62">
+    <row r="62" s="1" customFormat="1" spans="1:8">
+      <c r="A62" s="1">
         <v>130</v>
       </c>
-      <c r="B62">
-        <v>7</v>
-      </c>
-      <c r="C62">
-        <v>2</v>
+      <c r="B62" s="1">
+        <v>4</v>
+      </c>
+      <c r="C62" s="1">
+        <v>11</v>
       </c>
       <c r="D62" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C62,Define!A:A))</f>
-        <v>Strategy開始</v>
+        <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E62" s="1">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="F62" s="1" t="str">
         <f>INDEX(Define!E:E,MATCH(E62,Define!D:D))</f>
         <v>ADV再生</v>
       </c>
       <c r="G62" s="1">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="H62" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="63" s="1" customFormat="1" spans="1:8">
-      <c r="A63" s="1">
-        <v>140</v>
-      </c>
-      <c r="B63" s="1">
-        <v>4</v>
-      </c>
-      <c r="C63" s="1">
-        <v>11</v>
+    <row r="63" customFormat="1" spans="1:8">
+      <c r="A63">
+        <v>130</v>
+      </c>
+      <c r="B63">
+        <v>7</v>
+      </c>
+      <c r="C63">
+        <v>2</v>
       </c>
       <c r="D63" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C63,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
+        <v>Strategy開始</v>
       </c>
       <c r="E63" s="1">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="F63" s="1" t="str">
         <f>INDEX(Define!E:E,MATCH(E63,Define!D:D))</f>
         <v>ADV再生</v>
       </c>
       <c r="G63" s="1">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="H63" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="64" customFormat="1" spans="1:8">
-      <c r="A64">
+    <row r="64" s="1" customFormat="1" spans="1:8">
+      <c r="A64" s="1">
         <v>140</v>
       </c>
-      <c r="B64">
-        <v>7</v>
-      </c>
-      <c r="C64">
-        <v>2</v>
+      <c r="B64" s="1">
+        <v>4</v>
+      </c>
+      <c r="C64" s="1">
+        <v>11</v>
       </c>
       <c r="D64" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C64,Define!A:A))</f>
-        <v>Strategy開始</v>
+        <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E64" s="1">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="F64" s="1" t="str">
         <f>INDEX(Define!E:E,MATCH(E64,Define!D:D))</f>
         <v>ADV再生</v>
       </c>
       <c r="G64" s="1">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="H64" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="65" s="1" customFormat="1" spans="1:8">
-      <c r="A65" s="1">
-        <v>150</v>
-      </c>
-      <c r="B65" s="1">
-        <v>1</v>
-      </c>
-      <c r="C65" s="1">
-        <v>11</v>
+    <row r="65" customFormat="1" spans="1:8">
+      <c r="A65">
+        <v>140</v>
+      </c>
+      <c r="B65">
+        <v>7</v>
+      </c>
+      <c r="C65">
+        <v>2</v>
       </c>
       <c r="D65" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C65,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
+        <v>Strategy開始</v>
       </c>
       <c r="E65" s="1">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="F65" s="1" t="str">
         <f>INDEX(Define!E:E,MATCH(E65,Define!D:D))</f>
         <v>ADV再生</v>
       </c>
       <c r="G65" s="1">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="H65" s="1">
         <v>1</v>
@@ -4080,48 +4083,48 @@
         <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E66" s="1">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="F66" s="1" t="str">
         <f>INDEX(Define!E:E,MATCH(E66,Define!D:D))</f>
         <v>ADV再生</v>
       </c>
       <c r="G66" s="1">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="H66" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="67" customFormat="1" spans="1:8">
-      <c r="A67">
+    <row r="67" s="1" customFormat="1" spans="1:8">
+      <c r="A67" s="1">
         <v>150</v>
       </c>
-      <c r="B67">
-        <v>7</v>
-      </c>
-      <c r="C67">
-        <v>2</v>
+      <c r="B67" s="1">
+        <v>1</v>
+      </c>
+      <c r="C67" s="1">
+        <v>11</v>
       </c>
       <c r="D67" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C67,Define!A:A))</f>
-        <v>Strategy開始</v>
+        <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E67" s="1">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="F67" s="1" t="str">
         <f>INDEX(Define!E:E,MATCH(E67,Define!D:D))</f>
         <v>ADV再生</v>
       </c>
       <c r="G67" s="1">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="H67" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="68" s="1" customFormat="1" spans="1:8">
+    <row r="68" customFormat="1" spans="1:8">
       <c r="A68">
         <v>150</v>
       </c>
@@ -4136,14 +4139,14 @@
         <v>Strategy開始</v>
       </c>
       <c r="E68" s="1">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="F68" s="1" t="str">
         <f>INDEX(Define!E:E,MATCH(E68,Define!D:D))</f>
         <v>ADV再生</v>
       </c>
       <c r="G68" s="1">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="H68" s="1">
         <v>1</v>
@@ -4164,14 +4167,14 @@
         <v>Strategy開始</v>
       </c>
       <c r="E69" s="1">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="F69" s="1" t="str">
         <f>INDEX(Define!E:E,MATCH(E69,Define!D:D))</f>
         <v>ADV再生</v>
       </c>
       <c r="G69" s="1">
-        <v>680</v>
+        <v>670</v>
       </c>
       <c r="H69" s="1">
         <v>1</v>
@@ -4192,14 +4195,14 @@
         <v>Strategy開始</v>
       </c>
       <c r="E70" s="1">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="F70" s="1" t="str">
         <f>INDEX(Define!E:E,MATCH(E70,Define!D:D))</f>
         <v>ADV再生</v>
       </c>
       <c r="G70" s="1">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="H70" s="1">
         <v>1</v>
@@ -4220,14 +4223,14 @@
         <v>Strategy開始</v>
       </c>
       <c r="E71" s="1">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="F71" s="1" t="str">
         <f>INDEX(Define!E:E,MATCH(E71,Define!D:D))</f>
         <v>ADV再生</v>
       </c>
       <c r="G71" s="1">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="H71" s="1">
         <v>1</v>
@@ -4248,14 +4251,14 @@
         <v>Strategy開始</v>
       </c>
       <c r="E72" s="1">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="F72" s="1" t="str">
         <f>INDEX(Define!E:E,MATCH(E72,Define!D:D))</f>
         <v>ADV再生</v>
       </c>
       <c r="G72" s="1">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="H72" s="1">
         <v>1</v>
@@ -4276,16 +4279,44 @@
         <v>Strategy開始</v>
       </c>
       <c r="E73" s="1">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="F73" s="1" t="str">
         <f>INDEX(Define!E:E,MATCH(E73,Define!D:D))</f>
         <v>ADV再生</v>
       </c>
       <c r="G73" s="1">
+        <v>710</v>
+      </c>
+      <c r="H73" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" s="1" customFormat="1" spans="1:8">
+      <c r="A74">
+        <v>150</v>
+      </c>
+      <c r="B74">
+        <v>7</v>
+      </c>
+      <c r="C74">
+        <v>2</v>
+      </c>
+      <c r="D74" s="1" t="str">
+        <f>INDEX(Define!B:B,MATCH(C74,Define!A:A))</f>
+        <v>Strategy開始</v>
+      </c>
+      <c r="E74" s="1">
+        <v>100</v>
+      </c>
+      <c r="F74" s="1" t="str">
+        <f>INDEX(Define!E:E,MATCH(E74,Define!D:D))</f>
+        <v>ADV再生</v>
+      </c>
+      <c r="G74" s="1">
         <v>720</v>
       </c>
-      <c r="H73" s="1">
+      <c r="H74" s="1">
         <v>1</v>
       </c>
     </row>
@@ -8401,10 +8432,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -8604,7 +8635,7 @@
     </row>
     <row r="12" s="1" customFormat="1" spans="4:10">
       <c r="D12" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>118</v>
@@ -8618,7 +8649,7 @@
     </row>
     <row r="13" s="1" customFormat="1" spans="4:10">
       <c r="D13" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>120</v>
@@ -8632,7 +8663,7 @@
     </row>
     <row r="14" s="1" customFormat="1" spans="4:5">
       <c r="D14" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>122</v>
@@ -8640,7 +8671,7 @@
     </row>
     <row r="15" s="1" customFormat="1" spans="4:5">
       <c r="D15" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>123</v>
@@ -8648,7 +8679,7 @@
     </row>
     <row r="16" s="1" customFormat="1" spans="4:5">
       <c r="D16" s="1">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>124</v>
@@ -8656,7 +8687,7 @@
     </row>
     <row r="17" s="1" customFormat="1" spans="4:5">
       <c r="D17" s="1">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>125</v>
@@ -8664,7 +8695,7 @@
     </row>
     <row r="18" s="1" customFormat="1" spans="4:5">
       <c r="D18" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>126</v>
@@ -8672,7 +8703,7 @@
     </row>
     <row r="19" s="1" customFormat="1" spans="4:5">
       <c r="D19" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>127</v>
@@ -8680,7 +8711,7 @@
     </row>
     <row r="20" s="1" customFormat="1" spans="4:5">
       <c r="D20" s="1">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>128</v>
@@ -8688,7 +8719,7 @@
     </row>
     <row r="21" s="1" customFormat="1" spans="4:5">
       <c r="D21" s="1">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>129</v>
@@ -8696,7 +8727,7 @@
     </row>
     <row r="22" s="1" customFormat="1" spans="4:5">
       <c r="D22" s="1">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>130</v>
@@ -8704,7 +8735,7 @@
     </row>
     <row r="23" s="1" customFormat="1" spans="4:5">
       <c r="D23" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>131</v>
@@ -8712,7 +8743,7 @@
     </row>
     <row r="24" s="1" customFormat="1" spans="4:5">
       <c r="D24" s="1">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>132</v>
@@ -8720,10 +8751,18 @@
     </row>
     <row r="25" s="1" customFormat="1" spans="4:5">
       <c r="D25" s="1">
-        <v>201</v>
+        <v>110</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>133</v>
+      </c>
+    </row>
+    <row r="26" spans="4:5">
+      <c r="D26" s="1">
+        <v>201</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/Stages.xlsx
+++ b/Assets/Data/Stages.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="131">
   <si>
     <t>Id</t>
   </si>
@@ -491,13 +491,13 @@
     <t>Random</t>
   </si>
   <si>
-    <t>Tactics開始</t>
+    <t>Tactics開始(UI表示前)</t>
   </si>
   <si>
     <t>コマンドを制限する</t>
   </si>
   <si>
-    <t>Strategy開始</t>
+    <t>Battle勝利後</t>
   </si>
   <si>
     <t>バトルをチュートリアルで固定する</t>
@@ -506,34 +506,22 @@
     <t>Battle</t>
   </si>
   <si>
-    <t>Battle開始</t>
-  </si>
-  <si>
     <t>全員コマンドを選ばないと進まない</t>
   </si>
   <si>
     <t>Boss</t>
   </si>
   <si>
-    <t>Battleコマンド後</t>
-  </si>
-  <si>
     <t>隷従属度フラグを管理</t>
   </si>
   <si>
     <t>Event</t>
   </si>
   <si>
-    <t>神化した後</t>
-  </si>
-  <si>
     <t>アルカナフラグを管理</t>
   </si>
   <si>
     <t>Alcana</t>
-  </si>
-  <si>
-    <t>Tactics開始(UI表示前)</t>
   </si>
   <si>
     <t>仲間を選んで加入する</t>
@@ -618,8 +606,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -642,16 +630,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -664,11 +660,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -689,7 +691,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -702,39 +704,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -765,15 +736,32 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -793,67 +781,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -871,31 +799,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -913,7 +883,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -925,7 +895,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -937,19 +931,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -961,19 +961,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1020,8 +1008,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1043,10 +1031,17 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1069,18 +1064,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1092,145 +1080,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2240,8 +2228,8 @@
   <sheetPr/>
   <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="7"/>
@@ -2284,7 +2272,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="D2" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C2,Define!A:A))</f>
@@ -2312,7 +2300,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="D3" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C3,Define!A:A))</f>
@@ -2340,7 +2328,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="1">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="D4" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C4,Define!A:A))</f>
@@ -2368,7 +2356,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="D5" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C5,Define!A:A))</f>
@@ -2396,7 +2384,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="1">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="D6" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C6,Define!A:A))</f>
@@ -2424,7 +2412,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="1">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="D7" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C7,Define!A:A))</f>
@@ -2449,14 +2437,14 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>210</v>
       </c>
       <c r="D8" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C8,Define!A:A))</f>
-        <v>Strategy開始</v>
+        <v>Battle勝利後</v>
       </c>
       <c r="E8" s="1">
         <v>100</v>
@@ -2480,7 +2468,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="1">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="D9" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C9,Define!A:A))</f>
@@ -2508,7 +2496,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="1">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="D10" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C10,Define!A:A))</f>
@@ -2533,14 +2521,14 @@
         <v>20</v>
       </c>
       <c r="B11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>210</v>
       </c>
       <c r="D11" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C11,Define!A:A))</f>
-        <v>Strategy開始</v>
+        <v>Battle勝利後</v>
       </c>
       <c r="E11" s="1">
         <v>100</v>
@@ -2564,7 +2552,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="1">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="D12" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C12,Define!A:A))</f>
@@ -2592,7 +2580,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="1">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="D13" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C13,Define!A:A))</f>
@@ -2620,7 +2608,7 @@
         <v>6</v>
       </c>
       <c r="C14" s="1">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="D14" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C14,Define!A:A))</f>
@@ -2645,14 +2633,14 @@
         <v>30</v>
       </c>
       <c r="B15">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>210</v>
       </c>
       <c r="D15" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C15,Define!A:A))</f>
-        <v>Strategy開始</v>
+        <v>Battle勝利後</v>
       </c>
       <c r="E15" s="1">
         <v>100</v>
@@ -2676,7 +2664,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="1">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="D16" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C16,Define!A:A))</f>
@@ -2704,7 +2692,7 @@
         <v>3</v>
       </c>
       <c r="C17" s="1">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="D17" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C17,Define!A:A))</f>
@@ -2732,7 +2720,7 @@
         <v>5</v>
       </c>
       <c r="C18" s="1">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="D18" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C18,Define!A:A))</f>
@@ -2760,7 +2748,7 @@
         <v>6</v>
       </c>
       <c r="C19" s="1">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="D19" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C19,Define!A:A))</f>
@@ -2785,14 +2773,14 @@
         <v>40</v>
       </c>
       <c r="B20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>210</v>
       </c>
       <c r="D20" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C20,Define!A:A))</f>
-        <v>Strategy開始</v>
+        <v>Battle勝利後</v>
       </c>
       <c r="E20" s="1">
         <v>100</v>
@@ -2816,7 +2804,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="1">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="D21" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C21,Define!A:A))</f>
@@ -2844,7 +2832,7 @@
         <v>3</v>
       </c>
       <c r="C22" s="1">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="D22" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C22,Define!A:A))</f>
@@ -2872,7 +2860,7 @@
         <v>6</v>
       </c>
       <c r="C23" s="1">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="D23" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C23,Define!A:A))</f>
@@ -2897,14 +2885,14 @@
         <v>50</v>
       </c>
       <c r="B24">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>210</v>
       </c>
       <c r="D24" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C24,Define!A:A))</f>
-        <v>Strategy開始</v>
+        <v>Battle勝利後</v>
       </c>
       <c r="E24" s="1">
         <v>100</v>
@@ -2928,7 +2916,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="1">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="D25" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C25,Define!A:A))</f>
@@ -2956,7 +2944,7 @@
         <v>1</v>
       </c>
       <c r="C26" s="1">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="D26" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C26,Define!A:A))</f>
@@ -2984,7 +2972,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="1">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="D27" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C27,Define!A:A))</f>
@@ -3012,7 +3000,7 @@
         <v>1</v>
       </c>
       <c r="C28" s="1">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="D28" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C28,Define!A:A))</f>
@@ -3040,7 +3028,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="1">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="D29" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C29,Define!A:A))</f>
@@ -3065,14 +3053,14 @@
         <v>60</v>
       </c>
       <c r="B30">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C30">
-        <v>2</v>
+        <v>210</v>
       </c>
       <c r="D30" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C30,Define!A:A))</f>
-        <v>Strategy開始</v>
+        <v>Battle勝利後</v>
       </c>
       <c r="E30" s="1">
         <v>100</v>
@@ -3096,7 +3084,7 @@
         <v>1</v>
       </c>
       <c r="C31" s="1">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="D31" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C31,Define!A:A))</f>
@@ -3124,7 +3112,7 @@
         <v>3</v>
       </c>
       <c r="C32" s="1">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="D32" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C32,Define!A:A))</f>
@@ -3152,7 +3140,7 @@
         <v>6</v>
       </c>
       <c r="C33" s="1">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="D33" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C33,Define!A:A))</f>
@@ -3177,14 +3165,14 @@
         <v>70</v>
       </c>
       <c r="B34">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C34">
-        <v>2</v>
+        <v>210</v>
       </c>
       <c r="D34" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C34,Define!A:A))</f>
-        <v>Strategy開始</v>
+        <v>Battle勝利後</v>
       </c>
       <c r="E34" s="1">
         <v>100</v>
@@ -3208,7 +3196,7 @@
         <v>1</v>
       </c>
       <c r="C35" s="1">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="D35" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C35,Define!A:A))</f>
@@ -3236,7 +3224,7 @@
         <v>1</v>
       </c>
       <c r="C36" s="1">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="D36" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C36,Define!A:A))</f>
@@ -3264,7 +3252,7 @@
         <v>1</v>
       </c>
       <c r="C37" s="1">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="D37" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C37,Define!A:A))</f>
@@ -3292,7 +3280,7 @@
         <v>4</v>
       </c>
       <c r="C38" s="1">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="D38" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C38,Define!A:A))</f>
@@ -3317,14 +3305,14 @@
         <v>80</v>
       </c>
       <c r="B39">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C39">
-        <v>2</v>
+        <v>210</v>
       </c>
       <c r="D39" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C39,Define!A:A))</f>
-        <v>Strategy開始</v>
+        <v>Battle勝利後</v>
       </c>
       <c r="E39" s="1">
         <v>100</v>
@@ -3348,7 +3336,7 @@
         <v>1</v>
       </c>
       <c r="C40" s="1">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="D40" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C40,Define!A:A))</f>
@@ -3376,7 +3364,7 @@
         <v>1</v>
       </c>
       <c r="C41" s="1">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="D41" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C41,Define!A:A))</f>
@@ -3404,7 +3392,7 @@
         <v>1</v>
       </c>
       <c r="C42" s="1">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="D42" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C42,Define!A:A))</f>
@@ -3429,14 +3417,14 @@
         <v>90</v>
       </c>
       <c r="B43">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C43">
-        <v>2</v>
+        <v>210</v>
       </c>
       <c r="D43" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C43,Define!A:A))</f>
-        <v>Strategy開始</v>
+        <v>Battle勝利後</v>
       </c>
       <c r="E43" s="1">
         <v>100</v>
@@ -3460,7 +3448,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="1">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="D44" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C44,Define!A:A))</f>
@@ -3488,7 +3476,7 @@
         <v>3</v>
       </c>
       <c r="C45" s="1">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="D45" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C45,Define!A:A))</f>
@@ -3516,7 +3504,7 @@
         <v>6</v>
       </c>
       <c r="C46" s="1">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="D46" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C46,Define!A:A))</f>
@@ -3541,14 +3529,14 @@
         <v>100</v>
       </c>
       <c r="B47">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C47">
-        <v>2</v>
+        <v>210</v>
       </c>
       <c r="D47" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C47,Define!A:A))</f>
-        <v>Strategy開始</v>
+        <v>Battle勝利後</v>
       </c>
       <c r="E47" s="1">
         <v>100</v>
@@ -3572,7 +3560,7 @@
         <v>1</v>
       </c>
       <c r="C48" s="1">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="D48" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C48,Define!A:A))</f>
@@ -3600,7 +3588,7 @@
         <v>1</v>
       </c>
       <c r="C49" s="1">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="D49" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C49,Define!A:A))</f>
@@ -3628,7 +3616,7 @@
         <v>1</v>
       </c>
       <c r="C50" s="1">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="D50" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C50,Define!A:A))</f>
@@ -3656,7 +3644,7 @@
         <v>1</v>
       </c>
       <c r="C51" s="1">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="D51" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C51,Define!A:A))</f>
@@ -3684,7 +3672,7 @@
         <v>1</v>
       </c>
       <c r="C52" s="1">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="D52" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C52,Define!A:A))</f>
@@ -3712,7 +3700,7 @@
         <v>3</v>
       </c>
       <c r="C53" s="1">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="D53" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C53,Define!A:A))</f>
@@ -3740,7 +3728,7 @@
         <v>6</v>
       </c>
       <c r="C54" s="1">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="D54" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C54,Define!A:A))</f>
@@ -3765,14 +3753,14 @@
         <v>110</v>
       </c>
       <c r="B55">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C55">
-        <v>2</v>
+        <v>210</v>
       </c>
       <c r="D55" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C55,Define!A:A))</f>
-        <v>Strategy開始</v>
+        <v>Battle勝利後</v>
       </c>
       <c r="E55" s="1">
         <v>100</v>
@@ -3796,7 +3784,7 @@
         <v>1</v>
       </c>
       <c r="C56" s="1">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="D56" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C56,Define!A:A))</f>
@@ -3824,7 +3812,7 @@
         <v>1</v>
       </c>
       <c r="C57" s="1">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="D57" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C57,Define!A:A))</f>
@@ -3852,7 +3840,7 @@
         <v>1</v>
       </c>
       <c r="C58" s="1">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="D58" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C58,Define!A:A))</f>
@@ -3880,7 +3868,7 @@
         <v>3</v>
       </c>
       <c r="C59" s="1">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="D59" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C59,Define!A:A))</f>
@@ -3908,7 +3896,7 @@
         <v>6</v>
       </c>
       <c r="C60" s="1">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="D60" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C60,Define!A:A))</f>
@@ -3933,14 +3921,14 @@
         <v>120</v>
       </c>
       <c r="B61">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C61">
-        <v>2</v>
+        <v>210</v>
       </c>
       <c r="D61" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C61,Define!A:A))</f>
-        <v>Strategy開始</v>
+        <v>Battle勝利後</v>
       </c>
       <c r="E61" s="1">
         <v>100</v>
@@ -3964,7 +3952,7 @@
         <v>4</v>
       </c>
       <c r="C62" s="1">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="D62" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C62,Define!A:A))</f>
@@ -3989,14 +3977,14 @@
         <v>130</v>
       </c>
       <c r="B63">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C63">
-        <v>2</v>
+        <v>210</v>
       </c>
       <c r="D63" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C63,Define!A:A))</f>
-        <v>Strategy開始</v>
+        <v>Battle勝利後</v>
       </c>
       <c r="E63" s="1">
         <v>100</v>
@@ -4020,7 +4008,7 @@
         <v>4</v>
       </c>
       <c r="C64" s="1">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="D64" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C64,Define!A:A))</f>
@@ -4045,14 +4033,14 @@
         <v>140</v>
       </c>
       <c r="B65">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C65">
-        <v>2</v>
+        <v>210</v>
       </c>
       <c r="D65" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C65,Define!A:A))</f>
-        <v>Strategy開始</v>
+        <v>Battle勝利後</v>
       </c>
       <c r="E65" s="1">
         <v>100</v>
@@ -4076,7 +4064,7 @@
         <v>1</v>
       </c>
       <c r="C66" s="1">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="D66" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C66,Define!A:A))</f>
@@ -4104,7 +4092,7 @@
         <v>1</v>
       </c>
       <c r="C67" s="1">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="D67" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C67,Define!A:A))</f>
@@ -4129,14 +4117,14 @@
         <v>150</v>
       </c>
       <c r="B68">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C68">
-        <v>2</v>
+        <v>210</v>
       </c>
       <c r="D68" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C68,Define!A:A))</f>
-        <v>Strategy開始</v>
+        <v>Battle勝利後</v>
       </c>
       <c r="E68" s="1">
         <v>100</v>
@@ -4157,14 +4145,14 @@
         <v>150</v>
       </c>
       <c r="B69">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C69">
-        <v>2</v>
+        <v>210</v>
       </c>
       <c r="D69" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C69,Define!A:A))</f>
-        <v>Strategy開始</v>
+        <v>Battle勝利後</v>
       </c>
       <c r="E69" s="1">
         <v>100</v>
@@ -4185,14 +4173,14 @@
         <v>150</v>
       </c>
       <c r="B70">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C70">
-        <v>2</v>
+        <v>210</v>
       </c>
       <c r="D70" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C70,Define!A:A))</f>
-        <v>Strategy開始</v>
+        <v>Battle勝利後</v>
       </c>
       <c r="E70" s="1">
         <v>100</v>
@@ -4213,14 +4201,14 @@
         <v>150</v>
       </c>
       <c r="B71">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C71">
-        <v>2</v>
+        <v>210</v>
       </c>
       <c r="D71" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C71,Define!A:A))</f>
-        <v>Strategy開始</v>
+        <v>Battle勝利後</v>
       </c>
       <c r="E71" s="1">
         <v>100</v>
@@ -4241,14 +4229,14 @@
         <v>150</v>
       </c>
       <c r="B72">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C72">
-        <v>2</v>
+        <v>210</v>
       </c>
       <c r="D72" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C72,Define!A:A))</f>
-        <v>Strategy開始</v>
+        <v>Battle勝利後</v>
       </c>
       <c r="E72" s="1">
         <v>100</v>
@@ -4269,14 +4257,14 @@
         <v>150</v>
       </c>
       <c r="B73">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C73">
-        <v>2</v>
+        <v>210</v>
       </c>
       <c r="D73" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C73,Define!A:A))</f>
-        <v>Strategy開始</v>
+        <v>Battle勝利後</v>
       </c>
       <c r="E73" s="1">
         <v>100</v>
@@ -4297,14 +4285,14 @@
         <v>150</v>
       </c>
       <c r="B74">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C74">
-        <v>2</v>
+        <v>210</v>
       </c>
       <c r="D74" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C74,Define!A:A))</f>
-        <v>Strategy開始</v>
+        <v>Battle勝利後</v>
       </c>
       <c r="E74" s="1">
         <v>100</v>
@@ -8434,8 +8422,8 @@
   <sheetPr/>
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -8476,7 +8464,7 @@
     </row>
     <row r="3" s="1" customFormat="1" spans="1:9">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>95</v>
@@ -8493,7 +8481,7 @@
     </row>
     <row r="4" s="1" customFormat="1" spans="1:10">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>210</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>97</v>
@@ -8511,84 +8499,60 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:10">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>100</v>
-      </c>
+    <row r="5" s="1" customFormat="1" spans="4:10">
       <c r="D5" s="1">
         <v>3</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I5" s="1">
         <v>11</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:10">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>103</v>
-      </c>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="4:10">
       <c r="D6" s="1">
         <v>4</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I6" s="1">
         <v>20</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:10">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>106</v>
-      </c>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="4:10">
       <c r="D7" s="1">
         <v>5</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I7" s="1">
         <v>30</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="1:10">
-      <c r="A8" s="1">
-        <v>11</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>109</v>
-      </c>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="4:10">
       <c r="D8" s="1">
         <v>6</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I8" s="1">
         <v>40</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="4:10">
@@ -8596,13 +8560,13 @@
         <v>7</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="I9" s="1">
         <v>50</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="4:10">
@@ -8610,13 +8574,13 @@
         <v>8</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="I10" s="1">
         <v>60</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="4:10">
@@ -8624,13 +8588,13 @@
         <v>9</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="I11" s="1">
         <v>70</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="4:10">
@@ -8638,13 +8602,13 @@
         <v>12</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="I12" s="1">
         <v>80</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="4:10">
@@ -8652,13 +8616,13 @@
         <v>13</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="I13" s="1">
         <v>99</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="4:5">
@@ -8666,7 +8630,7 @@
         <v>14</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="4:5">
@@ -8674,7 +8638,7 @@
         <v>15</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="4:5">
@@ -8682,7 +8646,7 @@
         <v>21</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="4:5">
@@ -8690,7 +8654,7 @@
         <v>31</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="4:5">
@@ -8698,7 +8662,7 @@
         <v>32</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" spans="4:5">
@@ -8706,7 +8670,7 @@
         <v>33</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="4:5">
@@ -8714,7 +8678,7 @@
         <v>41</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" spans="4:5">
@@ -8722,7 +8686,7 @@
         <v>51</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" spans="4:5">
@@ -8730,7 +8694,7 @@
         <v>61</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="4:5">
@@ -8738,7 +8702,7 @@
         <v>62</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="4:5">
@@ -8746,7 +8710,7 @@
         <v>100</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" spans="4:5">
@@ -8754,7 +8718,7 @@
         <v>110</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="4:5">
@@ -8762,7 +8726,7 @@
         <v>201</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/Stages.xlsx
+++ b/Assets/Data/Stages.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070" tabRatio="661" firstSheet="2" activeTab="7"/>
+    <workbookView windowWidth="19200" windowHeight="7070" tabRatio="661" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Stages" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="131">
   <si>
     <t>Id</t>
   </si>
@@ -604,10 +604,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -623,6 +623,82 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -631,7 +707,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -653,13 +736,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -674,94 +759,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -781,13 +781,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -799,19 +805,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -823,49 +817,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -883,25 +847,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -913,13 +889,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -931,25 +907,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -961,7 +937,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -975,17 +975,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1001,15 +995,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1031,9 +1016,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1042,7 +1053,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1061,17 +1072,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1080,19 +1080,19 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1101,124 +1101,124 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2228,8 +2228,8 @@
   <sheetPr/>
   <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="7"/>
@@ -2381,7 +2381,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1">
         <v>110</v>
@@ -2409,7 +2409,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1">
         <v>110</v>
@@ -2437,7 +2437,7 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8">
         <v>210</v>
@@ -4317,10 +4317,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M82"/>
+  <dimension ref="A1:M81"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -4591,10 +4591,10 @@
         <v>10</v>
       </c>
       <c r="B8" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="1">
         <v>10</v>
@@ -4607,7 +4607,7 @@
         <v>100</v>
       </c>
       <c r="G8" s="1">
-        <v>1051</v>
+        <v>1042</v>
       </c>
       <c r="H8" s="1">
         <v>0</v>
@@ -4616,10 +4616,10 @@
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -4632,70 +4632,70 @@
         <v>5</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" s="1" t="str">
         <f>INDEX(Define!J:J,MATCH(D9,Define!I:I))</f>
-        <v>Battle</v>
+        <v>Boss</v>
       </c>
       <c r="F9" s="1">
         <v>100</v>
       </c>
       <c r="G9" s="1">
-        <v>1052</v>
+        <v>1101</v>
       </c>
       <c r="H9" s="1">
         <v>0</v>
       </c>
       <c r="I9" s="1">
-        <v>0</v>
+        <v>1101</v>
       </c>
       <c r="J9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B10" s="1">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="E10" s="1" t="str">
         <f>INDEX(Define!J:J,MATCH(D10,Define!I:I))</f>
-        <v>Boss</v>
+        <v>SelectActor</v>
       </c>
       <c r="F10" s="1">
         <v>100</v>
       </c>
       <c r="G10" s="1">
-        <v>1101</v>
+        <v>0</v>
       </c>
       <c r="H10" s="1">
         <v>0</v>
       </c>
       <c r="I10" s="1">
-        <v>1101</v>
+        <v>1004</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -4705,35 +4705,35 @@
         <v>20</v>
       </c>
       <c r="B11" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
       </c>
       <c r="D11" s="1">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="E11" s="1" t="str">
         <f>INDEX(Define!J:J,MATCH(D11,Define!I:I))</f>
-        <v>SelectActor</v>
+        <v>Battle</v>
       </c>
       <c r="F11" s="1">
         <v>100</v>
       </c>
       <c r="G11" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H11" s="1">
         <v>0</v>
       </c>
       <c r="I11" s="1">
-        <v>1004</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -4743,23 +4743,23 @@
         <v>20</v>
       </c>
       <c r="B12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="E12" s="1" t="str">
         <f>INDEX(Define!J:J,MATCH(D12,Define!I:I))</f>
-        <v>Battle</v>
+        <v>Random</v>
       </c>
       <c r="F12" s="1">
         <v>100</v>
       </c>
       <c r="G12" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H12" s="1">
         <v>0</v>
@@ -4771,7 +4771,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
@@ -4781,7 +4781,7 @@
         <v>20</v>
       </c>
       <c r="B13" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
@@ -4819,7 +4819,7 @@
         <v>20</v>
       </c>
       <c r="B14" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -4857,7 +4857,7 @@
         <v>20</v>
       </c>
       <c r="B15" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
@@ -4895,7 +4895,7 @@
         <v>20</v>
       </c>
       <c r="B16" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
@@ -4933,73 +4933,73 @@
         <v>20</v>
       </c>
       <c r="B17" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C17" s="1">
         <v>0</v>
       </c>
       <c r="D17" s="1">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="E17" s="1" t="str">
         <f>INDEX(Define!J:J,MATCH(D17,Define!I:I))</f>
-        <v>Random</v>
+        <v>Boss</v>
       </c>
       <c r="F17" s="1">
         <v>100</v>
       </c>
       <c r="G17" s="1">
-        <v>0</v>
+        <v>1101</v>
       </c>
       <c r="H17" s="1">
         <v>0</v>
       </c>
       <c r="I17" s="1">
-        <v>0</v>
+        <v>1101</v>
       </c>
       <c r="J17" s="1">
         <v>0</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B18" s="1">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="C18" s="1">
         <v>0</v>
       </c>
       <c r="D18" s="1">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="E18" s="1" t="str">
         <f>INDEX(Define!J:J,MATCH(D18,Define!I:I))</f>
-        <v>Boss</v>
+        <v>SelectActor</v>
       </c>
       <c r="F18" s="1">
         <v>100</v>
       </c>
       <c r="G18" s="1">
-        <v>1101</v>
+        <v>0</v>
       </c>
       <c r="H18" s="1">
         <v>0</v>
       </c>
       <c r="I18" s="1">
-        <v>1101</v>
+        <v>1006</v>
       </c>
       <c r="J18" s="1">
         <v>0</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -5009,35 +5009,35 @@
         <v>30</v>
       </c>
       <c r="B19" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C19" s="1">
         <v>0</v>
       </c>
       <c r="D19" s="1">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="E19" s="1" t="str">
         <f>INDEX(Define!J:J,MATCH(D19,Define!I:I))</f>
-        <v>SelectActor</v>
+        <v>Battle</v>
       </c>
       <c r="F19" s="1">
         <v>100</v>
       </c>
       <c r="G19" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H19" s="1">
         <v>0</v>
       </c>
       <c r="I19" s="1">
-        <v>1006</v>
+        <v>0</v>
       </c>
       <c r="J19" s="1">
         <v>0</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
@@ -5047,23 +5047,23 @@
         <v>30</v>
       </c>
       <c r="B20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" s="1">
         <v>0</v>
       </c>
       <c r="D20" s="1">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="E20" s="1" t="str">
         <f>INDEX(Define!J:J,MATCH(D20,Define!I:I))</f>
-        <v>Battle</v>
+        <v>Random</v>
       </c>
       <c r="F20" s="1">
         <v>100</v>
       </c>
       <c r="G20" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H20" s="1">
         <v>0</v>
@@ -5075,7 +5075,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
@@ -5085,7 +5085,7 @@
         <v>30</v>
       </c>
       <c r="B21" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21" s="1">
         <v>0</v>
@@ -5123,7 +5123,7 @@
         <v>30</v>
       </c>
       <c r="B22" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C22" s="1">
         <v>0</v>
@@ -5161,7 +5161,7 @@
         <v>30</v>
       </c>
       <c r="B23" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C23" s="1">
         <v>0</v>
@@ -5199,7 +5199,7 @@
         <v>30</v>
       </c>
       <c r="B24" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C24" s="1">
         <v>0</v>
@@ -5237,73 +5237,73 @@
         <v>30</v>
       </c>
       <c r="B25" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C25" s="1">
         <v>0</v>
       </c>
       <c r="D25" s="1">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="E25" s="1" t="str">
         <f>INDEX(Define!J:J,MATCH(D25,Define!I:I))</f>
-        <v>Random</v>
+        <v>Boss</v>
       </c>
       <c r="F25" s="1">
         <v>100</v>
       </c>
       <c r="G25" s="1">
-        <v>0</v>
+        <v>1101</v>
       </c>
       <c r="H25" s="1">
         <v>0</v>
       </c>
       <c r="I25" s="1">
-        <v>0</v>
+        <v>1101</v>
       </c>
       <c r="J25" s="1">
         <v>0</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="1">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B26" s="1">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="C26" s="1">
         <v>0</v>
       </c>
       <c r="D26" s="1">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="E26" s="1" t="str">
         <f>INDEX(Define!J:J,MATCH(D26,Define!I:I))</f>
-        <v>Boss</v>
+        <v>SelectActor</v>
       </c>
       <c r="F26" s="1">
         <v>100</v>
       </c>
       <c r="G26" s="1">
-        <v>1101</v>
+        <v>0</v>
       </c>
       <c r="H26" s="1">
         <v>0</v>
       </c>
       <c r="I26" s="1">
-        <v>1101</v>
+        <v>1001</v>
       </c>
       <c r="J26" s="1">
         <v>0</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
@@ -5313,35 +5313,35 @@
         <v>40</v>
       </c>
       <c r="B27" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C27" s="1">
         <v>0</v>
       </c>
       <c r="D27" s="1">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="E27" s="1" t="str">
         <f>INDEX(Define!J:J,MATCH(D27,Define!I:I))</f>
-        <v>SelectActor</v>
+        <v>Battle</v>
       </c>
       <c r="F27" s="1">
         <v>100</v>
       </c>
       <c r="G27" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H27" s="1">
         <v>0</v>
       </c>
       <c r="I27" s="1">
-        <v>1001</v>
+        <v>0</v>
       </c>
       <c r="J27" s="1">
         <v>0</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
@@ -5351,23 +5351,23 @@
         <v>40</v>
       </c>
       <c r="B28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" s="1">
         <v>0</v>
       </c>
       <c r="D28" s="1">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="E28" s="1" t="str">
         <f>INDEX(Define!J:J,MATCH(D28,Define!I:I))</f>
-        <v>Battle</v>
+        <v>Random</v>
       </c>
       <c r="F28" s="1">
         <v>100</v>
       </c>
       <c r="G28" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H28" s="1">
         <v>0</v>
@@ -5379,7 +5379,7 @@
         <v>0</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
@@ -5389,7 +5389,7 @@
         <v>40</v>
       </c>
       <c r="B29" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C29" s="1">
         <v>0</v>
@@ -5427,7 +5427,7 @@
         <v>40</v>
       </c>
       <c r="B30" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C30" s="1">
         <v>0</v>
@@ -5465,7 +5465,7 @@
         <v>40</v>
       </c>
       <c r="B31" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C31" s="1">
         <v>0</v>
@@ -5503,7 +5503,7 @@
         <v>40</v>
       </c>
       <c r="B32" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C32" s="1">
         <v>0</v>
@@ -5541,73 +5541,73 @@
         <v>40</v>
       </c>
       <c r="B33" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C33" s="1">
         <v>0</v>
       </c>
       <c r="D33" s="1">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="E33" s="1" t="str">
         <f>INDEX(Define!J:J,MATCH(D33,Define!I:I))</f>
-        <v>Random</v>
+        <v>Boss</v>
       </c>
       <c r="F33" s="1">
         <v>100</v>
       </c>
       <c r="G33" s="1">
-        <v>0</v>
+        <v>1101</v>
       </c>
       <c r="H33" s="1">
         <v>0</v>
       </c>
       <c r="I33" s="1">
-        <v>0</v>
+        <v>1101</v>
       </c>
       <c r="J33" s="1">
         <v>0</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="1">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B34" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C34" s="1">
         <v>0</v>
       </c>
       <c r="D34" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E34" s="1" t="str">
         <f>INDEX(Define!J:J,MATCH(D34,Define!I:I))</f>
-        <v>Boss</v>
+        <v>Battle</v>
       </c>
       <c r="F34" s="1">
         <v>100</v>
       </c>
       <c r="G34" s="1">
-        <v>1101</v>
+        <v>-1</v>
       </c>
       <c r="H34" s="1">
         <v>0</v>
       </c>
       <c r="I34" s="1">
-        <v>1101</v>
+        <v>0</v>
       </c>
       <c r="J34" s="1">
         <v>0</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
@@ -5617,23 +5617,23 @@
         <v>50</v>
       </c>
       <c r="B35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" s="1">
         <v>0</v>
       </c>
       <c r="D35" s="1">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="E35" s="1" t="str">
         <f>INDEX(Define!J:J,MATCH(D35,Define!I:I))</f>
-        <v>Battle</v>
+        <v>Random</v>
       </c>
       <c r="F35" s="1">
         <v>100</v>
       </c>
       <c r="G35" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H35" s="1">
         <v>0</v>
@@ -5645,9 +5645,8 @@
         <v>0</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L35" s="1"/>
+        <v>48</v>
+      </c>
       <c r="M35" s="1"/>
     </row>
     <row r="36" spans="1:13">
@@ -5655,7 +5654,7 @@
         <v>50</v>
       </c>
       <c r="B36" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C36" s="1">
         <v>0</v>
@@ -5685,6 +5684,7 @@
       <c r="K36" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="L36" s="1"/>
       <c r="M36" s="1"/>
     </row>
     <row r="37" spans="1:13">
@@ -5692,7 +5692,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C37" s="1">
         <v>0</v>
@@ -5730,7 +5730,7 @@
         <v>50</v>
       </c>
       <c r="B38" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C38" s="1">
         <v>0</v>
@@ -5768,7 +5768,7 @@
         <v>50</v>
       </c>
       <c r="B39" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C39" s="1">
         <v>0</v>
@@ -5806,73 +5806,73 @@
         <v>50</v>
       </c>
       <c r="B40" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C40" s="1">
         <v>0</v>
       </c>
       <c r="D40" s="1">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="E40" s="1" t="str">
         <f>INDEX(Define!J:J,MATCH(D40,Define!I:I))</f>
-        <v>Random</v>
+        <v>Boss</v>
       </c>
       <c r="F40" s="1">
         <v>100</v>
       </c>
       <c r="G40" s="1">
-        <v>0</v>
+        <v>1101</v>
       </c>
       <c r="H40" s="1">
         <v>0</v>
       </c>
       <c r="I40" s="1">
-        <v>0</v>
+        <v>1101</v>
       </c>
       <c r="J40" s="1">
         <v>0</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B41" s="1">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="C41" s="1">
         <v>0</v>
       </c>
       <c r="D41" s="1">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="E41" s="1" t="str">
         <f>INDEX(Define!J:J,MATCH(D41,Define!I:I))</f>
-        <v>Boss</v>
+        <v>SelectActor</v>
       </c>
       <c r="F41" s="1">
         <v>100</v>
       </c>
       <c r="G41" s="1">
-        <v>1101</v>
+        <v>0</v>
       </c>
       <c r="H41" s="1">
         <v>0</v>
       </c>
       <c r="I41" s="1">
-        <v>1101</v>
+        <v>1002</v>
       </c>
       <c r="J41" s="1">
         <v>0</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
@@ -5882,35 +5882,35 @@
         <v>60</v>
       </c>
       <c r="B42" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C42" s="1">
         <v>0</v>
       </c>
       <c r="D42" s="1">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="E42" s="1" t="str">
         <f>INDEX(Define!J:J,MATCH(D42,Define!I:I))</f>
-        <v>SelectActor</v>
+        <v>Battle</v>
       </c>
       <c r="F42" s="1">
         <v>100</v>
       </c>
       <c r="G42" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H42" s="1">
         <v>0</v>
       </c>
       <c r="I42" s="1">
-        <v>1002</v>
+        <v>0</v>
       </c>
       <c r="J42" s="1">
         <v>0</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
@@ -5920,23 +5920,23 @@
         <v>60</v>
       </c>
       <c r="B43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C43" s="1">
         <v>0</v>
       </c>
       <c r="D43" s="1">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="E43" s="1" t="str">
         <f>INDEX(Define!J:J,MATCH(D43,Define!I:I))</f>
-        <v>Battle</v>
+        <v>Random</v>
       </c>
       <c r="F43" s="1">
         <v>100</v>
       </c>
       <c r="G43" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H43" s="1">
         <v>0</v>
@@ -5948,7 +5948,7 @@
         <v>0</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
@@ -5958,7 +5958,7 @@
         <v>60</v>
       </c>
       <c r="B44" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C44" s="1">
         <v>0</v>
@@ -5996,7 +5996,7 @@
         <v>60</v>
       </c>
       <c r="B45" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C45" s="1">
         <v>0</v>
@@ -6034,7 +6034,7 @@
         <v>60</v>
       </c>
       <c r="B46" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C46" s="1">
         <v>0</v>
@@ -6072,7 +6072,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C47" s="1">
         <v>0</v>
@@ -6110,74 +6110,51 @@
         <v>60</v>
       </c>
       <c r="B48" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C48" s="1">
         <v>0</v>
       </c>
       <c r="D48" s="1">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="E48" s="1" t="str">
         <f>INDEX(Define!J:J,MATCH(D48,Define!I:I))</f>
-        <v>Random</v>
+        <v>Boss</v>
       </c>
       <c r="F48" s="1">
         <v>100</v>
       </c>
       <c r="G48" s="1">
-        <v>0</v>
+        <v>1101</v>
       </c>
       <c r="H48" s="1">
         <v>0</v>
       </c>
       <c r="I48" s="1">
-        <v>0</v>
+        <v>1101</v>
       </c>
       <c r="J48" s="1">
         <v>0</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
     </row>
     <row r="49" spans="1:13">
-      <c r="A49" s="1">
-        <v>60</v>
-      </c>
-      <c r="B49" s="1">
-        <v>6</v>
-      </c>
-      <c r="C49" s="1">
-        <v>0</v>
-      </c>
-      <c r="D49" s="1">
-        <v>11</v>
-      </c>
-      <c r="E49" s="1" t="str">
-        <f>INDEX(Define!J:J,MATCH(D49,Define!I:I))</f>
-        <v>Boss</v>
-      </c>
-      <c r="F49" s="1">
-        <v>100</v>
-      </c>
-      <c r="G49" s="1">
-        <v>1101</v>
-      </c>
-      <c r="H49" s="1">
-        <v>0</v>
-      </c>
-      <c r="I49" s="1">
-        <v>1101</v>
-      </c>
-      <c r="J49" s="1">
-        <v>0</v>
-      </c>
-      <c r="K49" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
     </row>
@@ -6295,7 +6272,6 @@
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
@@ -6310,6 +6286,7 @@
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
@@ -6540,7 +6517,7 @@
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:11">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -6552,10 +6529,8 @@
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
-      <c r="L74" s="1"/>
-      <c r="M74" s="1"/>
-    </row>
-    <row r="75" spans="1:11">
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -6567,8 +6542,10 @@
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
-    </row>
-    <row r="76" spans="1:13">
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -6580,8 +6557,6 @@
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
-      <c r="L76" s="1"/>
-      <c r="M76" s="1"/>
     </row>
     <row r="77" spans="1:11">
       <c r="A77" s="1"/>
@@ -6629,10 +6604,7 @@
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
       <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
-      <c r="J80" s="1"/>
       <c r="K80" s="1"/>
     </row>
     <row r="81" spans="1:11">
@@ -6642,21 +6614,11 @@
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
       <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
       <c r="K81" s="1"/>
-    </row>
-    <row r="82" spans="1:11">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
-      <c r="H82" s="1"/>
-      <c r="I82" s="1"/>
-      <c r="J82" s="1"/>
-      <c r="K82" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8422,7 +8384,7 @@
   <sheetPr/>
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Data/Stages.xlsx
+++ b/Assets/Data/Stages.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070" tabRatio="661" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7070" tabRatio="661" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Stages" sheetId="1" r:id="rId1"/>
@@ -604,10 +604,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -623,9 +623,37 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -640,21 +668,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -662,22 +675,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -691,8 +696,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -700,31 +706,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -745,10 +729,26 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -761,7 +761,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -781,7 +781,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -793,25 +829,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -823,43 +895,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -871,49 +907,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -925,13 +919,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -949,19 +937,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -972,15 +972,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1016,20 +1007,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1053,22 +1048,27 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1080,145 +1080,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2228,7 +2228,7 @@
   <sheetPr/>
   <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -4319,8 +4319,8 @@
   <sheetPr/>
   <dimension ref="A1:M81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -4575,13 +4575,13 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>0</v>
+        <v>1041</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -4749,17 +4749,17 @@
         <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="E12" s="1" t="str">
         <f>INDEX(Define!J:J,MATCH(D12,Define!I:I))</f>
-        <v>Random</v>
+        <v>Battle</v>
       </c>
       <c r="F12" s="1">
         <v>100</v>
       </c>
       <c r="G12" s="1">
-        <v>0</v>
+        <v>2011</v>
       </c>
       <c r="H12" s="1">
         <v>0</v>
@@ -4787,17 +4787,17 @@
         <v>0</v>
       </c>
       <c r="D13" s="1">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="E13" s="1" t="str">
         <f>INDEX(Define!J:J,MATCH(D13,Define!I:I))</f>
-        <v>Random</v>
+        <v>Battle</v>
       </c>
       <c r="F13" s="1">
         <v>100</v>
       </c>
       <c r="G13" s="1">
-        <v>0</v>
+        <v>2021</v>
       </c>
       <c r="H13" s="1">
         <v>0</v>
@@ -4825,29 +4825,29 @@
         <v>0</v>
       </c>
       <c r="D14" s="1">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="E14" s="1" t="str">
         <f>INDEX(Define!J:J,MATCH(D14,Define!I:I))</f>
-        <v>Random</v>
+        <v>Battle</v>
       </c>
       <c r="F14" s="1">
         <v>100</v>
       </c>
       <c r="G14" s="1">
-        <v>0</v>
+        <v>2031</v>
       </c>
       <c r="H14" s="1">
         <v>0</v>
       </c>
       <c r="I14" s="1">
-        <v>0</v>
+        <v>2031</v>
       </c>
       <c r="J14" s="1">
         <v>0</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -4863,11 +4863,11 @@
         <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>-1</v>
+        <v>204</v>
       </c>
       <c r="E15" s="1" t="str">
         <f>INDEX(Define!J:J,MATCH(D15,Define!I:I))</f>
-        <v>Random</v>
+        <v>Group</v>
       </c>
       <c r="F15" s="1">
         <v>100</v>
@@ -4895,17 +4895,17 @@
         <v>20</v>
       </c>
       <c r="B16" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="1">
-        <v>-1</v>
+        <v>205</v>
       </c>
       <c r="E16" s="1" t="str">
         <f>INDEX(Define!J:J,MATCH(D16,Define!I:I))</f>
-        <v>Random</v>
+        <v>Group</v>
       </c>
       <c r="F16" s="1">
         <v>100</v>
@@ -4933,7 +4933,7 @@
         <v>20</v>
       </c>
       <c r="B17" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C17" s="1">
         <v>0</v>
@@ -4949,13 +4949,13 @@
         <v>100</v>
       </c>
       <c r="G17" s="1">
-        <v>1101</v>
+        <v>2101</v>
       </c>
       <c r="H17" s="1">
         <v>0</v>
       </c>
       <c r="I17" s="1">
-        <v>1101</v>
+        <v>2101</v>
       </c>
       <c r="J17" s="1">
         <v>0</v>

--- a/Assets/Data/Stages.xlsx
+++ b/Assets/Data/Stages.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070" tabRatio="661" activeTab="2"/>
+    <workbookView windowWidth="19200" windowHeight="7070" tabRatio="661" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Stages" sheetId="1" r:id="rId1"/>
@@ -604,10 +604,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -624,7 +624,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -644,8 +667,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -659,16 +690,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -682,7 +722,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -696,43 +743,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -745,25 +760,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -781,7 +781,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -793,7 +811,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -805,31 +835,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -841,127 +955,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -976,21 +976,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1001,15 +986,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1030,16 +1006,34 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1053,11 +1047,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1080,145 +1080,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4319,7 +4319,7 @@
   <sheetPr/>
   <dimension ref="A1:M81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -7627,11 +7627,14 @@
   <sheetPr/>
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="6"/>
+  <cols>
+    <col min="2" max="2" width="11.9090909090909" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
@@ -7661,17 +7664,17 @@
         <v>201</v>
       </c>
       <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="str">
         <f>INDEX(Define!J:J,MATCH(B2,Define!I:I))</f>
-        <v>0</v>
+        <v>Battle</v>
       </c>
       <c r="D2">
         <v>50</v>
       </c>
       <c r="E2" s="1">
-        <v>2201</v>
+        <v>-1</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -7685,17 +7688,17 @@
         <v>201</v>
       </c>
       <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="str">
         <f>INDEX(Define!J:J,MATCH(B3,Define!I:I))</f>
-        <v>0</v>
+        <v>Battle</v>
       </c>
       <c r="D3">
         <v>50</v>
       </c>
       <c r="E3" s="1">
-        <v>2201</v>
+        <v>-1</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -7709,17 +7712,17 @@
         <v>201</v>
       </c>
       <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="str">
         <f>INDEX(Define!J:J,MATCH(B4,Define!I:I))</f>
-        <v>0</v>
+        <v>Battle</v>
       </c>
       <c r="D4">
         <v>50</v>
       </c>
       <c r="E4" s="1">
-        <v>2201</v>
+        <v>-1</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -7733,17 +7736,17 @@
         <v>202</v>
       </c>
       <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="str">
         <f>INDEX(Define!J:J,MATCH(B5,Define!I:I))</f>
-        <v>0</v>
+        <v>Battle</v>
       </c>
       <c r="D5">
         <v>50</v>
       </c>
       <c r="E5" s="1">
-        <v>2202</v>
+        <v>-1</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7757,17 +7760,17 @@
         <v>202</v>
       </c>
       <c r="B6" s="1">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="str">
         <f>INDEX(Define!J:J,MATCH(B6,Define!I:I))</f>
-        <v>0</v>
+        <v>Battle</v>
       </c>
       <c r="D6">
         <v>50</v>
       </c>
       <c r="E6" s="1">
-        <v>2202</v>
+        <v>-1</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7781,17 +7784,17 @@
         <v>202</v>
       </c>
       <c r="B7" s="1">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="str">
         <f>INDEX(Define!J:J,MATCH(B7,Define!I:I))</f>
-        <v>0</v>
+        <v>Battle</v>
       </c>
       <c r="D7">
         <v>50</v>
       </c>
       <c r="E7" s="1">
-        <v>2202</v>
+        <v>-1</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7805,17 +7808,17 @@
         <v>203</v>
       </c>
       <c r="B8" s="1">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1" t="str">
         <f>INDEX(Define!J:J,MATCH(B8,Define!I:I))</f>
-        <v>0</v>
+        <v>Battle</v>
       </c>
       <c r="D8">
         <v>50</v>
       </c>
       <c r="E8" s="1">
-        <v>2203</v>
+        <v>-1</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7829,17 +7832,17 @@
         <v>203</v>
       </c>
       <c r="B9" s="1">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1" t="str">
         <f>INDEX(Define!J:J,MATCH(B9,Define!I:I))</f>
-        <v>0</v>
+        <v>Battle</v>
       </c>
       <c r="D9">
         <v>50</v>
       </c>
       <c r="E9" s="1">
-        <v>2203</v>
+        <v>-1</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -7853,17 +7856,17 @@
         <v>203</v>
       </c>
       <c r="B10" s="1">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1" t="str">
         <f>INDEX(Define!J:J,MATCH(B10,Define!I:I))</f>
-        <v>0</v>
+        <v>Battle</v>
       </c>
       <c r="D10">
         <v>50</v>
       </c>
       <c r="E10" s="1">
-        <v>2203</v>
+        <v>-1</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -7877,17 +7880,17 @@
         <v>204</v>
       </c>
       <c r="B11" s="1">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1" t="str">
         <f>INDEX(Define!J:J,MATCH(B11,Define!I:I))</f>
-        <v>0</v>
+        <v>Battle</v>
       </c>
       <c r="D11">
         <v>50</v>
       </c>
       <c r="E11" s="1">
-        <v>2204</v>
+        <v>-1</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -7901,17 +7904,17 @@
         <v>204</v>
       </c>
       <c r="B12" s="1">
-        <v>1</v>
-      </c>
-      <c r="C12" s="1">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1" t="str">
         <f>INDEX(Define!J:J,MATCH(B12,Define!I:I))</f>
-        <v>0</v>
+        <v>Battle</v>
       </c>
       <c r="D12">
         <v>50</v>
       </c>
       <c r="E12" s="1">
-        <v>2204</v>
+        <v>-1</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -7925,17 +7928,17 @@
         <v>204</v>
       </c>
       <c r="B13" s="1">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1" t="str">
         <f>INDEX(Define!J:J,MATCH(B13,Define!I:I))</f>
-        <v>0</v>
+        <v>Battle</v>
       </c>
       <c r="D13">
         <v>50</v>
       </c>
       <c r="E13" s="1">
-        <v>2204</v>
+        <v>-1</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -7949,17 +7952,17 @@
         <v>205</v>
       </c>
       <c r="B14" s="1">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1" t="str">
         <f>INDEX(Define!J:J,MATCH(B14,Define!I:I))</f>
-        <v>0</v>
+        <v>Battle</v>
       </c>
       <c r="D14">
         <v>50</v>
       </c>
       <c r="E14" s="1">
-        <v>2205</v>
+        <v>-1</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -7973,17 +7976,17 @@
         <v>205</v>
       </c>
       <c r="B15" s="1">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1">
+        <v>10</v>
+      </c>
+      <c r="C15" s="1" t="str">
         <f>INDEX(Define!J:J,MATCH(B15,Define!I:I))</f>
-        <v>0</v>
+        <v>Battle</v>
       </c>
       <c r="D15">
         <v>50</v>
       </c>
       <c r="E15" s="1">
-        <v>2205</v>
+        <v>-1</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -7997,17 +8000,17 @@
         <v>205</v>
       </c>
       <c r="B16" s="1">
-        <v>1</v>
-      </c>
-      <c r="C16" s="1">
+        <v>10</v>
+      </c>
+      <c r="C16" s="1" t="str">
         <f>INDEX(Define!J:J,MATCH(B16,Define!I:I))</f>
-        <v>0</v>
+        <v>Battle</v>
       </c>
       <c r="D16">
         <v>50</v>
       </c>
       <c r="E16" s="1">
-        <v>2205</v>
+        <v>-1</v>
       </c>
       <c r="F16">
         <v>0</v>

--- a/Assets/Data/Stages.xlsx
+++ b/Assets/Data/Stages.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070" tabRatio="661" activeTab="4"/>
+    <workbookView windowWidth="19200" windowHeight="7070" tabRatio="661" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Stages" sheetId="1" r:id="rId1"/>
@@ -604,10 +604,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -624,15 +624,59 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -646,32 +690,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -690,25 +721,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -721,31 +743,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -753,7 +753,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -781,7 +781,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -793,7 +817,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -805,19 +829,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -829,19 +847,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -853,97 +865,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -961,7 +883,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -972,6 +972,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -990,6 +1005,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1001,21 +1036,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1038,15 +1058,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1061,17 +1072,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1080,145 +1080,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1560,7 +1560,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -1702,7 +1702,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>16</v>
@@ -1740,7 +1740,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>18</v>
@@ -1778,7 +1778,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>18</v>
@@ -1816,7 +1816,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
@@ -1854,7 +1854,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
@@ -4319,8 +4319,8 @@
   <sheetPr/>
   <dimension ref="A1:M81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -4537,7 +4537,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>0</v>
+        <v>1031</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
@@ -4575,7 +4575,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>1041</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
@@ -4648,7 +4648,7 @@
         <v>1101</v>
       </c>
       <c r="H9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="1">
         <v>1101</v>
@@ -6632,7 +6632,7 @@
   <dimension ref="A1:C89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
@@ -6799,7 +6799,7 @@
         <v>1</v>
       </c>
       <c r="C15">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -7627,7 +7627,7 @@
   <sheetPr/>
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Data/Stages.xlsx
+++ b/Assets/Data/Stages.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="131">
   <si>
     <t>Id</t>
   </si>
@@ -604,10 +604,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -621,6 +621,82 @@
       <sz val="10.5"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -639,29 +715,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -669,45 +722,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -728,18 +751,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -748,22 +764,6 @@
       <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -781,19 +781,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -805,37 +841,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -853,31 +859,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -889,7 +883,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -901,43 +895,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -955,13 +913,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -972,6 +972,47 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -991,50 +1032,15 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1053,22 +1059,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1080,145 +1080,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4317,10 +4317,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M81"/>
+  <dimension ref="A1:M82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -4461,7 +4461,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>0</v>
+        <v>1011</v>
       </c>
       <c r="J4" s="1">
         <v>0</v>
@@ -4498,7 +4498,7 @@
       <c r="H5" s="1">
         <v>0</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5">
         <v>1021</v>
       </c>
       <c r="J5" s="1">
@@ -4575,7 +4575,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>0</v>
+        <v>1041</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
@@ -4765,7 +4765,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>0</v>
+        <v>2011</v>
       </c>
       <c r="J12" s="1">
         <v>0</v>
@@ -4803,7 +4803,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="1">
-        <v>0</v>
+        <v>2021</v>
       </c>
       <c r="J13" s="1">
         <v>0</v>
@@ -4819,10 +4819,10 @@
         <v>20</v>
       </c>
       <c r="B14" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="1">
         <v>10</v>
@@ -4835,19 +4835,19 @@
         <v>100</v>
       </c>
       <c r="G14" s="1">
-        <v>2031</v>
+        <v>2021</v>
       </c>
       <c r="H14" s="1">
         <v>0</v>
       </c>
       <c r="I14" s="1">
-        <v>2031</v>
+        <v>2022</v>
       </c>
       <c r="J14" s="1">
         <v>0</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -4857,35 +4857,35 @@
         <v>20</v>
       </c>
       <c r="B15" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>204</v>
+        <v>10</v>
       </c>
       <c r="E15" s="1" t="str">
         <f>INDEX(Define!J:J,MATCH(D15,Define!I:I))</f>
-        <v>Group</v>
+        <v>Battle</v>
       </c>
       <c r="F15" s="1">
         <v>100</v>
       </c>
       <c r="G15" s="1">
-        <v>0</v>
+        <v>2031</v>
       </c>
       <c r="H15" s="1">
         <v>0</v>
       </c>
       <c r="I15" s="1">
-        <v>0</v>
+        <v>2031</v>
       </c>
       <c r="J15" s="1">
         <v>0</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -4898,10 +4898,10 @@
         <v>4</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="1">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E16" s="1" t="str">
         <f>INDEX(Define!J:J,MATCH(D16,Define!I:I))</f>
@@ -4933,73 +4933,73 @@
         <v>20</v>
       </c>
       <c r="B17" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="1">
-        <v>11</v>
+        <v>205</v>
       </c>
       <c r="E17" s="1" t="str">
         <f>INDEX(Define!J:J,MATCH(D17,Define!I:I))</f>
-        <v>Boss</v>
+        <v>Group</v>
       </c>
       <c r="F17" s="1">
         <v>100</v>
       </c>
       <c r="G17" s="1">
-        <v>2101</v>
+        <v>0</v>
       </c>
       <c r="H17" s="1">
         <v>0</v>
       </c>
       <c r="I17" s="1">
-        <v>2101</v>
+        <v>0</v>
       </c>
       <c r="J17" s="1">
         <v>0</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B18" s="1">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C18" s="1">
         <v>0</v>
       </c>
       <c r="D18" s="1">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="E18" s="1" t="str">
         <f>INDEX(Define!J:J,MATCH(D18,Define!I:I))</f>
-        <v>SelectActor</v>
+        <v>Boss</v>
       </c>
       <c r="F18" s="1">
         <v>100</v>
       </c>
       <c r="G18" s="1">
-        <v>0</v>
+        <v>2101</v>
       </c>
       <c r="H18" s="1">
         <v>0</v>
       </c>
       <c r="I18" s="1">
-        <v>1006</v>
+        <v>2101</v>
       </c>
       <c r="J18" s="1">
         <v>0</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -5009,35 +5009,35 @@
         <v>30</v>
       </c>
       <c r="B19" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C19" s="1">
         <v>0</v>
       </c>
       <c r="D19" s="1">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="E19" s="1" t="str">
         <f>INDEX(Define!J:J,MATCH(D19,Define!I:I))</f>
-        <v>Battle</v>
+        <v>SelectActor</v>
       </c>
       <c r="F19" s="1">
         <v>100</v>
       </c>
       <c r="G19" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H19" s="1">
         <v>0</v>
       </c>
       <c r="I19" s="1">
-        <v>0</v>
+        <v>1006</v>
       </c>
       <c r="J19" s="1">
         <v>0</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
@@ -5047,23 +5047,23 @@
         <v>30</v>
       </c>
       <c r="B20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" s="1">
         <v>0</v>
       </c>
       <c r="D20" s="1">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="E20" s="1" t="str">
         <f>INDEX(Define!J:J,MATCH(D20,Define!I:I))</f>
-        <v>Random</v>
+        <v>Battle</v>
       </c>
       <c r="F20" s="1">
         <v>100</v>
       </c>
       <c r="G20" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H20" s="1">
         <v>0</v>
@@ -5075,7 +5075,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
@@ -5085,7 +5085,7 @@
         <v>30</v>
       </c>
       <c r="B21" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C21" s="1">
         <v>0</v>
@@ -5123,7 +5123,7 @@
         <v>30</v>
       </c>
       <c r="B22" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C22" s="1">
         <v>0</v>
@@ -5161,7 +5161,7 @@
         <v>30</v>
       </c>
       <c r="B23" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C23" s="1">
         <v>0</v>
@@ -5199,7 +5199,7 @@
         <v>30</v>
       </c>
       <c r="B24" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C24" s="1">
         <v>0</v>
@@ -5237,73 +5237,73 @@
         <v>30</v>
       </c>
       <c r="B25" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C25" s="1">
         <v>0</v>
       </c>
       <c r="D25" s="1">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="E25" s="1" t="str">
         <f>INDEX(Define!J:J,MATCH(D25,Define!I:I))</f>
-        <v>Boss</v>
+        <v>Random</v>
       </c>
       <c r="F25" s="1">
         <v>100</v>
       </c>
       <c r="G25" s="1">
-        <v>1101</v>
+        <v>0</v>
       </c>
       <c r="H25" s="1">
         <v>0</v>
       </c>
       <c r="I25" s="1">
-        <v>1101</v>
+        <v>0</v>
       </c>
       <c r="J25" s="1">
         <v>0</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="1">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B26" s="1">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C26" s="1">
         <v>0</v>
       </c>
       <c r="D26" s="1">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="E26" s="1" t="str">
         <f>INDEX(Define!J:J,MATCH(D26,Define!I:I))</f>
-        <v>SelectActor</v>
+        <v>Boss</v>
       </c>
       <c r="F26" s="1">
         <v>100</v>
       </c>
       <c r="G26" s="1">
-        <v>0</v>
+        <v>1101</v>
       </c>
       <c r="H26" s="1">
         <v>0</v>
       </c>
       <c r="I26" s="1">
-        <v>1001</v>
+        <v>1101</v>
       </c>
       <c r="J26" s="1">
         <v>0</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
@@ -5313,35 +5313,35 @@
         <v>40</v>
       </c>
       <c r="B27" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C27" s="1">
         <v>0</v>
       </c>
       <c r="D27" s="1">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="E27" s="1" t="str">
         <f>INDEX(Define!J:J,MATCH(D27,Define!I:I))</f>
-        <v>Battle</v>
+        <v>SelectActor</v>
       </c>
       <c r="F27" s="1">
         <v>100</v>
       </c>
       <c r="G27" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H27" s="1">
         <v>0</v>
       </c>
       <c r="I27" s="1">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="J27" s="1">
         <v>0</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
@@ -5351,23 +5351,23 @@
         <v>40</v>
       </c>
       <c r="B28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" s="1">
         <v>0</v>
       </c>
       <c r="D28" s="1">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="E28" s="1" t="str">
         <f>INDEX(Define!J:J,MATCH(D28,Define!I:I))</f>
-        <v>Random</v>
+        <v>Battle</v>
       </c>
       <c r="F28" s="1">
         <v>100</v>
       </c>
       <c r="G28" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H28" s="1">
         <v>0</v>
@@ -5379,7 +5379,7 @@
         <v>0</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
@@ -5389,7 +5389,7 @@
         <v>40</v>
       </c>
       <c r="B29" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C29" s="1">
         <v>0</v>
@@ -5427,7 +5427,7 @@
         <v>40</v>
       </c>
       <c r="B30" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C30" s="1">
         <v>0</v>
@@ -5465,7 +5465,7 @@
         <v>40</v>
       </c>
       <c r="B31" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C31" s="1">
         <v>0</v>
@@ -5503,7 +5503,7 @@
         <v>40</v>
       </c>
       <c r="B32" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C32" s="1">
         <v>0</v>
@@ -5541,73 +5541,73 @@
         <v>40</v>
       </c>
       <c r="B33" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C33" s="1">
         <v>0</v>
       </c>
       <c r="D33" s="1">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="E33" s="1" t="str">
         <f>INDEX(Define!J:J,MATCH(D33,Define!I:I))</f>
-        <v>Boss</v>
+        <v>Random</v>
       </c>
       <c r="F33" s="1">
         <v>100</v>
       </c>
       <c r="G33" s="1">
-        <v>1101</v>
+        <v>0</v>
       </c>
       <c r="H33" s="1">
         <v>0</v>
       </c>
       <c r="I33" s="1">
-        <v>1101</v>
+        <v>0</v>
       </c>
       <c r="J33" s="1">
         <v>0</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="1">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B34" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C34" s="1">
         <v>0</v>
       </c>
       <c r="D34" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" s="1" t="str">
         <f>INDEX(Define!J:J,MATCH(D34,Define!I:I))</f>
-        <v>Battle</v>
+        <v>Boss</v>
       </c>
       <c r="F34" s="1">
         <v>100</v>
       </c>
       <c r="G34" s="1">
-        <v>-1</v>
+        <v>1101</v>
       </c>
       <c r="H34" s="1">
         <v>0</v>
       </c>
       <c r="I34" s="1">
-        <v>0</v>
+        <v>1101</v>
       </c>
       <c r="J34" s="1">
         <v>0</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
@@ -5617,23 +5617,23 @@
         <v>50</v>
       </c>
       <c r="B35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35" s="1">
         <v>0</v>
       </c>
       <c r="D35" s="1">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="E35" s="1" t="str">
         <f>INDEX(Define!J:J,MATCH(D35,Define!I:I))</f>
-        <v>Random</v>
+        <v>Battle</v>
       </c>
       <c r="F35" s="1">
         <v>100</v>
       </c>
       <c r="G35" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H35" s="1">
         <v>0</v>
@@ -5645,8 +5645,9 @@
         <v>0</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>48</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="L35" s="1"/>
       <c r="M35" s="1"/>
     </row>
     <row r="36" spans="1:13">
@@ -5654,7 +5655,7 @@
         <v>50</v>
       </c>
       <c r="B36" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C36" s="1">
         <v>0</v>
@@ -5684,7 +5685,6 @@
       <c r="K36" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="L36" s="1"/>
       <c r="M36" s="1"/>
     </row>
     <row r="37" spans="1:13">
@@ -5692,7 +5692,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C37" s="1">
         <v>0</v>
@@ -5730,7 +5730,7 @@
         <v>50</v>
       </c>
       <c r="B38" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C38" s="1">
         <v>0</v>
@@ -5768,7 +5768,7 @@
         <v>50</v>
       </c>
       <c r="B39" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C39" s="1">
         <v>0</v>
@@ -5806,73 +5806,73 @@
         <v>50</v>
       </c>
       <c r="B40" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C40" s="1">
         <v>0</v>
       </c>
       <c r="D40" s="1">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="E40" s="1" t="str">
         <f>INDEX(Define!J:J,MATCH(D40,Define!I:I))</f>
-        <v>Boss</v>
+        <v>Random</v>
       </c>
       <c r="F40" s="1">
         <v>100</v>
       </c>
       <c r="G40" s="1">
-        <v>1101</v>
+        <v>0</v>
       </c>
       <c r="H40" s="1">
         <v>0</v>
       </c>
       <c r="I40" s="1">
-        <v>1101</v>
+        <v>0</v>
       </c>
       <c r="J40" s="1">
         <v>0</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="1">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B41" s="1">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C41" s="1">
         <v>0</v>
       </c>
       <c r="D41" s="1">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="E41" s="1" t="str">
         <f>INDEX(Define!J:J,MATCH(D41,Define!I:I))</f>
-        <v>SelectActor</v>
+        <v>Boss</v>
       </c>
       <c r="F41" s="1">
         <v>100</v>
       </c>
       <c r="G41" s="1">
-        <v>0</v>
+        <v>1101</v>
       </c>
       <c r="H41" s="1">
         <v>0</v>
       </c>
       <c r="I41" s="1">
-        <v>1002</v>
+        <v>1101</v>
       </c>
       <c r="J41" s="1">
         <v>0</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
@@ -5882,35 +5882,35 @@
         <v>60</v>
       </c>
       <c r="B42" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C42" s="1">
         <v>0</v>
       </c>
       <c r="D42" s="1">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="E42" s="1" t="str">
         <f>INDEX(Define!J:J,MATCH(D42,Define!I:I))</f>
-        <v>Battle</v>
+        <v>SelectActor</v>
       </c>
       <c r="F42" s="1">
         <v>100</v>
       </c>
       <c r="G42" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H42" s="1">
         <v>0</v>
       </c>
       <c r="I42" s="1">
-        <v>0</v>
+        <v>1002</v>
       </c>
       <c r="J42" s="1">
         <v>0</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
@@ -5920,23 +5920,23 @@
         <v>60</v>
       </c>
       <c r="B43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43" s="1">
         <v>0</v>
       </c>
       <c r="D43" s="1">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="E43" s="1" t="str">
         <f>INDEX(Define!J:J,MATCH(D43,Define!I:I))</f>
-        <v>Random</v>
+        <v>Battle</v>
       </c>
       <c r="F43" s="1">
         <v>100</v>
       </c>
       <c r="G43" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H43" s="1">
         <v>0</v>
@@ -5948,7 +5948,7 @@
         <v>0</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
@@ -5958,7 +5958,7 @@
         <v>60</v>
       </c>
       <c r="B44" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C44" s="1">
         <v>0</v>
@@ -5996,7 +5996,7 @@
         <v>60</v>
       </c>
       <c r="B45" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C45" s="1">
         <v>0</v>
@@ -6034,7 +6034,7 @@
         <v>60</v>
       </c>
       <c r="B46" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C46" s="1">
         <v>0</v>
@@ -6072,7 +6072,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C47" s="1">
         <v>0</v>
@@ -6110,51 +6110,74 @@
         <v>60</v>
       </c>
       <c r="B48" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C48" s="1">
         <v>0</v>
       </c>
       <c r="D48" s="1">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="E48" s="1" t="str">
         <f>INDEX(Define!J:J,MATCH(D48,Define!I:I))</f>
-        <v>Boss</v>
+        <v>Random</v>
       </c>
       <c r="F48" s="1">
         <v>100</v>
       </c>
       <c r="G48" s="1">
-        <v>1101</v>
+        <v>0</v>
       </c>
       <c r="H48" s="1">
         <v>0</v>
       </c>
       <c r="I48" s="1">
-        <v>1101</v>
+        <v>0</v>
       </c>
       <c r="J48" s="1">
         <v>0</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
     </row>
     <row r="49" spans="1:13">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
+      <c r="A49" s="1">
+        <v>60</v>
+      </c>
+      <c r="B49" s="1">
+        <v>6</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0</v>
+      </c>
+      <c r="D49" s="1">
+        <v>11</v>
+      </c>
+      <c r="E49" s="1" t="str">
+        <f>INDEX(Define!J:J,MATCH(D49,Define!I:I))</f>
+        <v>Boss</v>
+      </c>
+      <c r="F49" s="1">
+        <v>100</v>
+      </c>
+      <c r="G49" s="1">
+        <v>1101</v>
+      </c>
+      <c r="H49" s="1">
+        <v>0</v>
+      </c>
+      <c r="I49" s="1">
+        <v>1101</v>
+      </c>
+      <c r="J49" s="1">
+        <v>0</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
     </row>
@@ -6272,6 +6295,7 @@
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
@@ -6286,7 +6310,6 @@
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
@@ -6517,7 +6540,7 @@
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:13">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -6529,8 +6552,10 @@
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
-    </row>
-    <row r="75" spans="1:13">
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -6542,10 +6567,8 @@
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
-      <c r="L75" s="1"/>
-      <c r="M75" s="1"/>
-    </row>
-    <row r="76" spans="1:11">
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -6557,6 +6580,8 @@
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
     </row>
     <row r="77" spans="1:11">
       <c r="A77" s="1"/>
@@ -6604,7 +6629,10 @@
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
       <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
       <c r="K80" s="1"/>
     </row>
     <row r="81" spans="1:11">
@@ -6614,11 +6642,21 @@
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
       <c r="H81" s="1"/>
-      <c r="I81" s="1"/>
-      <c r="J81" s="1"/>
       <c r="K81" s="1"/>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Assets/Data/Stages.xlsx
+++ b/Assets/Data/Stages.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\hibikake_unity\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF950F6-96C4-4231-AAB5-756ADB3C2205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FEDCAB9-EB59-46BF-A050-19255C09FAD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="490" windowWidth="19420" windowHeight="11620" tabRatio="661" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="490" windowWidth="19420" windowHeight="11620" tabRatio="661" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stages" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="137">
   <si>
     <t>Id</t>
   </si>
@@ -638,6 +638,10 @@
   </si>
   <si>
     <t>Basement</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>None</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -1860,10 +1864,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H74"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1898,2050 +1902,6 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>10</v>
-      </c>
-      <c r="B2">
-        <v>10</v>
-      </c>
-      <c r="C2">
-        <v>110</v>
-      </c>
-      <c r="D2" t="str">
-        <f>INDEX(Define!B:B,MATCH(C2,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
-      </c>
-      <c r="E2">
-        <v>100</v>
-      </c>
-      <c r="F2" t="str">
-        <f>INDEX(Define!E:E,MATCH(E2,Define!D:D))</f>
-        <v>ADV再生</v>
-      </c>
-      <c r="G2">
-        <v>10</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>10</v>
-      </c>
-      <c r="B3">
-        <v>10</v>
-      </c>
-      <c r="C3">
-        <v>110</v>
-      </c>
-      <c r="D3" t="str">
-        <f>INDEX(Define!B:B,MATCH(C3,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
-      </c>
-      <c r="E3">
-        <v>100</v>
-      </c>
-      <c r="F3" t="str">
-        <f>INDEX(Define!E:E,MATCH(E3,Define!D:D))</f>
-        <v>ADV再生</v>
-      </c>
-      <c r="G3">
-        <v>20</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>10</v>
-      </c>
-      <c r="B4">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>110</v>
-      </c>
-      <c r="D4" t="str">
-        <f>INDEX(Define!B:B,MATCH(C4,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
-      </c>
-      <c r="E4">
-        <v>110</v>
-      </c>
-      <c r="F4" t="str">
-        <f>INDEX(Define!E:E,MATCH(E4,Define!D:D))</f>
-        <v>今のステージシンボルの〇SeekIndexのバトルを開始</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>10</v>
-      </c>
-      <c r="B5">
-        <v>20</v>
-      </c>
-      <c r="C5">
-        <v>110</v>
-      </c>
-      <c r="D5" t="str">
-        <f>INDEX(Define!B:B,MATCH(C5,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
-      </c>
-      <c r="E5">
-        <v>100</v>
-      </c>
-      <c r="F5" t="str">
-        <f>INDEX(Define!E:E,MATCH(E5,Define!D:D))</f>
-        <v>ADV再生</v>
-      </c>
-      <c r="G5">
-        <v>30</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>30</v>
-      </c>
-      <c r="C6">
-        <v>110</v>
-      </c>
-      <c r="D6" t="str">
-        <f>INDEX(Define!B:B,MATCH(C6,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
-      </c>
-      <c r="E6">
-        <v>100</v>
-      </c>
-      <c r="F6" t="str">
-        <f>INDEX(Define!E:E,MATCH(E6,Define!D:D))</f>
-        <v>ADV再生</v>
-      </c>
-      <c r="G6">
-        <v>40</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>50</v>
-      </c>
-      <c r="C7">
-        <v>110</v>
-      </c>
-      <c r="D7" t="str">
-        <f>INDEX(Define!B:B,MATCH(C7,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
-      </c>
-      <c r="E7">
-        <v>100</v>
-      </c>
-      <c r="F7" t="str">
-        <f>INDEX(Define!E:E,MATCH(E7,Define!D:D))</f>
-        <v>ADV再生</v>
-      </c>
-      <c r="G7">
-        <v>50</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>50</v>
-      </c>
-      <c r="C8">
-        <v>210</v>
-      </c>
-      <c r="D8" t="str">
-        <f>INDEX(Define!B:B,MATCH(C8,Define!A:A))</f>
-        <v>Battle勝利後</v>
-      </c>
-      <c r="E8">
-        <v>100</v>
-      </c>
-      <c r="F8" t="str">
-        <f>INDEX(Define!E:E,MATCH(E8,Define!D:D))</f>
-        <v>ADV再生</v>
-      </c>
-      <c r="G8">
-        <v>60</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>20</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>110</v>
-      </c>
-      <c r="D9" t="str">
-        <f>INDEX(Define!B:B,MATCH(C9,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
-      </c>
-      <c r="E9">
-        <v>100</v>
-      </c>
-      <c r="F9" t="str">
-        <f>INDEX(Define!E:E,MATCH(E9,Define!D:D))</f>
-        <v>ADV再生</v>
-      </c>
-      <c r="G9">
-        <v>70</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>20</v>
-      </c>
-      <c r="B10">
-        <v>4</v>
-      </c>
-      <c r="C10">
-        <v>110</v>
-      </c>
-      <c r="D10" t="str">
-        <f>INDEX(Define!B:B,MATCH(C10,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
-      </c>
-      <c r="E10">
-        <v>100</v>
-      </c>
-      <c r="F10" t="str">
-        <f>INDEX(Define!E:E,MATCH(E10,Define!D:D))</f>
-        <v>ADV再生</v>
-      </c>
-      <c r="G10">
-        <v>80</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>20</v>
-      </c>
-      <c r="B11">
-        <v>6</v>
-      </c>
-      <c r="C11">
-        <v>210</v>
-      </c>
-      <c r="D11" t="str">
-        <f>INDEX(Define!B:B,MATCH(C11,Define!A:A))</f>
-        <v>Battle勝利後</v>
-      </c>
-      <c r="E11">
-        <v>100</v>
-      </c>
-      <c r="F11" t="str">
-        <f>INDEX(Define!E:E,MATCH(E11,Define!D:D))</f>
-        <v>ADV再生</v>
-      </c>
-      <c r="G11">
-        <v>90</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>30</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>110</v>
-      </c>
-      <c r="D12" t="str">
-        <f>INDEX(Define!B:B,MATCH(C12,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
-      </c>
-      <c r="E12">
-        <v>100</v>
-      </c>
-      <c r="F12" t="str">
-        <f>INDEX(Define!E:E,MATCH(E12,Define!D:D))</f>
-        <v>ADV再生</v>
-      </c>
-      <c r="G12">
-        <v>100</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>30</v>
-      </c>
-      <c r="B13">
-        <v>3</v>
-      </c>
-      <c r="C13">
-        <v>110</v>
-      </c>
-      <c r="D13" t="str">
-        <f>INDEX(Define!B:B,MATCH(C13,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
-      </c>
-      <c r="E13">
-        <v>100</v>
-      </c>
-      <c r="F13" t="str">
-        <f>INDEX(Define!E:E,MATCH(E13,Define!D:D))</f>
-        <v>ADV再生</v>
-      </c>
-      <c r="G13">
-        <v>110</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>30</v>
-      </c>
-      <c r="B14">
-        <v>6</v>
-      </c>
-      <c r="C14">
-        <v>110</v>
-      </c>
-      <c r="D14" t="str">
-        <f>INDEX(Define!B:B,MATCH(C14,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
-      </c>
-      <c r="E14">
-        <v>100</v>
-      </c>
-      <c r="F14" t="str">
-        <f>INDEX(Define!E:E,MATCH(E14,Define!D:D))</f>
-        <v>ADV再生</v>
-      </c>
-      <c r="G14">
-        <v>120</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>30</v>
-      </c>
-      <c r="B15">
-        <v>6</v>
-      </c>
-      <c r="C15">
-        <v>210</v>
-      </c>
-      <c r="D15" t="str">
-        <f>INDEX(Define!B:B,MATCH(C15,Define!A:A))</f>
-        <v>Battle勝利後</v>
-      </c>
-      <c r="E15">
-        <v>100</v>
-      </c>
-      <c r="F15" t="str">
-        <f>INDEX(Define!E:E,MATCH(E15,Define!D:D))</f>
-        <v>ADV再生</v>
-      </c>
-      <c r="G15">
-        <v>130</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>40</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>110</v>
-      </c>
-      <c r="D16" t="str">
-        <f>INDEX(Define!B:B,MATCH(C16,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
-      </c>
-      <c r="E16">
-        <v>100</v>
-      </c>
-      <c r="F16" t="str">
-        <f>INDEX(Define!E:E,MATCH(E16,Define!D:D))</f>
-        <v>ADV再生</v>
-      </c>
-      <c r="G16">
-        <v>140</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>40</v>
-      </c>
-      <c r="B17">
-        <v>3</v>
-      </c>
-      <c r="C17">
-        <v>110</v>
-      </c>
-      <c r="D17" t="str">
-        <f>INDEX(Define!B:B,MATCH(C17,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
-      </c>
-      <c r="E17">
-        <v>100</v>
-      </c>
-      <c r="F17" t="str">
-        <f>INDEX(Define!E:E,MATCH(E17,Define!D:D))</f>
-        <v>ADV再生</v>
-      </c>
-      <c r="G17">
-        <v>150</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>40</v>
-      </c>
-      <c r="B18">
-        <v>5</v>
-      </c>
-      <c r="C18">
-        <v>110</v>
-      </c>
-      <c r="D18" t="str">
-        <f>INDEX(Define!B:B,MATCH(C18,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
-      </c>
-      <c r="E18">
-        <v>100</v>
-      </c>
-      <c r="F18" t="str">
-        <f>INDEX(Define!E:E,MATCH(E18,Define!D:D))</f>
-        <v>ADV再生</v>
-      </c>
-      <c r="G18">
-        <v>160</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>40</v>
-      </c>
-      <c r="B19">
-        <v>6</v>
-      </c>
-      <c r="C19">
-        <v>110</v>
-      </c>
-      <c r="D19" t="str">
-        <f>INDEX(Define!B:B,MATCH(C19,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
-      </c>
-      <c r="E19">
-        <v>100</v>
-      </c>
-      <c r="F19" t="str">
-        <f>INDEX(Define!E:E,MATCH(E19,Define!D:D))</f>
-        <v>ADV再生</v>
-      </c>
-      <c r="G19">
-        <v>170</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>40</v>
-      </c>
-      <c r="B20">
-        <v>6</v>
-      </c>
-      <c r="C20">
-        <v>210</v>
-      </c>
-      <c r="D20" t="str">
-        <f>INDEX(Define!B:B,MATCH(C20,Define!A:A))</f>
-        <v>Battle勝利後</v>
-      </c>
-      <c r="E20">
-        <v>100</v>
-      </c>
-      <c r="F20" t="str">
-        <f>INDEX(Define!E:E,MATCH(E20,Define!D:D))</f>
-        <v>ADV再生</v>
-      </c>
-      <c r="G20">
-        <v>180</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>50</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>110</v>
-      </c>
-      <c r="D21" t="str">
-        <f>INDEX(Define!B:B,MATCH(C21,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
-      </c>
-      <c r="E21">
-        <v>100</v>
-      </c>
-      <c r="F21" t="str">
-        <f>INDEX(Define!E:E,MATCH(E21,Define!D:D))</f>
-        <v>ADV再生</v>
-      </c>
-      <c r="G21">
-        <v>190</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>50</v>
-      </c>
-      <c r="B22">
-        <v>3</v>
-      </c>
-      <c r="C22">
-        <v>110</v>
-      </c>
-      <c r="D22" t="str">
-        <f>INDEX(Define!B:B,MATCH(C22,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
-      </c>
-      <c r="E22">
-        <v>100</v>
-      </c>
-      <c r="F22" t="str">
-        <f>INDEX(Define!E:E,MATCH(E22,Define!D:D))</f>
-        <v>ADV再生</v>
-      </c>
-      <c r="G22">
-        <v>200</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>50</v>
-      </c>
-      <c r="B23">
-        <v>6</v>
-      </c>
-      <c r="C23">
-        <v>110</v>
-      </c>
-      <c r="D23" t="str">
-        <f>INDEX(Define!B:B,MATCH(C23,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
-      </c>
-      <c r="E23">
-        <v>100</v>
-      </c>
-      <c r="F23" t="str">
-        <f>INDEX(Define!E:E,MATCH(E23,Define!D:D))</f>
-        <v>ADV再生</v>
-      </c>
-      <c r="G23">
-        <v>210</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>50</v>
-      </c>
-      <c r="B24">
-        <v>6</v>
-      </c>
-      <c r="C24">
-        <v>210</v>
-      </c>
-      <c r="D24" t="str">
-        <f>INDEX(Define!B:B,MATCH(C24,Define!A:A))</f>
-        <v>Battle勝利後</v>
-      </c>
-      <c r="E24">
-        <v>100</v>
-      </c>
-      <c r="F24" t="str">
-        <f>INDEX(Define!E:E,MATCH(E24,Define!D:D))</f>
-        <v>ADV再生</v>
-      </c>
-      <c r="G24">
-        <v>220</v>
-      </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>60</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25">
-        <v>110</v>
-      </c>
-      <c r="D25" t="str">
-        <f>INDEX(Define!B:B,MATCH(C25,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
-      </c>
-      <c r="E25">
-        <v>100</v>
-      </c>
-      <c r="F25" t="str">
-        <f>INDEX(Define!E:E,MATCH(E25,Define!D:D))</f>
-        <v>ADV再生</v>
-      </c>
-      <c r="G25">
-        <v>230</v>
-      </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>60</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26">
-        <v>110</v>
-      </c>
-      <c r="D26" t="str">
-        <f>INDEX(Define!B:B,MATCH(C26,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
-      </c>
-      <c r="E26">
-        <v>100</v>
-      </c>
-      <c r="F26" t="str">
-        <f>INDEX(Define!E:E,MATCH(E26,Define!D:D))</f>
-        <v>ADV再生</v>
-      </c>
-      <c r="G26">
-        <v>240</v>
-      </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>60</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27">
-        <v>110</v>
-      </c>
-      <c r="D27" t="str">
-        <f>INDEX(Define!B:B,MATCH(C27,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
-      </c>
-      <c r="E27">
-        <v>100</v>
-      </c>
-      <c r="F27" t="str">
-        <f>INDEX(Define!E:E,MATCH(E27,Define!D:D))</f>
-        <v>ADV再生</v>
-      </c>
-      <c r="G27">
-        <v>250</v>
-      </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>60</v>
-      </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28">
-        <v>110</v>
-      </c>
-      <c r="D28" t="str">
-        <f>INDEX(Define!B:B,MATCH(C28,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
-      </c>
-      <c r="E28">
-        <v>100</v>
-      </c>
-      <c r="F28" t="str">
-        <f>INDEX(Define!E:E,MATCH(E28,Define!D:D))</f>
-        <v>ADV再生</v>
-      </c>
-      <c r="G28">
-        <v>260</v>
-      </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>60</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29">
-        <v>110</v>
-      </c>
-      <c r="D29" t="str">
-        <f>INDEX(Define!B:B,MATCH(C29,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
-      </c>
-      <c r="E29">
-        <v>100</v>
-      </c>
-      <c r="F29" t="str">
-        <f>INDEX(Define!E:E,MATCH(E29,Define!D:D))</f>
-        <v>ADV再生</v>
-      </c>
-      <c r="G29">
-        <v>270</v>
-      </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>60</v>
-      </c>
-      <c r="B30">
-        <v>6</v>
-      </c>
-      <c r="C30">
-        <v>210</v>
-      </c>
-      <c r="D30" t="str">
-        <f>INDEX(Define!B:B,MATCH(C30,Define!A:A))</f>
-        <v>Battle勝利後</v>
-      </c>
-      <c r="E30">
-        <v>100</v>
-      </c>
-      <c r="F30" t="str">
-        <f>INDEX(Define!E:E,MATCH(E30,Define!D:D))</f>
-        <v>ADV再生</v>
-      </c>
-      <c r="G30">
-        <v>280</v>
-      </c>
-      <c r="H30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>70</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31">
-        <v>110</v>
-      </c>
-      <c r="D31" t="str">
-        <f>INDEX(Define!B:B,MATCH(C31,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
-      </c>
-      <c r="E31">
-        <v>100</v>
-      </c>
-      <c r="F31" t="str">
-        <f>INDEX(Define!E:E,MATCH(E31,Define!D:D))</f>
-        <v>ADV再生</v>
-      </c>
-      <c r="G31">
-        <v>290</v>
-      </c>
-      <c r="H31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>70</v>
-      </c>
-      <c r="B32">
-        <v>3</v>
-      </c>
-      <c r="C32">
-        <v>110</v>
-      </c>
-      <c r="D32" t="str">
-        <f>INDEX(Define!B:B,MATCH(C32,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
-      </c>
-      <c r="E32">
-        <v>100</v>
-      </c>
-      <c r="F32" t="str">
-        <f>INDEX(Define!E:E,MATCH(E32,Define!D:D))</f>
-        <v>ADV再生</v>
-      </c>
-      <c r="G32">
-        <v>300</v>
-      </c>
-      <c r="H32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>70</v>
-      </c>
-      <c r="B33">
-        <v>6</v>
-      </c>
-      <c r="C33">
-        <v>110</v>
-      </c>
-      <c r="D33" t="str">
-        <f>INDEX(Define!B:B,MATCH(C33,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
-      </c>
-      <c r="E33">
-        <v>100</v>
-      </c>
-      <c r="F33" t="str">
-        <f>INDEX(Define!E:E,MATCH(E33,Define!D:D))</f>
-        <v>ADV再生</v>
-      </c>
-      <c r="G33">
-        <v>310</v>
-      </c>
-      <c r="H33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>70</v>
-      </c>
-      <c r="B34">
-        <v>6</v>
-      </c>
-      <c r="C34">
-        <v>210</v>
-      </c>
-      <c r="D34" t="str">
-        <f>INDEX(Define!B:B,MATCH(C34,Define!A:A))</f>
-        <v>Battle勝利後</v>
-      </c>
-      <c r="E34">
-        <v>100</v>
-      </c>
-      <c r="F34" t="str">
-        <f>INDEX(Define!E:E,MATCH(E34,Define!D:D))</f>
-        <v>ADV再生</v>
-      </c>
-      <c r="G34">
-        <v>320</v>
-      </c>
-      <c r="H34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>80</v>
-      </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35">
-        <v>110</v>
-      </c>
-      <c r="D35" t="str">
-        <f>INDEX(Define!B:B,MATCH(C35,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
-      </c>
-      <c r="E35">
-        <v>100</v>
-      </c>
-      <c r="F35" t="str">
-        <f>INDEX(Define!E:E,MATCH(E35,Define!D:D))</f>
-        <v>ADV再生</v>
-      </c>
-      <c r="G35">
-        <v>330</v>
-      </c>
-      <c r="H35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>80</v>
-      </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36">
-        <v>110</v>
-      </c>
-      <c r="D36" t="str">
-        <f>INDEX(Define!B:B,MATCH(C36,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
-      </c>
-      <c r="E36">
-        <v>100</v>
-      </c>
-      <c r="F36" t="str">
-        <f>INDEX(Define!E:E,MATCH(E36,Define!D:D))</f>
-        <v>ADV再生</v>
-      </c>
-      <c r="G36">
-        <v>340</v>
-      </c>
-      <c r="H36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>80</v>
-      </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-      <c r="C37">
-        <v>110</v>
-      </c>
-      <c r="D37" t="str">
-        <f>INDEX(Define!B:B,MATCH(C37,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
-      </c>
-      <c r="E37">
-        <v>100</v>
-      </c>
-      <c r="F37" t="str">
-        <f>INDEX(Define!E:E,MATCH(E37,Define!D:D))</f>
-        <v>ADV再生</v>
-      </c>
-      <c r="G37">
-        <v>350</v>
-      </c>
-      <c r="H37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>80</v>
-      </c>
-      <c r="B38">
-        <v>4</v>
-      </c>
-      <c r="C38">
-        <v>110</v>
-      </c>
-      <c r="D38" t="str">
-        <f>INDEX(Define!B:B,MATCH(C38,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
-      </c>
-      <c r="E38">
-        <v>100</v>
-      </c>
-      <c r="F38" t="str">
-        <f>INDEX(Define!E:E,MATCH(E38,Define!D:D))</f>
-        <v>ADV再生</v>
-      </c>
-      <c r="G38">
-        <v>360</v>
-      </c>
-      <c r="H38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>80</v>
-      </c>
-      <c r="B39">
-        <v>6</v>
-      </c>
-      <c r="C39">
-        <v>210</v>
-      </c>
-      <c r="D39" t="str">
-        <f>INDEX(Define!B:B,MATCH(C39,Define!A:A))</f>
-        <v>Battle勝利後</v>
-      </c>
-      <c r="E39">
-        <v>100</v>
-      </c>
-      <c r="F39" t="str">
-        <f>INDEX(Define!E:E,MATCH(E39,Define!D:D))</f>
-        <v>ADV再生</v>
-      </c>
-      <c r="G39">
-        <v>370</v>
-      </c>
-      <c r="H39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>90</v>
-      </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-      <c r="C40">
-        <v>110</v>
-      </c>
-      <c r="D40" t="str">
-        <f>INDEX(Define!B:B,MATCH(C40,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
-      </c>
-      <c r="E40">
-        <v>100</v>
-      </c>
-      <c r="F40" t="str">
-        <f>INDEX(Define!E:E,MATCH(E40,Define!D:D))</f>
-        <v>ADV再生</v>
-      </c>
-      <c r="G40">
-        <v>380</v>
-      </c>
-      <c r="H40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>90</v>
-      </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-      <c r="C41">
-        <v>110</v>
-      </c>
-      <c r="D41" t="str">
-        <f>INDEX(Define!B:B,MATCH(C41,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
-      </c>
-      <c r="E41">
-        <v>100</v>
-      </c>
-      <c r="F41" t="str">
-        <f>INDEX(Define!E:E,MATCH(E41,Define!D:D))</f>
-        <v>ADV再生</v>
-      </c>
-      <c r="G41">
-        <v>390</v>
-      </c>
-      <c r="H41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>90</v>
-      </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-      <c r="C42">
-        <v>110</v>
-      </c>
-      <c r="D42" t="str">
-        <f>INDEX(Define!B:B,MATCH(C42,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
-      </c>
-      <c r="E42">
-        <v>100</v>
-      </c>
-      <c r="F42" t="str">
-        <f>INDEX(Define!E:E,MATCH(E42,Define!D:D))</f>
-        <v>ADV再生</v>
-      </c>
-      <c r="G42">
-        <v>400</v>
-      </c>
-      <c r="H42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>90</v>
-      </c>
-      <c r="B43">
-        <v>6</v>
-      </c>
-      <c r="C43">
-        <v>210</v>
-      </c>
-      <c r="D43" t="str">
-        <f>INDEX(Define!B:B,MATCH(C43,Define!A:A))</f>
-        <v>Battle勝利後</v>
-      </c>
-      <c r="E43">
-        <v>100</v>
-      </c>
-      <c r="F43" t="str">
-        <f>INDEX(Define!E:E,MATCH(E43,Define!D:D))</f>
-        <v>ADV再生</v>
-      </c>
-      <c r="G43">
-        <v>410</v>
-      </c>
-      <c r="H43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>100</v>
-      </c>
-      <c r="B44">
-        <v>1</v>
-      </c>
-      <c r="C44">
-        <v>110</v>
-      </c>
-      <c r="D44" t="str">
-        <f>INDEX(Define!B:B,MATCH(C44,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
-      </c>
-      <c r="E44">
-        <v>100</v>
-      </c>
-      <c r="F44" t="str">
-        <f>INDEX(Define!E:E,MATCH(E44,Define!D:D))</f>
-        <v>ADV再生</v>
-      </c>
-      <c r="G44">
-        <v>420</v>
-      </c>
-      <c r="H44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>100</v>
-      </c>
-      <c r="B45">
-        <v>3</v>
-      </c>
-      <c r="C45">
-        <v>110</v>
-      </c>
-      <c r="D45" t="str">
-        <f>INDEX(Define!B:B,MATCH(C45,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
-      </c>
-      <c r="E45">
-        <v>100</v>
-      </c>
-      <c r="F45" t="str">
-        <f>INDEX(Define!E:E,MATCH(E45,Define!D:D))</f>
-        <v>ADV再生</v>
-      </c>
-      <c r="G45">
-        <v>430</v>
-      </c>
-      <c r="H45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>100</v>
-      </c>
-      <c r="B46">
-        <v>6</v>
-      </c>
-      <c r="C46">
-        <v>110</v>
-      </c>
-      <c r="D46" t="str">
-        <f>INDEX(Define!B:B,MATCH(C46,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
-      </c>
-      <c r="E46">
-        <v>100</v>
-      </c>
-      <c r="F46" t="str">
-        <f>INDEX(Define!E:E,MATCH(E46,Define!D:D))</f>
-        <v>ADV再生</v>
-      </c>
-      <c r="G46">
-        <v>440</v>
-      </c>
-      <c r="H46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>100</v>
-      </c>
-      <c r="B47">
-        <v>6</v>
-      </c>
-      <c r="C47">
-        <v>210</v>
-      </c>
-      <c r="D47" t="str">
-        <f>INDEX(Define!B:B,MATCH(C47,Define!A:A))</f>
-        <v>Battle勝利後</v>
-      </c>
-      <c r="E47">
-        <v>100</v>
-      </c>
-      <c r="F47" t="str">
-        <f>INDEX(Define!E:E,MATCH(E47,Define!D:D))</f>
-        <v>ADV再生</v>
-      </c>
-      <c r="G47">
-        <v>450</v>
-      </c>
-      <c r="H47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>110</v>
-      </c>
-      <c r="B48">
-        <v>1</v>
-      </c>
-      <c r="C48">
-        <v>110</v>
-      </c>
-      <c r="D48" t="str">
-        <f>INDEX(Define!B:B,MATCH(C48,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
-      </c>
-      <c r="E48">
-        <v>100</v>
-      </c>
-      <c r="F48" t="str">
-        <f>INDEX(Define!E:E,MATCH(E48,Define!D:D))</f>
-        <v>ADV再生</v>
-      </c>
-      <c r="G48">
-        <v>460</v>
-      </c>
-      <c r="H48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>110</v>
-      </c>
-      <c r="B49">
-        <v>1</v>
-      </c>
-      <c r="C49">
-        <v>110</v>
-      </c>
-      <c r="D49" t="str">
-        <f>INDEX(Define!B:B,MATCH(C49,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
-      </c>
-      <c r="E49">
-        <v>100</v>
-      </c>
-      <c r="F49" t="str">
-        <f>INDEX(Define!E:E,MATCH(E49,Define!D:D))</f>
-        <v>ADV再生</v>
-      </c>
-      <c r="G49">
-        <v>470</v>
-      </c>
-      <c r="H49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>110</v>
-      </c>
-      <c r="B50">
-        <v>1</v>
-      </c>
-      <c r="C50">
-        <v>110</v>
-      </c>
-      <c r="D50" t="str">
-        <f>INDEX(Define!B:B,MATCH(C50,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
-      </c>
-      <c r="E50">
-        <v>100</v>
-      </c>
-      <c r="F50" t="str">
-        <f>INDEX(Define!E:E,MATCH(E50,Define!D:D))</f>
-        <v>ADV再生</v>
-      </c>
-      <c r="G50">
-        <v>480</v>
-      </c>
-      <c r="H50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>110</v>
-      </c>
-      <c r="B51">
-        <v>1</v>
-      </c>
-      <c r="C51">
-        <v>110</v>
-      </c>
-      <c r="D51" t="str">
-        <f>INDEX(Define!B:B,MATCH(C51,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
-      </c>
-      <c r="E51">
-        <v>100</v>
-      </c>
-      <c r="F51" t="str">
-        <f>INDEX(Define!E:E,MATCH(E51,Define!D:D))</f>
-        <v>ADV再生</v>
-      </c>
-      <c r="G51">
-        <v>490</v>
-      </c>
-      <c r="H51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>110</v>
-      </c>
-      <c r="B52">
-        <v>1</v>
-      </c>
-      <c r="C52">
-        <v>110</v>
-      </c>
-      <c r="D52" t="str">
-        <f>INDEX(Define!B:B,MATCH(C52,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
-      </c>
-      <c r="E52">
-        <v>100</v>
-      </c>
-      <c r="F52" t="str">
-        <f>INDEX(Define!E:E,MATCH(E52,Define!D:D))</f>
-        <v>ADV再生</v>
-      </c>
-      <c r="G52">
-        <v>500</v>
-      </c>
-      <c r="H52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>110</v>
-      </c>
-      <c r="B53">
-        <v>3</v>
-      </c>
-      <c r="C53">
-        <v>110</v>
-      </c>
-      <c r="D53" t="str">
-        <f>INDEX(Define!B:B,MATCH(C53,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
-      </c>
-      <c r="E53">
-        <v>100</v>
-      </c>
-      <c r="F53" t="str">
-        <f>INDEX(Define!E:E,MATCH(E53,Define!D:D))</f>
-        <v>ADV再生</v>
-      </c>
-      <c r="G53">
-        <v>510</v>
-      </c>
-      <c r="H53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>110</v>
-      </c>
-      <c r="B54">
-        <v>6</v>
-      </c>
-      <c r="C54">
-        <v>110</v>
-      </c>
-      <c r="D54" t="str">
-        <f>INDEX(Define!B:B,MATCH(C54,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
-      </c>
-      <c r="E54">
-        <v>100</v>
-      </c>
-      <c r="F54" t="str">
-        <f>INDEX(Define!E:E,MATCH(E54,Define!D:D))</f>
-        <v>ADV再生</v>
-      </c>
-      <c r="G54">
-        <v>520</v>
-      </c>
-      <c r="H54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>110</v>
-      </c>
-      <c r="B55">
-        <v>6</v>
-      </c>
-      <c r="C55">
-        <v>210</v>
-      </c>
-      <c r="D55" t="str">
-        <f>INDEX(Define!B:B,MATCH(C55,Define!A:A))</f>
-        <v>Battle勝利後</v>
-      </c>
-      <c r="E55">
-        <v>100</v>
-      </c>
-      <c r="F55" t="str">
-        <f>INDEX(Define!E:E,MATCH(E55,Define!D:D))</f>
-        <v>ADV再生</v>
-      </c>
-      <c r="G55">
-        <v>530</v>
-      </c>
-      <c r="H55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>120</v>
-      </c>
-      <c r="B56">
-        <v>1</v>
-      </c>
-      <c r="C56">
-        <v>110</v>
-      </c>
-      <c r="D56" t="str">
-        <f>INDEX(Define!B:B,MATCH(C56,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
-      </c>
-      <c r="E56">
-        <v>100</v>
-      </c>
-      <c r="F56" t="str">
-        <f>INDEX(Define!E:E,MATCH(E56,Define!D:D))</f>
-        <v>ADV再生</v>
-      </c>
-      <c r="G56">
-        <v>540</v>
-      </c>
-      <c r="H56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>120</v>
-      </c>
-      <c r="B57">
-        <v>1</v>
-      </c>
-      <c r="C57">
-        <v>110</v>
-      </c>
-      <c r="D57" t="str">
-        <f>INDEX(Define!B:B,MATCH(C57,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
-      </c>
-      <c r="E57">
-        <v>100</v>
-      </c>
-      <c r="F57" t="str">
-        <f>INDEX(Define!E:E,MATCH(E57,Define!D:D))</f>
-        <v>ADV再生</v>
-      </c>
-      <c r="G57">
-        <v>550</v>
-      </c>
-      <c r="H57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>120</v>
-      </c>
-      <c r="B58">
-        <v>1</v>
-      </c>
-      <c r="C58">
-        <v>110</v>
-      </c>
-      <c r="D58" t="str">
-        <f>INDEX(Define!B:B,MATCH(C58,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
-      </c>
-      <c r="E58">
-        <v>100</v>
-      </c>
-      <c r="F58" t="str">
-        <f>INDEX(Define!E:E,MATCH(E58,Define!D:D))</f>
-        <v>ADV再生</v>
-      </c>
-      <c r="G58">
-        <v>560</v>
-      </c>
-      <c r="H58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>120</v>
-      </c>
-      <c r="B59">
-        <v>3</v>
-      </c>
-      <c r="C59">
-        <v>110</v>
-      </c>
-      <c r="D59" t="str">
-        <f>INDEX(Define!B:B,MATCH(C59,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
-      </c>
-      <c r="E59">
-        <v>100</v>
-      </c>
-      <c r="F59" t="str">
-        <f>INDEX(Define!E:E,MATCH(E59,Define!D:D))</f>
-        <v>ADV再生</v>
-      </c>
-      <c r="G59">
-        <v>570</v>
-      </c>
-      <c r="H59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <v>120</v>
-      </c>
-      <c r="B60">
-        <v>6</v>
-      </c>
-      <c r="C60">
-        <v>110</v>
-      </c>
-      <c r="D60" t="str">
-        <f>INDEX(Define!B:B,MATCH(C60,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
-      </c>
-      <c r="E60">
-        <v>100</v>
-      </c>
-      <c r="F60" t="str">
-        <f>INDEX(Define!E:E,MATCH(E60,Define!D:D))</f>
-        <v>ADV再生</v>
-      </c>
-      <c r="G60">
-        <v>580</v>
-      </c>
-      <c r="H60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <v>120</v>
-      </c>
-      <c r="B61">
-        <v>6</v>
-      </c>
-      <c r="C61">
-        <v>210</v>
-      </c>
-      <c r="D61" t="str">
-        <f>INDEX(Define!B:B,MATCH(C61,Define!A:A))</f>
-        <v>Battle勝利後</v>
-      </c>
-      <c r="E61">
-        <v>100</v>
-      </c>
-      <c r="F61" t="str">
-        <f>INDEX(Define!E:E,MATCH(E61,Define!D:D))</f>
-        <v>ADV再生</v>
-      </c>
-      <c r="G61">
-        <v>590</v>
-      </c>
-      <c r="H61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <v>130</v>
-      </c>
-      <c r="B62">
-        <v>4</v>
-      </c>
-      <c r="C62">
-        <v>110</v>
-      </c>
-      <c r="D62" t="str">
-        <f>INDEX(Define!B:B,MATCH(C62,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
-      </c>
-      <c r="E62">
-        <v>100</v>
-      </c>
-      <c r="F62" t="str">
-        <f>INDEX(Define!E:E,MATCH(E62,Define!D:D))</f>
-        <v>ADV再生</v>
-      </c>
-      <c r="G62">
-        <v>600</v>
-      </c>
-      <c r="H62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <v>130</v>
-      </c>
-      <c r="B63">
-        <v>6</v>
-      </c>
-      <c r="C63">
-        <v>210</v>
-      </c>
-      <c r="D63" t="str">
-        <f>INDEX(Define!B:B,MATCH(C63,Define!A:A))</f>
-        <v>Battle勝利後</v>
-      </c>
-      <c r="E63">
-        <v>100</v>
-      </c>
-      <c r="F63" t="str">
-        <f>INDEX(Define!E:E,MATCH(E63,Define!D:D))</f>
-        <v>ADV再生</v>
-      </c>
-      <c r="G63">
-        <v>610</v>
-      </c>
-      <c r="H63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <v>140</v>
-      </c>
-      <c r="B64">
-        <v>4</v>
-      </c>
-      <c r="C64">
-        <v>110</v>
-      </c>
-      <c r="D64" t="str">
-        <f>INDEX(Define!B:B,MATCH(C64,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
-      </c>
-      <c r="E64">
-        <v>100</v>
-      </c>
-      <c r="F64" t="str">
-        <f>INDEX(Define!E:E,MATCH(E64,Define!D:D))</f>
-        <v>ADV再生</v>
-      </c>
-      <c r="G64">
-        <v>620</v>
-      </c>
-      <c r="H64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <v>140</v>
-      </c>
-      <c r="B65">
-        <v>6</v>
-      </c>
-      <c r="C65">
-        <v>210</v>
-      </c>
-      <c r="D65" t="str">
-        <f>INDEX(Define!B:B,MATCH(C65,Define!A:A))</f>
-        <v>Battle勝利後</v>
-      </c>
-      <c r="E65">
-        <v>100</v>
-      </c>
-      <c r="F65" t="str">
-        <f>INDEX(Define!E:E,MATCH(E65,Define!D:D))</f>
-        <v>ADV再生</v>
-      </c>
-      <c r="G65">
-        <v>630</v>
-      </c>
-      <c r="H65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66">
-        <v>150</v>
-      </c>
-      <c r="B66">
-        <v>1</v>
-      </c>
-      <c r="C66">
-        <v>110</v>
-      </c>
-      <c r="D66" t="str">
-        <f>INDEX(Define!B:B,MATCH(C66,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
-      </c>
-      <c r="E66">
-        <v>100</v>
-      </c>
-      <c r="F66" t="str">
-        <f>INDEX(Define!E:E,MATCH(E66,Define!D:D))</f>
-        <v>ADV再生</v>
-      </c>
-      <c r="G66">
-        <v>640</v>
-      </c>
-      <c r="H66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <v>150</v>
-      </c>
-      <c r="B67">
-        <v>1</v>
-      </c>
-      <c r="C67">
-        <v>110</v>
-      </c>
-      <c r="D67" t="str">
-        <f>INDEX(Define!B:B,MATCH(C67,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
-      </c>
-      <c r="E67">
-        <v>100</v>
-      </c>
-      <c r="F67" t="str">
-        <f>INDEX(Define!E:E,MATCH(E67,Define!D:D))</f>
-        <v>ADV再生</v>
-      </c>
-      <c r="G67">
-        <v>650</v>
-      </c>
-      <c r="H67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <v>150</v>
-      </c>
-      <c r="B68">
-        <v>6</v>
-      </c>
-      <c r="C68">
-        <v>210</v>
-      </c>
-      <c r="D68" t="str">
-        <f>INDEX(Define!B:B,MATCH(C68,Define!A:A))</f>
-        <v>Battle勝利後</v>
-      </c>
-      <c r="E68">
-        <v>100</v>
-      </c>
-      <c r="F68" t="str">
-        <f>INDEX(Define!E:E,MATCH(E68,Define!D:D))</f>
-        <v>ADV再生</v>
-      </c>
-      <c r="G68">
-        <v>660</v>
-      </c>
-      <c r="H68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A69">
-        <v>150</v>
-      </c>
-      <c r="B69">
-        <v>6</v>
-      </c>
-      <c r="C69">
-        <v>210</v>
-      </c>
-      <c r="D69" t="str">
-        <f>INDEX(Define!B:B,MATCH(C69,Define!A:A))</f>
-        <v>Battle勝利後</v>
-      </c>
-      <c r="E69">
-        <v>100</v>
-      </c>
-      <c r="F69" t="str">
-        <f>INDEX(Define!E:E,MATCH(E69,Define!D:D))</f>
-        <v>ADV再生</v>
-      </c>
-      <c r="G69">
-        <v>670</v>
-      </c>
-      <c r="H69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A70">
-        <v>150</v>
-      </c>
-      <c r="B70">
-        <v>6</v>
-      </c>
-      <c r="C70">
-        <v>210</v>
-      </c>
-      <c r="D70" t="str">
-        <f>INDEX(Define!B:B,MATCH(C70,Define!A:A))</f>
-        <v>Battle勝利後</v>
-      </c>
-      <c r="E70">
-        <v>100</v>
-      </c>
-      <c r="F70" t="str">
-        <f>INDEX(Define!E:E,MATCH(E70,Define!D:D))</f>
-        <v>ADV再生</v>
-      </c>
-      <c r="G70">
-        <v>680</v>
-      </c>
-      <c r="H70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <v>150</v>
-      </c>
-      <c r="B71">
-        <v>6</v>
-      </c>
-      <c r="C71">
-        <v>210</v>
-      </c>
-      <c r="D71" t="str">
-        <f>INDEX(Define!B:B,MATCH(C71,Define!A:A))</f>
-        <v>Battle勝利後</v>
-      </c>
-      <c r="E71">
-        <v>100</v>
-      </c>
-      <c r="F71" t="str">
-        <f>INDEX(Define!E:E,MATCH(E71,Define!D:D))</f>
-        <v>ADV再生</v>
-      </c>
-      <c r="G71">
-        <v>690</v>
-      </c>
-      <c r="H71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72">
-        <v>150</v>
-      </c>
-      <c r="B72">
-        <v>6</v>
-      </c>
-      <c r="C72">
-        <v>210</v>
-      </c>
-      <c r="D72" t="str">
-        <f>INDEX(Define!B:B,MATCH(C72,Define!A:A))</f>
-        <v>Battle勝利後</v>
-      </c>
-      <c r="E72">
-        <v>100</v>
-      </c>
-      <c r="F72" t="str">
-        <f>INDEX(Define!E:E,MATCH(E72,Define!D:D))</f>
-        <v>ADV再生</v>
-      </c>
-      <c r="G72">
-        <v>700</v>
-      </c>
-      <c r="H72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73">
-        <v>150</v>
-      </c>
-      <c r="B73">
-        <v>6</v>
-      </c>
-      <c r="C73">
-        <v>210</v>
-      </c>
-      <c r="D73" t="str">
-        <f>INDEX(Define!B:B,MATCH(C73,Define!A:A))</f>
-        <v>Battle勝利後</v>
-      </c>
-      <c r="E73">
-        <v>100</v>
-      </c>
-      <c r="F73" t="str">
-        <f>INDEX(Define!E:E,MATCH(E73,Define!D:D))</f>
-        <v>ADV再生</v>
-      </c>
-      <c r="G73">
-        <v>710</v>
-      </c>
-      <c r="H73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74">
-        <v>150</v>
-      </c>
-      <c r="B74">
-        <v>6</v>
-      </c>
-      <c r="C74">
-        <v>210</v>
-      </c>
-      <c r="D74" t="str">
-        <f>INDEX(Define!B:B,MATCH(C74,Define!A:A))</f>
-        <v>Battle勝利後</v>
-      </c>
-      <c r="E74">
-        <v>100</v>
-      </c>
-      <c r="F74" t="str">
-        <f>INDEX(Define!E:E,MATCH(E74,Define!D:D))</f>
-        <v>ADV再生</v>
-      </c>
-      <c r="G74">
-        <v>720</v>
-      </c>
-      <c r="H74">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3950,10 +1910,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M51"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4050,7 +2010,7 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="E3" t="str">
         <f>INDEX(Define!L:L,MATCH(D3,Define!K:K))</f>
@@ -4127,20 +2087,20 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E5" t="str">
         <f>INDEX(Define!L:L,MATCH(D5,Define!K:K))</f>
-        <v>Battler</v>
+        <v>None</v>
       </c>
       <c r="F5">
         <v>10</v>
@@ -4153,7 +2113,7 @@
         <v>100</v>
       </c>
       <c r="I5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -4170,20 +2130,20 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E6" t="str">
         <f>INDEX(Define!L:L,MATCH(D6,Define!K:K))</f>
-        <v>Battler</v>
+        <v>None</v>
       </c>
       <c r="F6">
         <v>10</v>
@@ -4196,37 +2156,37 @@
         <v>100</v>
       </c>
       <c r="I6">
-        <v>1011</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1011</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E7" t="str">
         <f>INDEX(Define!L:L,MATCH(D7,Define!K:K))</f>
-        <v>Battler</v>
+        <v>None</v>
       </c>
       <c r="F7">
         <v>10</v>
@@ -4239,37 +2199,37 @@
         <v>100</v>
       </c>
       <c r="I7">
-        <v>1021</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1021</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E8" t="str">
         <f>INDEX(Define!L:L,MATCH(D8,Define!K:K))</f>
-        <v>Battler</v>
+        <v>None</v>
       </c>
       <c r="F8">
         <v>10</v>
@@ -4282,19 +2242,19 @@
         <v>100</v>
       </c>
       <c r="I8">
-        <v>1031</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1031</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -4302,13 +2262,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="E9" t="str">
         <f>INDEX(Define!L:L,MATCH(D9,Define!K:K))</f>
@@ -4325,19 +2285,19 @@
         <v>100</v>
       </c>
       <c r="I9">
-        <v>1041</v>
+        <v>-1</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1041</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -4345,13 +2305,13 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="E10" t="str">
         <f>INDEX(Define!L:L,MATCH(D10,Define!K:K))</f>
@@ -4368,19 +2328,19 @@
         <v>100</v>
       </c>
       <c r="I10">
-        <v>1042</v>
+        <v>1011</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1011</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -4388,99 +2348,99 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="E11" t="str">
         <f>INDEX(Define!L:L,MATCH(D11,Define!K:K))</f>
-        <v>Boss</v>
+        <v>Battler</v>
       </c>
       <c r="F11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G11" t="str">
         <f>INDEX(Define!J:J,MATCH(F11,Define!I:I))</f>
-        <v>Boss</v>
+        <v>Battle</v>
       </c>
       <c r="H11">
         <v>100</v>
       </c>
       <c r="I11">
-        <v>1101</v>
+        <v>1021</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>1101</v>
+        <v>1021</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="E12" t="str">
         <f>INDEX(Define!L:L,MATCH(D12,Define!K:K))</f>
-        <v>SelectActor</v>
+        <v>Battler</v>
       </c>
       <c r="F12">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G12" t="str">
         <f>INDEX(Define!J:J,MATCH(F12,Define!I:I))</f>
-        <v>SelectActor</v>
+        <v>Battle</v>
       </c>
       <c r="H12">
         <v>100</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1031</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1004</v>
+        <v>1031</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="E13" t="str">
         <f>INDEX(Define!L:L,MATCH(D13,Define!K:K))</f>
@@ -4497,33 +2457,33 @@
         <v>100</v>
       </c>
       <c r="I13">
-        <v>-1</v>
+        <v>1041</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1041</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14">
         <v>1</v>
       </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
       <c r="D14">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="E14" t="str">
         <f>INDEX(Define!L:L,MATCH(D14,Define!K:K))</f>
@@ -4540,1609 +2500,61 @@
         <v>100</v>
       </c>
       <c r="I14">
-        <v>2011</v>
+        <v>1042</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2011</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="str">
         <f>INDEX(Define!L:L,MATCH(D15,Define!K:K))</f>
-        <v>Battler</v>
+        <v>Boss</v>
       </c>
       <c r="F15">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G15" t="str">
         <f>INDEX(Define!J:J,MATCH(F15,Define!I:I))</f>
-        <v>Battle</v>
+        <v>Boss</v>
       </c>
       <c r="H15">
         <v>100</v>
       </c>
       <c r="I15">
-        <v>2021</v>
+        <v>1101</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15">
-        <v>2021</v>
+        <v>1101</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>20</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>10</v>
-      </c>
-      <c r="E16" t="str">
-        <f>INDEX(Define!L:L,MATCH(D16,Define!K:K))</f>
-        <v>Battler</v>
-      </c>
-      <c r="F16">
-        <v>10</v>
-      </c>
-      <c r="G16" t="str">
-        <f>INDEX(Define!J:J,MATCH(F16,Define!I:I))</f>
-        <v>Battle</v>
-      </c>
-      <c r="H16">
-        <v>100</v>
-      </c>
-      <c r="I16">
-        <v>2021</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>2022</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>20</v>
-      </c>
-      <c r="B17">
-        <v>3</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>10</v>
-      </c>
-      <c r="E17" t="str">
-        <f>INDEX(Define!L:L,MATCH(D17,Define!K:K))</f>
-        <v>Battler</v>
-      </c>
-      <c r="F17">
-        <v>10</v>
-      </c>
-      <c r="G17" t="str">
-        <f>INDEX(Define!J:J,MATCH(F17,Define!I:I))</f>
-        <v>Battle</v>
-      </c>
-      <c r="H17">
-        <v>100</v>
-      </c>
-      <c r="I17">
-        <v>2031</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>2031</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>20</v>
-      </c>
-      <c r="B18">
-        <v>4</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>204</v>
-      </c>
-      <c r="E18" t="str">
-        <f>INDEX(Define!L:L,MATCH(D18,Define!K:K))</f>
-        <v>Group</v>
-      </c>
-      <c r="F18">
-        <v>204</v>
-      </c>
-      <c r="G18" t="str">
-        <f>INDEX(Define!J:J,MATCH(F18,Define!I:I))</f>
-        <v>Group</v>
-      </c>
-      <c r="H18">
-        <v>100</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>20</v>
-      </c>
-      <c r="B19">
-        <v>4</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>205</v>
-      </c>
-      <c r="E19" t="str">
-        <f>INDEX(Define!L:L,MATCH(D19,Define!K:K))</f>
-        <v>Group</v>
-      </c>
-      <c r="F19">
-        <v>205</v>
-      </c>
-      <c r="G19" t="str">
-        <f>INDEX(Define!J:J,MATCH(F19,Define!I:I))</f>
-        <v>Group</v>
-      </c>
-      <c r="H19">
-        <v>100</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>20</v>
-      </c>
-      <c r="B20">
-        <v>5</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>11</v>
-      </c>
-      <c r="E20" t="str">
-        <f>INDEX(Define!L:L,MATCH(D20,Define!K:K))</f>
-        <v>Boss</v>
-      </c>
-      <c r="F20">
-        <v>11</v>
-      </c>
-      <c r="G20" t="str">
-        <f>INDEX(Define!J:J,MATCH(F20,Define!I:I))</f>
-        <v>Boss</v>
-      </c>
-      <c r="H20">
-        <v>100</v>
-      </c>
-      <c r="I20">
-        <v>2101</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>2101</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>30</v>
-      </c>
-      <c r="B21">
-        <v>-1</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>70</v>
-      </c>
-      <c r="E21" t="str">
-        <f>INDEX(Define!L:L,MATCH(D21,Define!K:K))</f>
-        <v>SelectActor</v>
-      </c>
-      <c r="F21">
-        <v>70</v>
-      </c>
-      <c r="G21" t="str">
-        <f>INDEX(Define!J:J,MATCH(F21,Define!I:I))</f>
-        <v>SelectActor</v>
-      </c>
-      <c r="H21">
-        <v>100</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>1006</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>30</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>10</v>
-      </c>
-      <c r="E22" t="str">
-        <f>INDEX(Define!L:L,MATCH(D22,Define!K:K))</f>
-        <v>Battler</v>
-      </c>
-      <c r="F22">
-        <v>10</v>
-      </c>
-      <c r="G22" t="str">
-        <f>INDEX(Define!J:J,MATCH(F22,Define!I:I))</f>
-        <v>Battle</v>
-      </c>
-      <c r="H22">
-        <v>100</v>
-      </c>
-      <c r="I22">
-        <v>-1</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>30</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>-1</v>
-      </c>
-      <c r="E23" t="str">
-        <f>INDEX(Define!L:L,MATCH(D23,Define!K:K))</f>
-        <v>Random</v>
-      </c>
-      <c r="F23">
-        <v>-1</v>
-      </c>
-      <c r="G23" t="str">
-        <f>INDEX(Define!J:J,MATCH(F23,Define!I:I))</f>
-        <v>Random</v>
-      </c>
-      <c r="H23">
-        <v>100</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>30</v>
-      </c>
-      <c r="B24">
-        <v>2</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>-1</v>
-      </c>
-      <c r="E24" t="str">
-        <f>INDEX(Define!L:L,MATCH(D24,Define!K:K))</f>
-        <v>Random</v>
-      </c>
-      <c r="F24">
-        <v>-1</v>
-      </c>
-      <c r="G24" t="str">
-        <f>INDEX(Define!J:J,MATCH(F24,Define!I:I))</f>
-        <v>Random</v>
-      </c>
-      <c r="H24">
-        <v>100</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>30</v>
-      </c>
-      <c r="B25">
-        <v>3</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>-1</v>
-      </c>
-      <c r="E25" t="str">
-        <f>INDEX(Define!L:L,MATCH(D25,Define!K:K))</f>
-        <v>Random</v>
-      </c>
-      <c r="F25">
-        <v>-1</v>
-      </c>
-      <c r="G25" t="str">
-        <f>INDEX(Define!J:J,MATCH(F25,Define!I:I))</f>
-        <v>Random</v>
-      </c>
-      <c r="H25">
-        <v>100</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>30</v>
-      </c>
-      <c r="B26">
-        <v>4</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>-1</v>
-      </c>
-      <c r="E26" t="str">
-        <f>INDEX(Define!L:L,MATCH(D26,Define!K:K))</f>
-        <v>Random</v>
-      </c>
-      <c r="F26">
-        <v>-1</v>
-      </c>
-      <c r="G26" t="str">
-        <f>INDEX(Define!J:J,MATCH(F26,Define!I:I))</f>
-        <v>Random</v>
-      </c>
-      <c r="H26">
-        <v>100</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>30</v>
-      </c>
-      <c r="B27">
-        <v>5</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>-1</v>
-      </c>
-      <c r="E27" t="str">
-        <f>INDEX(Define!L:L,MATCH(D27,Define!K:K))</f>
-        <v>Random</v>
-      </c>
-      <c r="F27">
-        <v>-1</v>
-      </c>
-      <c r="G27" t="str">
-        <f>INDEX(Define!J:J,MATCH(F27,Define!I:I))</f>
-        <v>Random</v>
-      </c>
-      <c r="H27">
-        <v>100</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>30</v>
-      </c>
-      <c r="B28">
-        <v>6</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>11</v>
-      </c>
-      <c r="E28" t="str">
-        <f>INDEX(Define!L:L,MATCH(D28,Define!K:K))</f>
-        <v>Boss</v>
-      </c>
-      <c r="F28">
-        <v>11</v>
-      </c>
-      <c r="G28" t="str">
-        <f>INDEX(Define!J:J,MATCH(F28,Define!I:I))</f>
-        <v>Boss</v>
-      </c>
-      <c r="H28">
-        <v>100</v>
-      </c>
-      <c r="I28">
-        <v>1101</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>1101</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>40</v>
-      </c>
-      <c r="B29">
-        <v>-1</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>70</v>
-      </c>
-      <c r="E29" t="str">
-        <f>INDEX(Define!L:L,MATCH(D29,Define!K:K))</f>
-        <v>SelectActor</v>
-      </c>
-      <c r="F29">
-        <v>70</v>
-      </c>
-      <c r="G29" t="str">
-        <f>INDEX(Define!J:J,MATCH(F29,Define!I:I))</f>
-        <v>SelectActor</v>
-      </c>
-      <c r="H29">
-        <v>100</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>1001</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>40</v>
-      </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>10</v>
-      </c>
-      <c r="E30" t="str">
-        <f>INDEX(Define!L:L,MATCH(D30,Define!K:K))</f>
-        <v>Battler</v>
-      </c>
-      <c r="F30">
-        <v>10</v>
-      </c>
-      <c r="G30" t="str">
-        <f>INDEX(Define!J:J,MATCH(F30,Define!I:I))</f>
-        <v>Battle</v>
-      </c>
-      <c r="H30">
-        <v>100</v>
-      </c>
-      <c r="I30">
-        <v>-1</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>40</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>-1</v>
-      </c>
-      <c r="E31" t="str">
-        <f>INDEX(Define!L:L,MATCH(D31,Define!K:K))</f>
-        <v>Random</v>
-      </c>
-      <c r="F31">
-        <v>-1</v>
-      </c>
-      <c r="G31" t="str">
-        <f>INDEX(Define!J:J,MATCH(F31,Define!I:I))</f>
-        <v>Random</v>
-      </c>
-      <c r="H31">
-        <v>100</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-      <c r="M31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>40</v>
-      </c>
-      <c r="B32">
-        <v>2</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>-1</v>
-      </c>
-      <c r="E32" t="str">
-        <f>INDEX(Define!L:L,MATCH(D32,Define!K:K))</f>
-        <v>Random</v>
-      </c>
-      <c r="F32">
-        <v>-1</v>
-      </c>
-      <c r="G32" t="str">
-        <f>INDEX(Define!J:J,MATCH(F32,Define!I:I))</f>
-        <v>Random</v>
-      </c>
-      <c r="H32">
-        <v>100</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>40</v>
-      </c>
-      <c r="B33">
-        <v>3</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <v>-1</v>
-      </c>
-      <c r="E33" t="str">
-        <f>INDEX(Define!L:L,MATCH(D33,Define!K:K))</f>
-        <v>Random</v>
-      </c>
-      <c r="F33">
-        <v>-1</v>
-      </c>
-      <c r="G33" t="str">
-        <f>INDEX(Define!J:J,MATCH(F33,Define!I:I))</f>
-        <v>Random</v>
-      </c>
-      <c r="H33">
-        <v>100</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-      <c r="M33" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>40</v>
-      </c>
-      <c r="B34">
-        <v>4</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>-1</v>
-      </c>
-      <c r="E34" t="str">
-        <f>INDEX(Define!L:L,MATCH(D34,Define!K:K))</f>
-        <v>Random</v>
-      </c>
-      <c r="F34">
-        <v>-1</v>
-      </c>
-      <c r="G34" t="str">
-        <f>INDEX(Define!J:J,MATCH(F34,Define!I:I))</f>
-        <v>Random</v>
-      </c>
-      <c r="H34">
-        <v>100</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-      <c r="M34" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>40</v>
-      </c>
-      <c r="B35">
-        <v>5</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <v>-1</v>
-      </c>
-      <c r="E35" t="str">
-        <f>INDEX(Define!L:L,MATCH(D35,Define!K:K))</f>
-        <v>Random</v>
-      </c>
-      <c r="F35">
-        <v>-1</v>
-      </c>
-      <c r="G35" t="str">
-        <f>INDEX(Define!J:J,MATCH(F35,Define!I:I))</f>
-        <v>Random</v>
-      </c>
-      <c r="H35">
-        <v>100</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>40</v>
-      </c>
-      <c r="B36">
-        <v>6</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <v>11</v>
-      </c>
-      <c r="E36" t="str">
-        <f>INDEX(Define!L:L,MATCH(D36,Define!K:K))</f>
-        <v>Boss</v>
-      </c>
-      <c r="F36">
-        <v>11</v>
-      </c>
-      <c r="G36" t="str">
-        <f>INDEX(Define!J:J,MATCH(F36,Define!I:I))</f>
-        <v>Boss</v>
-      </c>
-      <c r="H36">
-        <v>100</v>
-      </c>
-      <c r="I36">
-        <v>1101</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36">
-        <v>1101</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>50</v>
-      </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>10</v>
-      </c>
-      <c r="E37" t="str">
-        <f>INDEX(Define!L:L,MATCH(D37,Define!K:K))</f>
-        <v>Battler</v>
-      </c>
-      <c r="F37">
-        <v>10</v>
-      </c>
-      <c r="G37" t="str">
-        <f>INDEX(Define!J:J,MATCH(F37,Define!I:I))</f>
-        <v>Battle</v>
-      </c>
-      <c r="H37">
-        <v>100</v>
-      </c>
-      <c r="I37">
-        <v>-1</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="M37" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>50</v>
-      </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="D38">
-        <v>-1</v>
-      </c>
-      <c r="E38" t="str">
-        <f>INDEX(Define!L:L,MATCH(D38,Define!K:K))</f>
-        <v>Random</v>
-      </c>
-      <c r="F38">
-        <v>-1</v>
-      </c>
-      <c r="G38" t="str">
-        <f>INDEX(Define!J:J,MATCH(F38,Define!I:I))</f>
-        <v>Random</v>
-      </c>
-      <c r="H38">
-        <v>100</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="M38" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>50</v>
-      </c>
-      <c r="B39">
-        <v>2</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39">
-        <v>-1</v>
-      </c>
-      <c r="E39" t="str">
-        <f>INDEX(Define!L:L,MATCH(D39,Define!K:K))</f>
-        <v>Random</v>
-      </c>
-      <c r="F39">
-        <v>-1</v>
-      </c>
-      <c r="G39" t="str">
-        <f>INDEX(Define!J:J,MATCH(F39,Define!I:I))</f>
-        <v>Random</v>
-      </c>
-      <c r="H39">
-        <v>100</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
-      <c r="M39" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>50</v>
-      </c>
-      <c r="B40">
-        <v>3</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40">
-        <v>-1</v>
-      </c>
-      <c r="E40" t="str">
-        <f>INDEX(Define!L:L,MATCH(D40,Define!K:K))</f>
-        <v>Random</v>
-      </c>
-      <c r="F40">
-        <v>-1</v>
-      </c>
-      <c r="G40" t="str">
-        <f>INDEX(Define!J:J,MATCH(F40,Define!I:I))</f>
-        <v>Random</v>
-      </c>
-      <c r="H40">
-        <v>100</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-      <c r="L40">
-        <v>0</v>
-      </c>
-      <c r="M40" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>50</v>
-      </c>
-      <c r="B41">
-        <v>4</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="D41">
-        <v>-1</v>
-      </c>
-      <c r="E41" t="str">
-        <f>INDEX(Define!L:L,MATCH(D41,Define!K:K))</f>
-        <v>Random</v>
-      </c>
-      <c r="F41">
-        <v>-1</v>
-      </c>
-      <c r="G41" t="str">
-        <f>INDEX(Define!J:J,MATCH(F41,Define!I:I))</f>
-        <v>Random</v>
-      </c>
-      <c r="H41">
-        <v>100</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-      <c r="L41">
-        <v>0</v>
-      </c>
-      <c r="M41" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>50</v>
-      </c>
-      <c r="B42">
-        <v>5</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="D42">
-        <v>-1</v>
-      </c>
-      <c r="E42" t="str">
-        <f>INDEX(Define!L:L,MATCH(D42,Define!K:K))</f>
-        <v>Random</v>
-      </c>
-      <c r="F42">
-        <v>-1</v>
-      </c>
-      <c r="G42" t="str">
-        <f>INDEX(Define!J:J,MATCH(F42,Define!I:I))</f>
-        <v>Random</v>
-      </c>
-      <c r="H42">
-        <v>100</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>50</v>
-      </c>
-      <c r="B43">
-        <v>6</v>
-      </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-      <c r="D43">
-        <v>11</v>
-      </c>
-      <c r="E43" t="str">
-        <f>INDEX(Define!L:L,MATCH(D43,Define!K:K))</f>
-        <v>Boss</v>
-      </c>
-      <c r="F43">
-        <v>11</v>
-      </c>
-      <c r="G43" t="str">
-        <f>INDEX(Define!J:J,MATCH(F43,Define!I:I))</f>
-        <v>Boss</v>
-      </c>
-      <c r="H43">
-        <v>100</v>
-      </c>
-      <c r="I43">
-        <v>1101</v>
-      </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-      <c r="K43">
-        <v>1101</v>
-      </c>
-      <c r="L43">
-        <v>0</v>
-      </c>
-      <c r="M43" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>60</v>
-      </c>
-      <c r="B44">
-        <v>-1</v>
-      </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="D44">
-        <v>70</v>
-      </c>
-      <c r="E44" t="str">
-        <f>INDEX(Define!L:L,MATCH(D44,Define!K:K))</f>
-        <v>SelectActor</v>
-      </c>
-      <c r="F44">
-        <v>70</v>
-      </c>
-      <c r="G44" t="str">
-        <f>INDEX(Define!J:J,MATCH(F44,Define!I:I))</f>
-        <v>SelectActor</v>
-      </c>
-      <c r="H44">
-        <v>100</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-      <c r="K44">
-        <v>1002</v>
-      </c>
-      <c r="L44">
-        <v>0</v>
-      </c>
-      <c r="M44" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>60</v>
-      </c>
-      <c r="B45">
-        <v>0</v>
-      </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-      <c r="D45">
-        <v>10</v>
-      </c>
-      <c r="E45" t="str">
-        <f>INDEX(Define!L:L,MATCH(D45,Define!K:K))</f>
-        <v>Battler</v>
-      </c>
-      <c r="F45">
-        <v>10</v>
-      </c>
-      <c r="G45" t="str">
-        <f>INDEX(Define!J:J,MATCH(F45,Define!I:I))</f>
-        <v>Battle</v>
-      </c>
-      <c r="H45">
-        <v>100</v>
-      </c>
-      <c r="I45">
-        <v>-1</v>
-      </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
-      <c r="K45">
-        <v>0</v>
-      </c>
-      <c r="L45">
-        <v>0</v>
-      </c>
-      <c r="M45" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>60</v>
-      </c>
-      <c r="B46">
-        <v>1</v>
-      </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-      <c r="D46">
-        <v>-1</v>
-      </c>
-      <c r="E46" t="str">
-        <f>INDEX(Define!L:L,MATCH(D46,Define!K:K))</f>
-        <v>Random</v>
-      </c>
-      <c r="F46">
-        <v>-1</v>
-      </c>
-      <c r="G46" t="str">
-        <f>INDEX(Define!J:J,MATCH(F46,Define!I:I))</f>
-        <v>Random</v>
-      </c>
-      <c r="H46">
-        <v>100</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
-      <c r="K46">
-        <v>0</v>
-      </c>
-      <c r="L46">
-        <v>0</v>
-      </c>
-      <c r="M46" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>60</v>
-      </c>
-      <c r="B47">
-        <v>2</v>
-      </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-      <c r="D47">
-        <v>-1</v>
-      </c>
-      <c r="E47" t="str">
-        <f>INDEX(Define!L:L,MATCH(D47,Define!K:K))</f>
-        <v>Random</v>
-      </c>
-      <c r="F47">
-        <v>-1</v>
-      </c>
-      <c r="G47" t="str">
-        <f>INDEX(Define!J:J,MATCH(F47,Define!I:I))</f>
-        <v>Random</v>
-      </c>
-      <c r="H47">
-        <v>100</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
-      <c r="L47">
-        <v>0</v>
-      </c>
-      <c r="M47" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>60</v>
-      </c>
-      <c r="B48">
-        <v>3</v>
-      </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-      <c r="D48">
-        <v>-1</v>
-      </c>
-      <c r="E48" t="str">
-        <f>INDEX(Define!L:L,MATCH(D48,Define!K:K))</f>
-        <v>Random</v>
-      </c>
-      <c r="F48">
-        <v>-1</v>
-      </c>
-      <c r="G48" t="str">
-        <f>INDEX(Define!J:J,MATCH(F48,Define!I:I))</f>
-        <v>Random</v>
-      </c>
-      <c r="H48">
-        <v>100</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-      <c r="L48">
-        <v>0</v>
-      </c>
-      <c r="M48" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>60</v>
-      </c>
-      <c r="B49">
-        <v>4</v>
-      </c>
-      <c r="C49">
-        <v>0</v>
-      </c>
-      <c r="D49">
-        <v>-1</v>
-      </c>
-      <c r="E49" t="str">
-        <f>INDEX(Define!L:L,MATCH(D49,Define!K:K))</f>
-        <v>Random</v>
-      </c>
-      <c r="F49">
-        <v>-1</v>
-      </c>
-      <c r="G49" t="str">
-        <f>INDEX(Define!J:J,MATCH(F49,Define!I:I))</f>
-        <v>Random</v>
-      </c>
-      <c r="H49">
-        <v>100</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
-      <c r="L49">
-        <v>0</v>
-      </c>
-      <c r="M49" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>60</v>
-      </c>
-      <c r="B50">
-        <v>5</v>
-      </c>
-      <c r="C50">
-        <v>0</v>
-      </c>
-      <c r="D50">
-        <v>-1</v>
-      </c>
-      <c r="E50" t="str">
-        <f>INDEX(Define!L:L,MATCH(D50,Define!K:K))</f>
-        <v>Random</v>
-      </c>
-      <c r="F50">
-        <v>-1</v>
-      </c>
-      <c r="G50" t="str">
-        <f>INDEX(Define!J:J,MATCH(F50,Define!I:I))</f>
-        <v>Random</v>
-      </c>
-      <c r="H50">
-        <v>100</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
-      <c r="K50">
-        <v>0</v>
-      </c>
-      <c r="L50">
-        <v>0</v>
-      </c>
-      <c r="M50" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>60</v>
-      </c>
-      <c r="B51">
-        <v>6</v>
-      </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-      <c r="D51">
-        <v>11</v>
-      </c>
-      <c r="E51" t="str">
-        <f>INDEX(Define!L:L,MATCH(D51,Define!K:K))</f>
-        <v>Boss</v>
-      </c>
-      <c r="F51">
-        <v>11</v>
-      </c>
-      <c r="G51" t="str">
-        <f>INDEX(Define!J:J,MATCH(F51,Define!I:I))</f>
-        <v>Boss</v>
-      </c>
-      <c r="H51">
-        <v>100</v>
-      </c>
-      <c r="I51">
-        <v>1101</v>
-      </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-      <c r="K51">
-        <v>1101</v>
-      </c>
-      <c r="L51">
-        <v>0</v>
-      </c>
-      <c r="M51" t="s">
         <v>46</v>
       </c>
     </row>
@@ -7809,7 +4221,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -7870,8 +4282,14 @@
       <c r="I3">
         <v>0</v>
       </c>
+      <c r="J3" s="3" t="s">
+        <v>136</v>
+      </c>
       <c r="K3">
         <v>0</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -7894,10 +4312,10 @@
         <v>94</v>
       </c>
       <c r="K4">
-        <v>10</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>134</v>
+        <v>11</v>
+      </c>
+      <c r="L4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -7914,10 +4332,10 @@
         <v>96</v>
       </c>
       <c r="K5">
-        <v>11</v>
-      </c>
-      <c r="L5" t="s">
-        <v>96</v>
+        <v>20</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -7934,10 +4352,10 @@
         <v>98</v>
       </c>
       <c r="K6">
-        <v>20</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>135</v>
+        <v>30</v>
+      </c>
+      <c r="L6" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -7954,10 +4372,10 @@
         <v>100</v>
       </c>
       <c r="K7">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="L7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -7974,10 +4392,10 @@
         <v>102</v>
       </c>
       <c r="K8">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="L8" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -7994,10 +4412,10 @@
         <v>104</v>
       </c>
       <c r="K9">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="L9" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -8014,10 +4432,10 @@
         <v>106</v>
       </c>
       <c r="K10">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="L10" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -8034,10 +4452,10 @@
         <v>108</v>
       </c>
       <c r="K11">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="L11" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -8054,10 +4472,10 @@
         <v>110</v>
       </c>
       <c r="K12">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="L12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -8074,10 +4492,10 @@
         <v>112</v>
       </c>
       <c r="K13">
-        <v>99</v>
-      </c>
-      <c r="L13" t="s">
-        <v>112</v>
+        <v>1000</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">

--- a/Assets/Data/Stages.xlsx
+++ b/Assets/Data/Stages.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\hibikake_unity\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FEDCAB9-EB59-46BF-A050-19255C09FAD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF0B3F2-F182-47A7-82AC-FB025B9776F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="490" windowWidth="19420" windowHeight="11620" tabRatio="661" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="490" windowWidth="19420" windowHeight="11620" tabRatio="661" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stages" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="137">
   <si>
     <t>Id</t>
   </si>
@@ -1866,7 +1866,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:H74"/>
     </sheetView>
   </sheetViews>
@@ -1910,15 +1910,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1935,28 +1935,22 @@
         <v>126</v>
       </c>
       <c r="F1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>126</v>
+        <v>36</v>
+      </c>
+      <c r="G1" t="s">
+        <v>37</v>
       </c>
       <c r="H1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>10</v>
       </c>
@@ -1974,32 +1968,25 @@
         <v>SelectActor</v>
       </c>
       <c r="F2">
-        <v>70</v>
-      </c>
-      <c r="G2" t="str">
-        <f>INDEX(Define!J:J,MATCH(F2,Define!I:I))</f>
-        <v>SelectActor</v>
+        <v>100</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
-      <c r="K2">
-        <v>1001</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="K2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>10</v>
       </c>
@@ -2017,14 +2004,13 @@
         <v>Battler</v>
       </c>
       <c r="F3">
-        <v>10</v>
-      </c>
-      <c r="G3" t="str">
-        <f>INDEX(Define!J:J,MATCH(F3,Define!I:I))</f>
-        <v>Battle</v>
+        <v>100</v>
+      </c>
+      <c r="G3">
+        <v>1011</v>
       </c>
       <c r="H3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>1011</v>
@@ -2032,17 +2018,11 @@
       <c r="J3">
         <v>0</v>
       </c>
-      <c r="K3">
-        <v>1011</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="K3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>10</v>
       </c>
@@ -2060,14 +2040,13 @@
         <v>Basement</v>
       </c>
       <c r="F4">
-        <v>10</v>
-      </c>
-      <c r="G4" t="str">
-        <f>INDEX(Define!J:J,MATCH(F4,Define!I:I))</f>
-        <v>Battle</v>
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -2075,17 +2054,11 @@
       <c r="J4">
         <v>0</v>
       </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="K4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>10</v>
       </c>
@@ -2103,14 +2076,13 @@
         <v>None</v>
       </c>
       <c r="F5">
-        <v>10</v>
-      </c>
-      <c r="G5" t="str">
-        <f>INDEX(Define!J:J,MATCH(F5,Define!I:I))</f>
-        <v>Battle</v>
+        <v>100</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -2118,17 +2090,11 @@
       <c r="J5">
         <v>0</v>
       </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="K5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>10</v>
       </c>
@@ -2146,14 +2112,13 @@
         <v>None</v>
       </c>
       <c r="F6">
-        <v>10</v>
-      </c>
-      <c r="G6" t="str">
-        <f>INDEX(Define!J:J,MATCH(F6,Define!I:I))</f>
-        <v>Battle</v>
+        <v>100</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -2161,17 +2126,11 @@
       <c r="J6">
         <v>0</v>
       </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6" t="s">
+      <c r="K6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>10</v>
       </c>
@@ -2189,14 +2148,13 @@
         <v>None</v>
       </c>
       <c r="F7">
-        <v>10</v>
-      </c>
-      <c r="G7" t="str">
-        <f>INDEX(Define!J:J,MATCH(F7,Define!I:I))</f>
-        <v>Battle</v>
+        <v>100</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -2204,17 +2162,11 @@
       <c r="J7">
         <v>0</v>
       </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7" t="s">
+      <c r="K7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>10</v>
       </c>
@@ -2232,14 +2184,13 @@
         <v>None</v>
       </c>
       <c r="F8">
-        <v>10</v>
-      </c>
-      <c r="G8" t="str">
-        <f>INDEX(Define!J:J,MATCH(F8,Define!I:I))</f>
-        <v>Battle</v>
+        <v>100</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -2247,17 +2198,11 @@
       <c r="J8">
         <v>0</v>
       </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8" t="s">
+      <c r="K8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>11</v>
       </c>
@@ -2275,32 +2220,25 @@
         <v>Battler</v>
       </c>
       <c r="F9">
-        <v>10</v>
-      </c>
-      <c r="G9" t="str">
-        <f>INDEX(Define!J:J,MATCH(F9,Define!I:I))</f>
-        <v>Battle</v>
+        <v>100</v>
+      </c>
+      <c r="G9">
+        <v>-1</v>
       </c>
       <c r="H9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9" t="s">
+      <c r="K9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>11</v>
       </c>
@@ -2318,14 +2256,13 @@
         <v>Battler</v>
       </c>
       <c r="F10">
-        <v>10</v>
-      </c>
-      <c r="G10" t="str">
-        <f>INDEX(Define!J:J,MATCH(F10,Define!I:I))</f>
-        <v>Battle</v>
+        <v>100</v>
+      </c>
+      <c r="G10">
+        <v>1011</v>
       </c>
       <c r="H10">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>1011</v>
@@ -2333,17 +2270,11 @@
       <c r="J10">
         <v>0</v>
       </c>
-      <c r="K10">
-        <v>1011</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10" t="s">
+      <c r="K10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>11</v>
       </c>
@@ -2361,14 +2292,13 @@
         <v>Battler</v>
       </c>
       <c r="F11">
-        <v>10</v>
-      </c>
-      <c r="G11" t="str">
-        <f>INDEX(Define!J:J,MATCH(F11,Define!I:I))</f>
-        <v>Battle</v>
+        <v>100</v>
+      </c>
+      <c r="G11">
+        <v>1021</v>
       </c>
       <c r="H11">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>1021</v>
@@ -2376,17 +2306,11 @@
       <c r="J11">
         <v>0</v>
       </c>
-      <c r="K11">
-        <v>1021</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11" t="s">
+      <c r="K11" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2404,14 +2328,13 @@
         <v>Battler</v>
       </c>
       <c r="F12">
-        <v>10</v>
-      </c>
-      <c r="G12" t="str">
-        <f>INDEX(Define!J:J,MATCH(F12,Define!I:I))</f>
-        <v>Battle</v>
+        <v>100</v>
+      </c>
+      <c r="G12">
+        <v>1031</v>
       </c>
       <c r="H12">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>1031</v>
@@ -2419,17 +2342,11 @@
       <c r="J12">
         <v>0</v>
       </c>
-      <c r="K12">
-        <v>1031</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12" t="s">
+      <c r="K12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2447,14 +2364,13 @@
         <v>Battler</v>
       </c>
       <c r="F13">
-        <v>10</v>
-      </c>
-      <c r="G13" t="str">
-        <f>INDEX(Define!J:J,MATCH(F13,Define!I:I))</f>
-        <v>Battle</v>
+        <v>100</v>
+      </c>
+      <c r="G13">
+        <v>1041</v>
       </c>
       <c r="H13">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>1041</v>
@@ -2462,17 +2378,11 @@
       <c r="J13">
         <v>0</v>
       </c>
-      <c r="K13">
-        <v>1041</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13" t="s">
+      <c r="K13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>11</v>
       </c>
@@ -2490,32 +2400,25 @@
         <v>Battler</v>
       </c>
       <c r="F14">
-        <v>10</v>
-      </c>
-      <c r="G14" t="str">
-        <f>INDEX(Define!J:J,MATCH(F14,Define!I:I))</f>
-        <v>Battle</v>
+        <v>100</v>
+      </c>
+      <c r="G14">
+        <v>1042</v>
       </c>
       <c r="H14">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>1042</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
         <v>1</v>
       </c>
-      <c r="M14" t="s">
+      <c r="K14" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>11</v>
       </c>
@@ -2533,28 +2436,21 @@
         <v>Boss</v>
       </c>
       <c r="F15">
-        <v>11</v>
-      </c>
-      <c r="G15" t="str">
-        <f>INDEX(Define!J:J,MATCH(F15,Define!I:I))</f>
-        <v>Boss</v>
+        <v>100</v>
+      </c>
+      <c r="G15">
+        <v>1101</v>
       </c>
       <c r="H15">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="I15">
         <v>1101</v>
       </c>
       <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="K15">
-        <v>1101</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15" t="s">
+        <v>0</v>
+      </c>
+      <c r="K15" t="s">
         <v>46</v>
       </c>
     </row>

--- a/Assets/Data/Stages.xlsx
+++ b/Assets/Data/Stages.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\hibikake_unity\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF0B3F2-F182-47A7-82AC-FB025B9776F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F84698-20C7-4B61-9F13-CA7C9B1BB28F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="490" windowWidth="19420" windowHeight="11620" tabRatio="661" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="142">
   <si>
     <t>Id</t>
   </si>
@@ -642,6 +642,26 @@
   </si>
   <si>
     <t>None</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>StageId</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Id</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>MoveType</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>MoveParam</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>InitTeamId</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -1910,107 +1930,131 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>138</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H1" t="s">
         <v>36</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>37</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>38</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>39</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M1" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
         <v>-1</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
       <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
         <v>70</v>
       </c>
-      <c r="E2" t="str">
-        <f>INDEX(Define!L:L,MATCH(D2,Define!K:K))</f>
+      <c r="F2" t="str">
+        <f>INDEX(Define!L:L,MATCH(E2,Define!K:K))</f>
         <v>SelectActor</v>
       </c>
-      <c r="F2">
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
         <v>100</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
       <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
         <v>1001</v>
       </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>10</v>
+        <v>1010</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>1000</v>
+      </c>
+      <c r="F3" t="str">
+        <f>INDEX(Define!L:L,MATCH(E3,Define!K:K))</f>
+        <v>Battler</v>
+      </c>
+      <c r="G3">
         <v>2</v>
       </c>
-      <c r="D3">
-        <v>1000</v>
-      </c>
-      <c r="E3" t="str">
-        <f>INDEX(Define!L:L,MATCH(D3,Define!K:K))</f>
-        <v>Battler</v>
-      </c>
-      <c r="F3">
+      <c r="H3">
         <v>100</v>
-      </c>
-      <c r="G3">
-        <v>1011</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
       </c>
       <c r="I3">
         <v>1011</v>
@@ -2018,251 +2062,335 @@
       <c r="J3">
         <v>0</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3">
+        <v>1011</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>10</v>
+        <v>1020</v>
       </c>
       <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4">
         <v>2</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>4</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>20</v>
       </c>
-      <c r="E4" t="str">
-        <f>INDEX(Define!L:L,MATCH(D4,Define!K:K))</f>
+      <c r="F4" t="str">
+        <f>INDEX(Define!L:L,MATCH(E4,Define!K:K))</f>
         <v>Basement</v>
       </c>
-      <c r="F4">
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
         <v>100</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>10</v>
+        <v>1030</v>
       </c>
       <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
         <v>2</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>3</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" t="str">
-        <f>INDEX(Define!L:L,MATCH(D5,Define!K:K))</f>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="str">
+        <f>INDEX(Define!L:L,MATCH(E5,Define!K:K))</f>
         <v>None</v>
       </c>
-      <c r="F5">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>100</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>10</v>
+        <v>1040</v>
       </c>
       <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
         <v>2</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>5</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6" t="str">
-        <f>INDEX(Define!L:L,MATCH(D6,Define!K:K))</f>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="str">
+        <f>INDEX(Define!L:L,MATCH(E6,Define!K:K))</f>
         <v>None</v>
       </c>
-      <c r="F6">
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>100</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>10</v>
+        <v>1050</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7" t="str">
-        <f>INDEX(Define!L:L,MATCH(D7,Define!K:K))</f>
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="str">
+        <f>INDEX(Define!L:L,MATCH(E7,Define!K:K))</f>
         <v>None</v>
       </c>
-      <c r="F7">
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>100</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>10</v>
+        <v>1060</v>
       </c>
       <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8">
         <v>4</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>5</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" t="str">
-        <f>INDEX(Define!L:L,MATCH(D8,Define!K:K))</f>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="str">
+        <f>INDEX(Define!L:L,MATCH(E8,Define!K:K))</f>
         <v>None</v>
       </c>
-      <c r="F8">
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>100</v>
       </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9">
+        <v>2010</v>
+      </c>
+      <c r="B9">
         <v>11</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
         <v>1000</v>
       </c>
-      <c r="E9" t="str">
-        <f>INDEX(Define!L:L,MATCH(D9,Define!K:K))</f>
+      <c r="F9" t="str">
+        <f>INDEX(Define!L:L,MATCH(E9,Define!K:K))</f>
         <v>Battler</v>
       </c>
-      <c r="F9">
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>100</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <v>-1</v>
       </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
       <c r="J9">
         <v>0</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10">
+        <v>2020</v>
+      </c>
+      <c r="B10">
         <v>11</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>1</v>
       </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
       <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
         <v>1000</v>
       </c>
-      <c r="E10" t="str">
-        <f>INDEX(Define!L:L,MATCH(D10,Define!K:K))</f>
+      <c r="F10" t="str">
+        <f>INDEX(Define!L:L,MATCH(E10,Define!K:K))</f>
         <v>Battler</v>
       </c>
-      <c r="F10">
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>100</v>
-      </c>
-      <c r="G10">
-        <v>1011</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
       </c>
       <c r="I10">
         <v>1011</v>
@@ -2270,35 +2398,47 @@
       <c r="J10">
         <v>0</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10">
+        <v>1011</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11">
+        <v>2030</v>
+      </c>
+      <c r="B11">
         <v>11</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>2</v>
       </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
       <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
         <v>1000</v>
       </c>
-      <c r="E11" t="str">
-        <f>INDEX(Define!L:L,MATCH(D11,Define!K:K))</f>
+      <c r="F11" t="str">
+        <f>INDEX(Define!L:L,MATCH(E11,Define!K:K))</f>
         <v>Battler</v>
       </c>
-      <c r="F11">
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <v>100</v>
-      </c>
-      <c r="G11">
-        <v>1021</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
       </c>
       <c r="I11">
         <v>1021</v>
@@ -2306,35 +2446,47 @@
       <c r="J11">
         <v>0</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11">
+        <v>1021</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12">
+        <v>2040</v>
+      </c>
+      <c r="B12">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>3</v>
       </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
       <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
         <v>1000</v>
       </c>
-      <c r="E12" t="str">
-        <f>INDEX(Define!L:L,MATCH(D12,Define!K:K))</f>
+      <c r="F12" t="str">
+        <f>INDEX(Define!L:L,MATCH(E12,Define!K:K))</f>
         <v>Battler</v>
       </c>
-      <c r="F12">
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>100</v>
-      </c>
-      <c r="G12">
-        <v>1031</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
       </c>
       <c r="I12">
         <v>1031</v>
@@ -2342,35 +2494,47 @@
       <c r="J12">
         <v>0</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12">
+        <v>1031</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13">
+        <v>2050</v>
+      </c>
+      <c r="B13">
         <v>11</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>4</v>
       </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
       <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
         <v>1000</v>
       </c>
-      <c r="E13" t="str">
-        <f>INDEX(Define!L:L,MATCH(D13,Define!K:K))</f>
+      <c r="F13" t="str">
+        <f>INDEX(Define!L:L,MATCH(E13,Define!K:K))</f>
         <v>Battler</v>
       </c>
-      <c r="F13">
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>100</v>
-      </c>
-      <c r="G13">
-        <v>1041</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
       </c>
       <c r="I13">
         <v>1041</v>
@@ -2378,79 +2542,115 @@
       <c r="J13">
         <v>0</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13">
+        <v>1041</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14">
+        <v>2060</v>
+      </c>
+      <c r="B14">
         <v>11</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>4</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>1</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>1000</v>
       </c>
-      <c r="E14" t="str">
-        <f>INDEX(Define!L:L,MATCH(D14,Define!K:K))</f>
+      <c r="F14" t="str">
+        <f>INDEX(Define!L:L,MATCH(E14,Define!K:K))</f>
         <v>Battler</v>
       </c>
-      <c r="F14">
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
         <v>100</v>
       </c>
-      <c r="G14">
+      <c r="I14">
         <v>1042</v>
       </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
       <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
         <v>1</v>
       </c>
-      <c r="K14" t="s">
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15">
+        <v>2070</v>
+      </c>
+      <c r="B15">
         <v>11</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>5</v>
       </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
       <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
         <v>11</v>
       </c>
-      <c r="E15" t="str">
-        <f>INDEX(Define!L:L,MATCH(D15,Define!K:K))</f>
+      <c r="F15" t="str">
+        <f>INDEX(Define!L:L,MATCH(E15,Define!K:K))</f>
         <v>Boss</v>
       </c>
-      <c r="F15">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
         <v>100</v>
-      </c>
-      <c r="G15">
-        <v>1101</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
       </c>
       <c r="I15">
         <v>1101</v>
       </c>
       <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15" t="s">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1101</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15" t="s">
         <v>46</v>
       </c>
     </row>
